--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -212,10 +212,6 @@
     <t>3dby_btn_sd</t>
   </si>
   <si>
-    <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_btn_zh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -470,6 +466,9 @@
   <si>
     <t>20,21,22,23,24,25,26,27,38,39,40,41,42,43,44,45,46,47,48,49,</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_summon_fish</t>
   </si>
 </sst>
 </file>
@@ -898,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -926,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
@@ -965,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -1088,7 +1087,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1113,9 +1112,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
@@ -1123,9 +1120,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
@@ -1133,9 +1128,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>20</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
@@ -1330,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1382,13 +1375,13 @@
         <v>33</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
@@ -1414,7 +1407,7 @@
         <v>500</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>43</v>
@@ -1434,13 +1427,13 @@
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>39</v>
@@ -1460,13 +1453,13 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>40</v>
@@ -1486,13 +1479,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>2800</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>41</v>
@@ -1518,7 +1511,7 @@
         <v>1349</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
@@ -1544,7 +1537,7 @@
         <v>1350</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>47</v>
@@ -1561,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>37</v>
@@ -1570,10 +1563,10 @@
         <v>1000</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1590,13 +1583,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -1616,13 +1609,13 @@
         <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>300</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>43</v>
@@ -1642,13 +1635,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>2800</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>39</v>
@@ -1668,13 +1661,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>2000</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>40</v>
@@ -1694,13 +1687,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>41</v>
@@ -1726,7 +1719,7 @@
         <v>1349</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>46</v>
@@ -1752,7 +1745,7 @@
         <v>1350</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>47</v>
@@ -1769,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
@@ -1778,10 +1771,10 @@
         <v>1000</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1798,13 +1791,13 @@
         <v>33</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
@@ -1824,13 +1817,13 @@
         <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>300</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>43</v>
@@ -1850,13 +1843,13 @@
         <v>32</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>2800</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>39</v>
@@ -1876,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>2000</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>40</v>
@@ -1902,13 +1895,13 @@
         <v>30</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22">
         <v>1000</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>41</v>
@@ -1934,7 +1927,7 @@
         <v>1349</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>46</v>
@@ -1960,7 +1953,7 @@
         <v>1350</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>47</v>
@@ -1977,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>37</v>
@@ -1986,10 +1979,10 @@
         <v>1000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2006,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>38</v>
@@ -2032,13 +2025,13 @@
         <v>42</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>300</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>43</v>
@@ -2058,13 +2051,13 @@
         <v>32</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28">
         <v>2800</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>39</v>
@@ -2084,13 +2077,13 @@
         <v>31</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>2000</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>40</v>
@@ -2110,13 +2103,13 @@
         <v>30</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>1000</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>41</v>
@@ -2142,7 +2135,7 @@
         <v>1349</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>46</v>
@@ -2168,7 +2161,7 @@
         <v>1350</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>47</v>
@@ -2185,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>37</v>
@@ -2194,10 +2187,10 @@
         <v>1000</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2214,13 +2207,13 @@
         <v>33</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>38</v>
@@ -2240,13 +2233,13 @@
         <v>42</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>300</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>43</v>
@@ -2266,13 +2259,13 @@
         <v>32</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>2800</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>39</v>
@@ -2292,13 +2285,13 @@
         <v>31</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>2000</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>40</v>
@@ -2318,13 +2311,13 @@
         <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>1000</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>41</v>
@@ -2350,7 +2343,7 @@
         <v>1349</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>46</v>
@@ -2376,7 +2369,7 @@
         <v>1350</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>47</v>
@@ -2393,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>37</v>
@@ -2402,10 +2395,10 @@
         <v>1000</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2422,13 +2415,13 @@
         <v>33</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>38</v>
@@ -2448,13 +2441,13 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
         <v>300</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>43</v>
@@ -2474,13 +2467,13 @@
         <v>32</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44">
         <v>2800</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>39</v>
@@ -2500,13 +2493,13 @@
         <v>31</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>2000</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>40</v>
@@ -2526,13 +2519,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <v>1000</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>41</v>
@@ -2558,7 +2551,7 @@
         <v>1349</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>46</v>
@@ -2584,7 +2577,7 @@
         <v>1350</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>47</v>
@@ -2601,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>37</v>
@@ -2610,10 +2603,10 @@
         <v>1000</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,13 +2623,13 @@
         <v>33</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>38</v>
@@ -2656,13 +2649,13 @@
         <v>42</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51">
         <v>300</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>43</v>
@@ -2682,13 +2675,13 @@
         <v>32</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52">
         <v>2800</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>39</v>
@@ -2708,13 +2701,13 @@
         <v>31</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53">
         <v>2000</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>40</v>
@@ -2734,13 +2727,13 @@
         <v>30</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>41</v>
@@ -2766,7 +2759,7 @@
         <v>1349</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>46</v>
@@ -2792,7 +2785,7 @@
         <v>1350</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>47</v>
@@ -2809,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>37</v>
@@ -2818,10 +2811,10 @@
         <v>1000</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2838,13 +2831,13 @@
         <v>33</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>38</v>
@@ -2864,13 +2857,13 @@
         <v>42</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>300</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>43</v>
@@ -2890,13 +2883,13 @@
         <v>32</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>2800</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>39</v>
@@ -2916,13 +2909,13 @@
         <v>31</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>2000</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>40</v>
@@ -2942,13 +2935,13 @@
         <v>30</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <v>1000</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>41</v>
@@ -2974,7 +2967,7 @@
         <v>1349</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>46</v>
@@ -3000,7 +2993,7 @@
         <v>1350</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>47</v>
@@ -3017,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>37</v>
@@ -3026,10 +3019,10 @@
         <v>1000</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -1085,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1112,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
@@ -1120,7 +1122,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
@@ -1128,7 +1132,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
@@ -1323,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x0.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -368,10 +364,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x1500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x9000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -388,10 +380,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x1800</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -408,10 +396,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x450</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -428,10 +412,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x40</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -444,10 +424,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>红包券x20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片x140</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -469,6 +445,24 @@
   </si>
   <si>
     <t>obj_fish_3d_summon_fish</t>
+  </si>
+  <si>
+    <t>福利券x0.5</t>
+  </si>
+  <si>
+    <t>福利券x5</t>
+  </si>
+  <si>
+    <t>福利券x20</t>
+  </si>
+  <si>
+    <t>福利券x80</t>
+  </si>
+  <si>
+    <t>福利券x300</t>
+  </si>
+  <si>
+    <t>福利券x1500</t>
   </si>
 </sst>
 </file>
@@ -925,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
@@ -1085,9 +1079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1329,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
@@ -1413,7 +1407,7 @@
         <v>500</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>43</v>
@@ -1439,7 +1433,7 @@
         <v>1000</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>39</v>
@@ -1465,7 +1459,7 @@
         <v>2000</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>40</v>
@@ -1491,7 +1485,7 @@
         <v>2800</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>41</v>
@@ -1517,7 +1511,7 @@
         <v>1349</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>46</v>
@@ -1543,7 +1537,7 @@
         <v>1350</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>47</v>
@@ -1560,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>37</v>
@@ -1569,7 +1563,7 @@
         <v>1000</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>48</v>
@@ -1595,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -1621,7 +1615,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>43</v>
@@ -1647,7 +1641,7 @@
         <v>2800</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>39</v>
@@ -1673,7 +1667,7 @@
         <v>2000</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>40</v>
@@ -1699,7 +1693,7 @@
         <v>1000</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>41</v>
@@ -1725,7 +1719,7 @@
         <v>1349</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>46</v>
@@ -1751,7 +1745,7 @@
         <v>1350</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>47</v>
@@ -1768,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
@@ -1777,7 +1771,7 @@
         <v>1000</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>48</v>
@@ -1803,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
@@ -1829,7 +1823,7 @@
         <v>300</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>43</v>
@@ -1855,7 +1849,7 @@
         <v>2800</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>39</v>
@@ -1881,7 +1875,7 @@
         <v>2000</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>40</v>
@@ -1907,7 +1901,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>41</v>
@@ -1933,7 +1927,7 @@
         <v>1349</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>46</v>
@@ -1959,7 +1953,7 @@
         <v>1350</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>47</v>
@@ -1976,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>37</v>
@@ -1985,7 +1979,7 @@
         <v>1000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>48</v>
@@ -2011,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>38</v>
@@ -2037,7 +2031,7 @@
         <v>300</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>43</v>
@@ -2063,7 +2057,7 @@
         <v>2800</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>39</v>
@@ -2089,7 +2083,7 @@
         <v>2000</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>40</v>
@@ -2115,7 +2109,7 @@
         <v>1000</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>41</v>
@@ -2141,7 +2135,7 @@
         <v>1349</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>46</v>
@@ -2167,7 +2161,7 @@
         <v>1350</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>47</v>
@@ -2184,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>37</v>
@@ -2193,7 +2187,7 @@
         <v>1000</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>48</v>
@@ -2219,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>38</v>
@@ -2245,7 +2239,7 @@
         <v>300</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>43</v>
@@ -2271,7 +2265,7 @@
         <v>2800</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>39</v>
@@ -2297,7 +2291,7 @@
         <v>2000</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>40</v>
@@ -2323,7 +2317,7 @@
         <v>1000</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>41</v>
@@ -2349,7 +2343,7 @@
         <v>1349</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>46</v>
@@ -2375,7 +2369,7 @@
         <v>1350</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>47</v>
@@ -2392,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>37</v>
@@ -2401,7 +2395,7 @@
         <v>1000</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>48</v>
@@ -2427,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>38</v>
@@ -2453,7 +2447,7 @@
         <v>300</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>43</v>
@@ -2479,7 +2473,7 @@
         <v>2800</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>39</v>
@@ -2505,7 +2499,7 @@
         <v>2000</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>40</v>
@@ -2531,7 +2525,7 @@
         <v>1000</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>41</v>
@@ -2557,7 +2551,7 @@
         <v>1349</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>46</v>
@@ -2583,7 +2577,7 @@
         <v>1350</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>47</v>
@@ -2600,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>37</v>
@@ -2609,7 +2603,7 @@
         <v>1000</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>48</v>
@@ -2635,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>38</v>
@@ -2661,7 +2655,7 @@
         <v>300</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>43</v>
@@ -2687,7 +2681,7 @@
         <v>2800</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>39</v>
@@ -2713,7 +2707,7 @@
         <v>2000</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>40</v>
@@ -2739,7 +2733,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>41</v>
@@ -2765,7 +2759,7 @@
         <v>1349</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>46</v>
@@ -2791,7 +2785,7 @@
         <v>1350</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>47</v>
@@ -2808,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>37</v>
@@ -2817,7 +2811,7 @@
         <v>1000</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>48</v>
@@ -2843,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>38</v>
@@ -2869,7 +2863,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>43</v>
@@ -2895,7 +2889,7 @@
         <v>2800</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>39</v>
@@ -2921,7 +2915,7 @@
         <v>2000</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>40</v>
@@ -2947,7 +2941,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>41</v>
@@ -2973,7 +2967,7 @@
         <v>1349</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>46</v>
@@ -2999,7 +2993,7 @@
         <v>1350</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>47</v>
@@ -3016,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>37</v>
@@ -3025,7 +3019,7 @@
         <v>1000</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>48</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -444,9 +444,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_summon_fish</t>
-  </si>
-  <si>
     <t>福利券x0.5</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>福利券x1500</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>37</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>37</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>37</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>38</v>
@@ -2178,7 +2178,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>37</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>38</v>
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>37</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>38</v>
@@ -2594,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>37</v>
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>38</v>
@@ -2802,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>37</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>38</v>
@@ -3010,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>37</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="251">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>lottery_reset_time|抽奖重置时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -59,11 +55,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>score_limit|奖励分限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>config_id|奖品配置id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -87,122 +83,1565 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cjy_icon_sd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
+    <t>game_id|场次id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
+    <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100000</t>
+    <t>begin_time|开始时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls_icon_jb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,600</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,4000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-  </si>
-  <si>
-    <t>prop_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_summon_fish</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>end_time|结束时间</t>
   </si>
   <si>
     <t>铂金抽奖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>普通抽奖</t>
+  </si>
+  <si>
+    <t>青铜抽奖</t>
+  </si>
+  <si>
+    <t>白银抽奖</t>
+  </si>
+  <si>
+    <t>黄金抽奖</t>
+  </si>
+  <si>
     <t>至尊抽奖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>score_limit_1|奖励分限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>score_limit_2|奖励分限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>score_limit_3|奖励分限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费碎片*10</t>
+  </si>
+  <si>
+    <t>锁定*5</t>
+  </si>
+  <si>
+    <t>0.5红包券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5红包</t>
+  </si>
+  <si>
+    <t>话费碎片*40</t>
+  </si>
+  <si>
+    <t>20红包</t>
+  </si>
+  <si>
+    <t>话费碎片*140</t>
+  </si>
+  <si>
+    <t>80红包</t>
+  </si>
+  <si>
+    <t>话费碎片*450</t>
+  </si>
+  <si>
+    <t>300红包</t>
+  </si>
+  <si>
+    <t>话费碎片*1800</t>
+  </si>
+  <si>
+    <t>1500红包</t>
+  </si>
+  <si>
+    <t>话费碎片*9000</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount_fish_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1红包</t>
+  </si>
+  <si>
+    <t>话费碎片*20</t>
+  </si>
+  <si>
+    <t>锁定*10</t>
+  </si>
+  <si>
+    <t>10红包</t>
+  </si>
+  <si>
+    <t>话费碎片*80</t>
+  </si>
+  <si>
+    <t>40红包</t>
+  </si>
+  <si>
+    <t>话费碎片*280</t>
+  </si>
+  <si>
+    <t>160红包</t>
+  </si>
+  <si>
+    <t>话费碎片*900</t>
+  </si>
+  <si>
+    <t>600红包</t>
+  </si>
+  <si>
+    <t>话费碎片*3600</t>
+  </si>
+  <si>
+    <t>3000红包</t>
+  </si>
+  <si>
+    <t>话费碎片*18000</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>64000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>240000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>560000</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>4红包</t>
+  </si>
+  <si>
+    <t>锁定*40</t>
+  </si>
+  <si>
+    <t>话费碎片*320</t>
+  </si>
+  <si>
+    <t>话费碎片*1120</t>
+  </si>
+  <si>
+    <t>640红包</t>
+  </si>
+  <si>
+    <t>2400红包</t>
+  </si>
+  <si>
+    <t>话费碎片*13000</t>
+  </si>
+  <si>
+    <t>话费碎片*72000</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>3200000</t>
+  </si>
+  <si>
+    <t>960000</t>
+  </si>
+  <si>
+    <t>440000</t>
+  </si>
+  <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>16000000</t>
+  </si>
+  <si>
+    <t>4800000</t>
+  </si>
+  <si>
+    <t>2200000</t>
+  </si>
+  <si>
+    <t>720000</t>
+  </si>
+  <si>
+    <t>鱼币*3000</t>
+  </si>
+  <si>
+    <t>鱼币*1000</t>
+  </si>
+  <si>
+    <t>鱼币*500</t>
+  </si>
+  <si>
+    <t>鱼币*9000</t>
+  </si>
+  <si>
+    <t>鱼币*1500</t>
+  </si>
+  <si>
+    <t>鱼币32000</t>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+  </si>
+  <si>
+    <t>鱼币*4500</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+  </si>
+  <si>
+    <t>鱼币*14000</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>鱼币*55000</t>
+  </si>
+  <si>
+    <t>鱼币*18000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+  </si>
+  <si>
+    <t>鱼币*90000</t>
+  </si>
+  <si>
+    <t>鱼币*6000</t>
+  </si>
+  <si>
+    <t>鱼币*2000</t>
+  </si>
+  <si>
+    <t>鱼币*64000</t>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
+    <t>鱼币*28000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*240000</t>
+  </si>
+  <si>
+    <t>鱼币*110000</t>
+  </si>
+  <si>
+    <t>鱼币*36000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+  </si>
+  <si>
+    <t>鱼币*24000</t>
+  </si>
+  <si>
+    <t>鱼币*8000</t>
+  </si>
+  <si>
+    <t>鱼币*4000</t>
+  </si>
+  <si>
+    <t>鱼币*72000</t>
+  </si>
+  <si>
+    <t>鱼币*12000</t>
+  </si>
+  <si>
+    <t>鱼币*256000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*3200000</t>
+  </si>
+  <si>
+    <t>鱼币*960000</t>
+  </si>
+  <si>
+    <t>鱼币*440000</t>
+  </si>
+  <si>
+    <t>鱼币*144000</t>
+  </si>
+  <si>
+    <t>鱼币*16000000</t>
+  </si>
+  <si>
+    <t>鱼币*4800000</t>
+  </si>
+  <si>
+    <t>鱼币*2200000</t>
+  </si>
+  <si>
+    <t>鱼币*720000</t>
+  </si>
+  <si>
+    <t>activity_icon_gift90_pg11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1587425400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>real|是否是实物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_img|实物图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift90_pg11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果XS_MAX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>20,21,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2红包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红包</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00红包</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6500</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红包</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>560</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红包</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>锁定*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20红包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>话费碎片*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鱼币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -210,6 +1649,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +1696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +1707,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +1758,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,17 +1786,35 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,37 +2093,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
@@ -665,12 +2139,18 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
@@ -682,174 +2162,516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="7" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F10" s="12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="12">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="12">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="F16" s="12">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="12">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="F22" s="12">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="12">
+        <v>40000000</v>
       </c>
     </row>
   </sheetData>
@@ -861,20 +2683,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H65"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -894,13 +2718,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -911,22 +2741,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -937,22 +2770,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -963,22 +2799,25 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4">
-        <v>600</v>
+        <v>1000</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -989,22 +2828,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4000</v>
+        <v>2000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1015,22 +2857,25 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
+        <v>2800</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1041,74 +2886,83 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
+        <v>3699</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1116,25 +2970,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1000</v>
+        <v>800</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1142,25 +2999,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1168,25 +3028,28 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4000</v>
+        <v>3000</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1194,1374 +3057,4012 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1000</v>
+        <v>3899</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4">
-        <v>3000</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>6</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4000</v>
+        <v>300</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3000</v>
+        <v>800</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4000</v>
+        <v>2000</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1000</v>
+        <v>3000</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3000</v>
+        <v>3899</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" s="1">
+        <f>B14+1</f>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4000</v>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B84" si="0">B15+1</f>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4">
-        <v>3000</v>
+        <v>500</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>3</v>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4">
         <v>3000</v>
       </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
       <c r="H24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4">
-        <v>4000</v>
+        <v>3899</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>4</v>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>4</v>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3000</v>
+        <v>500</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>4</v>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28" s="4">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>163</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>4</v>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1000</v>
+        <v>2500</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>4</v>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4">
         <v>3000</v>
       </c>
+      <c r="G30" t="s">
+        <v>165</v>
+      </c>
       <c r="H30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>4</v>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4">
-        <v>4000</v>
+        <v>3899</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32" s="4">
-        <v>3000</v>
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4">
-        <v>4000</v>
+        <v>500</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>5</v>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>5</v>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="G35" t="s">
+        <v>168</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4">
-        <v>4000</v>
+        <v>3000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>5</v>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1000</v>
+        <v>3899</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>5</v>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3000</v>
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>5</v>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39" s="4">
-        <v>4000</v>
+        <v>500</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>5</v>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>5</v>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C41" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41" s="4">
-        <v>4000</v>
+        <v>2000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>172</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>6</v>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1000</v>
+        <v>2800</v>
+      </c>
+      <c r="G42" t="s">
+        <v>153</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43" s="4">
-        <v>3000</v>
+        <v>3699</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>6</v>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44" s="4">
-        <v>4000</v>
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>95</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>6</v>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1000</v>
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>6</v>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46" s="4">
-        <v>3000</v>
+        <v>800</v>
+      </c>
+      <c r="G46" t="s">
+        <v>166</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>6</v>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47" s="4">
-        <v>4000</v>
+        <v>2000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>171</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>6</v>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48" s="4">
         <v>3000</v>
       </c>
+      <c r="G48" t="s">
+        <v>152</v>
+      </c>
       <c r="H48" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
-        <v>8</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49" s="4">
-        <v>4000</v>
+        <v>3899</v>
+      </c>
+      <c r="G49" t="s">
+        <v>153</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>7</v>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>7</v>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F51">
-        <v>10</v>
-      </c>
-      <c r="G51" s="4">
-        <v>3000</v>
+        <v>300</v>
+      </c>
+      <c r="G51" t="s">
+        <v>98</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>7</v>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52" s="4">
-        <v>4000</v>
+        <v>800</v>
+      </c>
+      <c r="G52" t="s">
+        <v>173</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>7</v>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C53" s="1">
         <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>174</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>7</v>
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54" s="4">
         <v>3000</v>
       </c>
+      <c r="G54" t="s">
+        <v>155</v>
+      </c>
       <c r="H54" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>7</v>
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="G55" s="4">
-        <v>4000</v>
+        <v>3899</v>
+      </c>
+      <c r="G55" t="s">
+        <v>152</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>7</v>
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C56" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56" s="4">
-        <v>3000</v>
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>99</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>7</v>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57" s="4">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>8</v>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1000</v>
+        <v>500</v>
+      </c>
+      <c r="G58" t="s">
+        <v>175</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>8</v>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>10</v>
-      </c>
-      <c r="G59" s="4">
-        <v>3000</v>
+        <v>2500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>176</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>8</v>
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="G60" s="4">
-        <v>4000</v>
+        <v>3000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>177</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>8</v>
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1000</v>
+        <v>3899</v>
+      </c>
+      <c r="G61" t="s">
+        <v>155</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>8</v>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="F62">
-        <v>10</v>
-      </c>
-      <c r="G62" s="4">
-        <v>3000</v>
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>101</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>8</v>
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63" s="4">
-        <v>4000</v>
+        <v>500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>102</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>8</v>
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64" s="4">
-        <v>3000</v>
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>178</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>8</v>
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65">
+        <v>2500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
         <v>5</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="D66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>3000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>180</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67">
+        <v>3899</v>
+      </c>
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69">
+        <v>500</v>
+      </c>
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71">
+        <v>2500</v>
+      </c>
+      <c r="G71" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72">
+        <v>3000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73">
+        <v>3899</v>
+      </c>
+      <c r="G73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" s="13">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C75" s="14">
+        <v>2</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" s="13">
+        <v>500</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C76" s="14">
+        <v>3</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C77" s="14">
+        <v>4</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F77" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I77" s="13">
+        <v>0</v>
+      </c>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C78" s="14">
+        <v>5</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="13">
+        <v>2800</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C79" s="14">
+        <v>6</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="16">
+        <v>20</v>
+      </c>
+      <c r="F79" s="13">
+        <v>3699</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="16">
+        <v>20</v>
+      </c>
+      <c r="F80" s="13">
+        <v>1</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C81" s="14">
+        <v>2</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="16">
+        <v>160</v>
+      </c>
+      <c r="F81" s="13">
+        <v>300</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="13">
+        <v>0</v>
+      </c>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C82" s="14">
+        <v>3</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="16">
+        <v>36000</v>
+      </c>
+      <c r="F82" s="13">
+        <v>800</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I82" s="13">
+        <v>0</v>
+      </c>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C83" s="14">
+        <v>4</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C84" s="14">
+        <v>5</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F84" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
+      <c r="B85" s="14">
+        <f t="shared" ref="B85:B145" si="1">B79+1</f>
+        <v>14</v>
+      </c>
+      <c r="C85" s="14">
+        <v>6</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F85" s="13">
+        <v>3899</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0</v>
+      </c>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13">
+        <v>85</v>
+      </c>
+      <c r="B86" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="16">
+        <v>80</v>
+      </c>
+      <c r="F86" s="13">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="13">
+        <v>0</v>
+      </c>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>86</v>
+      </c>
+      <c r="B87" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C87" s="14">
+        <v>2</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="16">
+        <v>560</v>
+      </c>
+      <c r="F87" s="13">
+        <v>300</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
+      <c r="B88" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C88" s="14">
+        <v>3</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="16">
+        <v>128000</v>
+      </c>
+      <c r="F88" s="13">
+        <v>800</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13">
+        <v>88</v>
+      </c>
+      <c r="B89" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C89" s="14">
+        <v>4</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="16">
+        <v>40000</v>
+      </c>
+      <c r="F89" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
+      <c r="B90" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C90" s="14">
+        <v>5</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="16">
+        <v>18000</v>
+      </c>
+      <c r="F90" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13">
+        <v>90</v>
+      </c>
+      <c r="B91" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C91" s="14">
+        <v>6</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F91" s="13">
+        <v>3899</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="16">
+        <v>320</v>
+      </c>
+      <c r="F92" s="13">
+        <v>1</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" s="13">
+        <v>0</v>
+      </c>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13">
+        <v>92</v>
+      </c>
+      <c r="B93" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C93" s="14">
+        <v>2</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="16">
+        <v>1800</v>
+      </c>
+      <c r="F93" s="13">
+        <v>100</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
+      <c r="B94" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C94" s="14">
+        <v>3</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="16">
+        <v>400000</v>
+      </c>
+      <c r="F94" s="13">
+        <v>500</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94" s="13">
+        <v>0</v>
+      </c>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
+        <v>94</v>
+      </c>
+      <c r="B95" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C95" s="14">
+        <v>4</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" s="16">
+        <v>120000</v>
+      </c>
+      <c r="F95" s="13">
+        <v>2500</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
+        <v>95</v>
+      </c>
+      <c r="B96" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C96" s="14">
+        <v>5</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="16">
+        <v>55000</v>
+      </c>
+      <c r="F96" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="13">
+        <v>96</v>
+      </c>
+      <c r="B97" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C97" s="14">
+        <v>6</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="16">
+        <v>18000</v>
+      </c>
+      <c r="F97" s="13">
+        <v>3899</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" s="13">
+        <v>0</v>
+      </c>
+      <c r="K97" s="18"/>
+    </row>
+    <row r="98" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
+        <v>97</v>
+      </c>
+      <c r="B98" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C98" s="14">
+        <v>1</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="13">
+        <v>98</v>
+      </c>
+      <c r="B99" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C99" s="14">
+        <v>2</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="16">
+        <v>6500</v>
+      </c>
+      <c r="F99" s="13">
+        <v>500</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" s="13">
+        <v>0</v>
+      </c>
+      <c r="K99" s="18"/>
+    </row>
+    <row r="100" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="13">
+        <v>99</v>
+      </c>
+      <c r="B100" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C100" s="14">
+        <v>3</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="16">
+        <v>1600000</v>
+      </c>
+      <c r="F100" s="13">
+        <v>100</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="13">
+        <v>100</v>
+      </c>
+      <c r="B101" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C101" s="14">
+        <v>4</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="16">
+        <v>480000</v>
+      </c>
+      <c r="F101" s="13">
+        <v>2500</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="18"/>
+    </row>
+    <row r="102" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>101</v>
+      </c>
+      <c r="B102" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C102" s="14">
+        <v>5</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="16">
+        <v>220000</v>
+      </c>
+      <c r="F102" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>102</v>
+      </c>
+      <c r="B103" s="14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C103" s="14">
+        <v>6</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" s="16">
+        <v>72000</v>
+      </c>
+      <c r="F103" s="13">
+        <v>3899</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I103" s="13">
+        <v>0</v>
+      </c>
+      <c r="K103" s="18"/>
+    </row>
+    <row r="104" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="13">
+        <v>103</v>
+      </c>
+      <c r="B104" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C104" s="14">
+        <v>1</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" s="13">
+        <v>1</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="13">
+        <v>0</v>
+      </c>
+      <c r="J104" s="17"/>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
+        <v>104</v>
+      </c>
+      <c r="B105" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="16">
+        <v>36000</v>
+      </c>
+      <c r="F105" s="13">
+        <v>500</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
+        <v>105</v>
+      </c>
+      <c r="B106" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C106" s="14">
+        <v>3</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="16">
+        <v>8000000</v>
+      </c>
+      <c r="F106" s="13">
+        <v>100</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="13">
+        <v>106</v>
+      </c>
+      <c r="B107" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C107" s="14">
+        <v>4</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="16">
+        <v>2400000</v>
+      </c>
+      <c r="F107" s="13">
+        <v>2500</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I107" s="13">
+        <v>0</v>
+      </c>
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>107</v>
+      </c>
+      <c r="B108" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C108" s="14">
+        <v>5</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="16">
+        <v>1100000</v>
+      </c>
+      <c r="F108" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>108</v>
+      </c>
+      <c r="B109" s="14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C109" s="14">
+        <v>6</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="16">
+        <v>360000</v>
+      </c>
+      <c r="F109" s="13">
+        <v>3899</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I109" s="13">
+        <v>0</v>
+      </c>
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="13">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>124</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="13">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111">
+        <v>500</v>
+      </c>
+      <c r="G111" t="s">
+        <v>96</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="13">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>186</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="13">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113">
+        <v>2000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>187</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="13">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114">
+        <v>2800</v>
+      </c>
+      <c r="G114" t="s">
+        <v>188</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115">
+        <v>3699</v>
+      </c>
+      <c r="G115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="13">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>97</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="13">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117">
+        <v>300</v>
+      </c>
+      <c r="G117" t="s">
+        <v>126</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="13">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C118" s="1">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118">
+        <v>800</v>
+      </c>
+      <c r="G118" t="s">
+        <v>189</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="13">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F119">
+        <v>2000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>186</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="13">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="G65" s="4">
-        <v>4000</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="F120">
+        <v>3000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="13">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121">
+        <v>3899</v>
+      </c>
+      <c r="G121" t="s">
+        <v>188</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="13">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>99</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="13">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123">
+        <v>300</v>
+      </c>
+      <c r="G123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="13">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124">
+        <v>800</v>
+      </c>
+      <c r="G124" t="s">
+        <v>191</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="13">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125">
+        <v>2000</v>
+      </c>
+      <c r="G125" t="s">
+        <v>192</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="13">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F126">
+        <v>3000</v>
+      </c>
+      <c r="G126" t="s">
+        <v>181</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="13">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C127" s="1">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
+        <v>3899</v>
+      </c>
+      <c r="G127" t="s">
+        <v>190</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="13">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>128</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="13">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129" t="s">
+        <v>102</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="13">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130">
+        <v>500</v>
+      </c>
+      <c r="G130" t="s">
+        <v>178</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="13">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F131">
+        <v>2500</v>
+      </c>
+      <c r="G131" t="s">
+        <v>179</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="13">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>3000</v>
+      </c>
+      <c r="G132" t="s">
+        <v>180</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F133">
+        <v>3899</v>
+      </c>
+      <c r="G133" t="s">
+        <v>181</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="13">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>129</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="13">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135">
+        <v>500</v>
+      </c>
+      <c r="G135" t="s">
+        <v>130</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="13">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F136">
+        <v>100</v>
+      </c>
+      <c r="G136" t="s">
+        <v>193</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="13">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F137">
+        <v>2500</v>
+      </c>
+      <c r="G137" t="s">
+        <v>194</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="13">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F138">
+        <v>3000</v>
+      </c>
+      <c r="G138" t="s">
+        <v>195</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="13">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C139" s="1">
+        <v>6</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F139">
+        <v>3899</v>
+      </c>
+      <c r="G139" t="s">
+        <v>196</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="13">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="8"/>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="13">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141">
+        <v>500</v>
+      </c>
+      <c r="G141" t="s">
+        <v>131</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="13">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="G142" t="s">
+        <v>197</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="13">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C143" s="1">
+        <v>4</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F143">
+        <v>2500</v>
+      </c>
+      <c r="G143" t="s">
+        <v>198</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="13">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F144">
+        <v>3000</v>
+      </c>
+      <c r="G144" t="s">
+        <v>199</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="13">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C145" s="1">
+        <v>6</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145">
+        <v>3899</v>
+      </c>
+      <c r="G145" t="s">
+        <v>200</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -778,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,6 +810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,6 +855,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -880,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -907,6 +911,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -934,6 +939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -961,6 +967,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -988,6 +995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,6 +1023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1042,6 +1051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1069,6 +1079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,6 +1107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1123,6 +1135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1150,6 +1163,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,6 +1191,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,6 +1219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1231,6 +1247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1258,6 +1275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1285,6 +1303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1312,6 +1331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1339,6 +1359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,6 +1404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1410,6 +1432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1437,6 +1460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1464,6 +1488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1491,6 +1516,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1522,6 +1548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,6 +1576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1576,6 +1604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1603,6 +1632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1630,6 +1660,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1721,6 +1752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1752,6 +1784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1791,6 +1824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1818,6 +1852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1853,6 +1888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1880,6 +1916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1915,6 +1952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1942,6 +1980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1977,6 +2016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2016,6 +2056,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2043,6 +2084,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2082,6 +2124,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2109,6 +2152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2144,6 +2188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2171,6 +2216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2206,6 +2252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2233,6 +2280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2253,6 +2301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2269,6 +2318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2297,6 +2347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2321,6 +2372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2341,6 +2393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2361,6 +2414,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2377,6 +2431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2401,6 +2456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2417,6 +2473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2441,6 +2498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2457,6 +2515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2492,6 +2551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2519,6 +2579,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,6 +2615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2581,6 +2643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2620,6 +2683,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2655,6 +2719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2682,6 +2747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2717,6 +2783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2744,6 +2811,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,6 +2847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2806,6 +2875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3423,14 +3493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="14.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.2">
@@ -3470,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="12">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3490,7 +3559,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="12">
-        <v>30000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3510,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3530,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="12">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3550,7 +3619,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="12">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3570,7 +3639,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="12">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3590,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="12">
-        <v>20000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,7 +3679,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="12">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3630,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="12">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3650,7 +3719,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="12">
-        <v>600000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3670,7 +3739,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="12">
-        <v>2000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3690,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="12">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3710,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="12">
-        <v>40000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,7 +3799,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="12">
-        <v>120000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3750,7 +3819,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="12">
-        <v>400000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3770,7 +3839,7 @@
         <v>23</v>
       </c>
       <c r="F17" s="12">
-        <v>1200000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="12">
-        <v>4000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,7 +3879,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="12">
-        <v>20000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3830,7 +3899,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="12">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3850,7 +3919,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="12">
-        <v>240000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3870,7 +3939,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="12">
-        <v>800000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="12">
-        <v>2400000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3910,7 +3979,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="12">
-        <v>8000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3930,7 +3999,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="12">
-        <v>40000000</v>
+        <v>400000000</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
     <sheet name="lottery|抽奖配置" sheetId="7" r:id="rId2"/>
     <sheet name="award|奖品配置" sheetId="9" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'award|奖品配置'!$A$1:$J$193</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="384">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -35,10 +38,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>num|数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>weight|权重</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -118,69 +117,28 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>110000</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费碎片*10</t>
   </si>
   <si>
     <t>锁定*5</t>
   </si>
   <si>
-    <t>0.5红包券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5红包</t>
-  </si>
-  <si>
     <t>话费碎片*40</t>
   </si>
   <si>
-    <t>20红包</t>
-  </si>
-  <si>
     <t>话费碎片*140</t>
   </si>
   <si>
-    <t>80红包</t>
-  </si>
-  <si>
     <t>话费碎片*450</t>
   </si>
   <si>
-    <t>300红包</t>
-  </si>
-  <si>
     <t>话费碎片*1800</t>
   </si>
   <si>
-    <t>1500红包</t>
-  </si>
-  <si>
     <t>话费碎片*9000</t>
   </si>
   <si>
@@ -219,146 +177,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18000</t>
   </si>
   <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>9000</t>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>450</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>14000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1红包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>话费碎片*20</t>
@@ -367,40 +233,21 @@
     <t>锁定*10</t>
   </si>
   <si>
-    <t>10红包</t>
-  </si>
-  <si>
     <t>话费碎片*80</t>
   </si>
   <si>
-    <t>40红包</t>
-  </si>
-  <si>
     <t>话费碎片*280</t>
   </si>
   <si>
-    <t>160红包</t>
-  </si>
-  <si>
     <t>话费碎片*900</t>
   </si>
   <si>
-    <t>600红包</t>
-  </si>
-  <si>
     <t>话费碎片*3600</t>
   </si>
   <si>
-    <t>3000红包</t>
-  </si>
-  <si>
     <t>话费碎片*18000</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -411,51 +258,12 @@
     <t>280</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>900</t>
   </si>
   <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>3600</t>
   </si>
   <si>
-    <t>800000</t>
-  </si>
-  <si>
-    <t>240000</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
-    <t>4000000</t>
-  </si>
-  <si>
-    <t>1200000</t>
-  </si>
-  <si>
-    <t>560000</t>
-  </si>
-  <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>4红包</t>
-  </si>
-  <si>
     <t>锁定*40</t>
   </si>
   <si>
@@ -465,35 +273,16 @@
     <t>话费碎片*1120</t>
   </si>
   <si>
-    <t>640红包</t>
-  </si>
-  <si>
-    <t>2400红包</t>
-  </si>
-  <si>
     <t>话费碎片*13000</t>
   </si>
   <si>
     <t>话费碎片*72000</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>80</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>24000</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
@@ -503,189 +292,9 @@
     <t>1120</t>
   </si>
   <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
     <t>13000</t>
   </si>
   <si>
-    <t>3200000</t>
-  </si>
-  <si>
-    <t>960000</t>
-  </si>
-  <si>
-    <t>440000</t>
-  </si>
-  <si>
-    <t>144000</t>
-  </si>
-  <si>
-    <t>16000000</t>
-  </si>
-  <si>
-    <t>4800000</t>
-  </si>
-  <si>
-    <t>2200000</t>
-  </si>
-  <si>
-    <t>720000</t>
-  </si>
-  <si>
-    <t>鱼币*3000</t>
-  </si>
-  <si>
-    <t>鱼币*1000</t>
-  </si>
-  <si>
-    <t>鱼币*500</t>
-  </si>
-  <si>
-    <t>鱼币*9000</t>
-  </si>
-  <si>
-    <t>鱼币*1500</t>
-  </si>
-  <si>
-    <t>鱼币32000</t>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-  </si>
-  <si>
-    <t>鱼币*4500</t>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-  </si>
-  <si>
-    <t>鱼币*14000</t>
-  </si>
-  <si>
-    <t>鱼币*400000</t>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-  </si>
-  <si>
-    <t>鱼币*55000</t>
-  </si>
-  <si>
-    <t>鱼币*18000</t>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-  </si>
-  <si>
-    <t>鱼币*600000</t>
-  </si>
-  <si>
-    <t>鱼币*280000</t>
-  </si>
-  <si>
-    <t>鱼币*90000</t>
-  </si>
-  <si>
-    <t>鱼币*6000</t>
-  </si>
-  <si>
-    <t>鱼币*2000</t>
-  </si>
-  <si>
-    <t>鱼币*64000</t>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-  </si>
-  <si>
-    <t>鱼币*28000</t>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-  </si>
-  <si>
-    <t>鱼币*240000</t>
-  </si>
-  <si>
-    <t>鱼币*110000</t>
-  </si>
-  <si>
-    <t>鱼币*36000</t>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-  </si>
-  <si>
-    <t>鱼币*560000</t>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-  </si>
-  <si>
-    <t>鱼币*24000</t>
-  </si>
-  <si>
-    <t>鱼币*8000</t>
-  </si>
-  <si>
-    <t>鱼币*4000</t>
-  </si>
-  <si>
-    <t>鱼币*72000</t>
-  </si>
-  <si>
-    <t>鱼币*12000</t>
-  </si>
-  <si>
-    <t>鱼币*256000</t>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-  </si>
-  <si>
-    <t>鱼币*3200000</t>
-  </si>
-  <si>
-    <t>鱼币*960000</t>
-  </si>
-  <si>
-    <t>鱼币*440000</t>
-  </si>
-  <si>
-    <t>鱼币*144000</t>
-  </si>
-  <si>
-    <t>鱼币*16000000</t>
-  </si>
-  <si>
-    <t>鱼币*4800000</t>
-  </si>
-  <si>
-    <t>鱼币*2200000</t>
-  </si>
-  <si>
-    <t>鱼币*720000</t>
-  </si>
-  <si>
     <t>activity_icon_gift90_pg11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -723,14 +332,6 @@
   </si>
   <si>
     <t>-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2红包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -751,70 +352,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>40</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红包</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00红包</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -865,342 +402,6 @@
   </si>
   <si>
     <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>话费碎片*</t>
     </r>
     <r>
@@ -1229,146 +430,6 @@
   </si>
   <si>
     <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红包</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>话费碎片*</t>
     </r>
     <r>
@@ -1381,118 +442,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>560</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红包</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1525,10 +474,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20红包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>话费碎片*</t>
     </r>
@@ -1557,423 +502,224 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_yb1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>num|数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>64000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>240000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*6000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
+      <t>2400</t>
     </r>
     <r>
       <rPr>
@@ -1986,19 +732,21 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>鱼币*1</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>640</t>
     </r>
     <r>
       <rPr>
@@ -2009,7 +757,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福利券</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>160</t>
     </r>
     <r>
       <rPr>
@@ -2020,63 +784,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>64000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
+      <t>00</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15</t>
+      <t>福利券</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>40</t>
     </r>
     <r>
@@ -2088,35 +811,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
+      <t>00</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>福利券</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>4</t>
     </r>
     <r>
@@ -2128,36 +838,126 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
+      <t>00</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>福利券</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*25000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>320000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2165,63 +965,115 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
+    <t>300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>550000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>900000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>640000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2229,260 +1081,211 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>360000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>550000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>720000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3060000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>240000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>240000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2490,409 +1293,487 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>鱼币*15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>128000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鱼币*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_yb1</t>
+    <t>360000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1440000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>160000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>48000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币320000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*45000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*140000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*45000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*550000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*720000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*900000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*640000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*360000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*360000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*550000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*16000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*4800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*3500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*720000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*24000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*11000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*3600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*240000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*240000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2560000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*32000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*25000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*9600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*4400000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1440000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*160000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*48000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*22000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*7200000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3440,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3460,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>0.1</v>
@@ -3469,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3493,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3504,22 +2385,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3536,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="12">
         <v>100000</v>
@@ -3556,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="12">
         <v>300000</v>
@@ -3576,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="12">
         <v>1000000</v>
@@ -3596,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="12">
         <v>3000000</v>
@@ -3616,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="12">
         <v>10000000</v>
@@ -3636,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="12">
         <v>50000000</v>
@@ -3656,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="12">
         <v>200000</v>
@@ -3676,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12">
         <v>600000</v>
@@ -3696,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12">
         <v>2000000</v>
@@ -3716,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="12">
         <v>6000000</v>
@@ -3736,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="12">
         <v>20000000</v>
@@ -3756,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="12">
         <v>100000000</v>
@@ -3776,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="12">
         <v>400000</v>
@@ -3796,7 +2677,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="12">
         <v>1200000</v>
@@ -3816,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="12">
         <v>4000000</v>
@@ -3836,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="12">
         <v>12000000</v>
@@ -3856,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12">
         <v>40000000</v>
@@ -3876,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="12">
         <v>200000000</v>
@@ -3896,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="12">
         <v>800000</v>
@@ -3916,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="12">
         <v>2400000</v>
@@ -3936,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="12">
         <v>8000000</v>
@@ -3956,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="12">
         <v>24000000</v>
@@ -3976,7 +2857,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="12">
         <v>80000000</v>
@@ -3996,7 +2877,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="12">
         <v>400000000</v>
@@ -4013,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4031,31 +2912,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4069,19 +2950,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I2" s="18">
         <v>0</v>
@@ -4098,19 +2979,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F3" s="18">
         <v>500</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="I3" s="18">
         <v>0</v>
@@ -4127,19 +3008,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="F4" s="18">
         <v>500</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -4156,19 +3037,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="F5" s="18">
         <v>500</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I5" s="18">
         <v>0</v>
@@ -4185,19 +3066,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="F6" s="18">
         <v>1000</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="I6" s="18">
         <v>0</v>
@@ -4214,19 +3095,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="F7" s="18">
         <v>1000</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I7" s="18">
         <v>0</v>
@@ -4243,19 +3124,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="F8" s="18">
         <v>2800</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -4272,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F9" s="18">
         <v>3699</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18">
         <v>0</v>
@@ -4303,19 +3184,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F10" s="23">
         <v>1</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I10" s="23">
         <v>0</v>
@@ -4334,19 +3215,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F11" s="23">
         <v>300</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I11" s="23">
         <v>0</v>
@@ -4365,19 +3246,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F12" s="23">
         <v>600</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I12" s="23">
         <v>0</v>
@@ -4396,19 +3277,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="F13" s="23">
         <v>200</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I13" s="23">
         <v>0</v>
@@ -4427,19 +3308,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F14" s="23">
         <v>1000</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="I14" s="23">
         <v>0</v>
@@ -4458,19 +3339,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="F15" s="23">
         <v>1000</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I15" s="23">
         <v>0</v>
@@ -4489,19 +3370,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="F16" s="23">
         <v>3000</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="I16" s="23">
         <v>0</v>
@@ -4520,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="F17" s="23">
         <v>3899</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I17" s="23">
         <v>0</v>
@@ -4551,19 +3432,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F18" s="28">
         <v>1</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
@@ -4582,19 +3463,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F19" s="28">
         <v>300</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I19" s="28">
         <v>0</v>
@@ -4613,19 +3494,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="F20" s="28">
         <v>600</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I20" s="28">
         <v>0</v>
@@ -4644,19 +3525,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="F21" s="28">
         <v>200</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I21" s="28">
         <v>0</v>
@@ -4675,19 +3556,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="F22" s="28">
         <v>1000</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -4706,19 +3587,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="F23" s="28">
         <v>1000</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
@@ -4737,19 +3618,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F24" s="28">
         <v>3000</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I24" s="28">
         <v>0</v>
@@ -4768,19 +3649,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="F25" s="28">
         <v>3899</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I25" s="28">
         <v>0</v>
@@ -4799,19 +3680,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F26" s="32">
         <v>1</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>40</v>
+      <c r="G26" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I26" s="32">
         <v>0</v>
@@ -4830,19 +3711,19 @@
         <v>2</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F27" s="32">
         <v>100</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I27" s="32">
         <v>0</v>
@@ -4861,19 +3742,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F28" s="32">
         <v>300</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>158</v>
+      <c r="G28" s="35" t="s">
+        <v>282</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I28" s="32">
         <v>0</v>
@@ -4892,19 +3773,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="F29" s="32">
         <v>200</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I29" s="32">
         <v>0</v>
@@ -4923,19 +3804,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="F30" s="32">
         <v>2000</v>
       </c>
-      <c r="G30" s="32" t="s">
-        <v>159</v>
+      <c r="G30" s="35" t="s">
+        <v>284</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I30" s="32">
         <v>0</v>
@@ -4954,19 +3835,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="F31" s="32">
         <v>500</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I31" s="32">
         <v>0</v>
@@ -4985,19 +3866,19 @@
         <v>7</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="F32" s="32">
         <v>3000</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>160</v>
+      <c r="G32" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I32" s="32">
         <v>0</v>
@@ -5016,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="F33" s="32">
         <v>3899</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>157</v>
+      <c r="G33" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I33" s="32">
         <v>0</v>
@@ -5047,19 +3928,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>42</v>
+      <c r="G34" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5078,19 +3959,19 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5109,19 +3990,19 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
-      <c r="G36" t="s">
-        <v>161</v>
+      <c r="G36" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5140,19 +4021,19 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5171,19 +4052,19 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
-      <c r="G38" t="s">
-        <v>162</v>
+      <c r="G38" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5202,19 +4083,19 @@
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5233,19 +4114,19 @@
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
-      <c r="G40" t="s">
-        <v>163</v>
+      <c r="G40" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5264,19 +4145,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
-      <c r="G41" t="s">
-        <v>164</v>
+      <c r="G41" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5295,19 +4176,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F42" s="32">
         <v>1</v>
       </c>
-      <c r="G42" s="32" t="s">
-        <v>44</v>
+      <c r="G42" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I42" s="32">
         <v>0</v>
@@ -5326,19 +4207,19 @@
         <v>2</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F43" s="32">
         <v>500</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I43" s="32">
         <v>0</v>
@@ -5357,19 +4238,19 @@
         <v>3</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="F44" s="32">
         <v>80</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>165</v>
+      <c r="G44" s="35" t="s">
+        <v>294</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I44" s="32">
         <v>0</v>
@@ -5388,19 +4269,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="F45" s="32">
         <v>20</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I45" s="32">
         <v>0</v>
@@ -5419,19 +4300,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F46" s="32">
         <v>1500</v>
       </c>
-      <c r="G46" s="32" t="s">
-        <v>166</v>
+      <c r="G46" s="35" t="s">
+        <v>297</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I46" s="32">
         <v>0</v>
@@ -5450,19 +4331,19 @@
         <v>6</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="F47" s="32">
         <v>1000</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="I47" s="32">
         <v>0</v>
@@ -5481,19 +4362,19 @@
         <v>7</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="F48" s="32">
         <v>3000</v>
       </c>
-      <c r="G48" s="32" t="s">
-        <v>167</v>
+      <c r="G48" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I48" s="32">
         <v>0</v>
@@ -5512,19 +4393,19 @@
         <v>8</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F49" s="32">
         <v>3899</v>
       </c>
-      <c r="G49" s="32" t="s">
-        <v>168</v>
+      <c r="G49" s="35" t="s">
+        <v>300</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I49" s="32">
         <v>0</v>
@@ -5543,19 +4424,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>91</v>
+      <c r="G50" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5574,19 +4455,19 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5605,19 +4486,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
-      <c r="G52" t="s">
-        <v>169</v>
+      <c r="G52" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5636,19 +4517,19 @@
         <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5667,19 +4548,19 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
-      <c r="G54" t="s">
-        <v>170</v>
+      <c r="G54" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5698,19 +4579,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5729,19 +4610,19 @@
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
-      <c r="G56" t="s">
-        <v>151</v>
+      <c r="G56" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5760,19 +4641,19 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F57">
         <v>3699</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5791,19 +4672,19 @@
         <v>1</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F58" s="32">
         <v>1</v>
       </c>
-      <c r="G58" s="32" t="s">
-        <v>94</v>
+      <c r="G58" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I58" s="32">
         <v>0</v>
@@ -5822,19 +4703,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F59" s="32">
         <v>300</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I59" s="32">
         <v>0</v>
@@ -5853,19 +4734,19 @@
         <v>3</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="F60" s="32">
         <v>600</v>
       </c>
-      <c r="G60" s="32" t="s">
-        <v>164</v>
+      <c r="G60" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I60" s="32">
         <v>0</v>
@@ -5884,19 +4765,19 @@
         <v>4</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="F61" s="32">
         <v>200</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I61" s="32">
         <v>0</v>
@@ -5915,19 +4796,19 @@
         <v>5</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="F62" s="32">
         <v>1000</v>
       </c>
-      <c r="G62" s="32" t="s">
-        <v>169</v>
+      <c r="G62" s="35" t="s">
+        <v>275</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I62" s="32">
         <v>0</v>
@@ -5946,19 +4827,19 @@
         <v>6</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="F63" s="32">
         <v>1000</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I63" s="32">
         <v>0</v>
@@ -5977,19 +4858,19 @@
         <v>7</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="F64" s="32">
         <v>3000</v>
       </c>
-      <c r="G64" s="32" t="s">
-        <v>150</v>
+      <c r="G64" s="35" t="s">
+        <v>306</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I64" s="32">
         <v>0</v>
@@ -6008,19 +4889,19 @@
         <v>8</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F65" s="32">
         <v>3899</v>
       </c>
-      <c r="G65" s="32" t="s">
-        <v>151</v>
+      <c r="G65" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I65" s="32">
         <v>0</v>
@@ -6039,19 +4920,19 @@
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
-        <v>96</v>
+      <c r="G66" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6070,19 +4951,19 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6101,19 +4982,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
-      <c r="G68" t="s">
-        <v>171</v>
+      <c r="G68" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6132,19 +5013,19 @@
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6163,19 +5044,19 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
-      <c r="G70" t="s">
-        <v>172</v>
+      <c r="G70" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6194,19 +5075,19 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6225,19 +5106,19 @@
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
-      <c r="G72" t="s">
-        <v>153</v>
+      <c r="G72" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6256,19 +5137,19 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
-      <c r="G73" t="s">
-        <v>150</v>
+      <c r="G73" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6287,19 +5168,19 @@
         <v>1</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F74" s="32">
         <v>1</v>
       </c>
-      <c r="G74" s="32" t="s">
-        <v>98</v>
+      <c r="G74" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I74" s="32">
         <v>0</v>
@@ -6318,19 +5199,19 @@
         <v>2</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F75" s="32">
         <v>100</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I75" s="32">
         <v>0</v>
@@ -6349,19 +5230,19 @@
         <v>3</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="F76" s="32">
         <v>300</v>
       </c>
-      <c r="G76" s="32" t="s">
-        <v>173</v>
+      <c r="G76" s="35" t="s">
+        <v>313</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I76" s="32">
         <v>0</v>
@@ -6380,19 +5261,19 @@
         <v>4</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="F77" s="32">
         <v>200</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I77" s="32">
         <v>0</v>
@@ -6411,19 +5292,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="F78" s="32">
         <v>1500</v>
       </c>
-      <c r="G78" s="32" t="s">
-        <v>174</v>
+      <c r="G78" s="35" t="s">
+        <v>315</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I78" s="32">
         <v>0</v>
@@ -6442,19 +5323,19 @@
         <v>6</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="F79" s="32">
         <v>1000</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I79" s="32">
         <v>0</v>
@@ -6473,19 +5354,19 @@
         <v>7</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="F80" s="32">
         <v>3000</v>
       </c>
-      <c r="G80" s="32" t="s">
-        <v>175</v>
+      <c r="G80" s="35" t="s">
+        <v>316</v>
       </c>
       <c r="H80" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I80" s="32">
         <v>0</v>
@@ -6504,19 +5385,19 @@
         <v>8</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="F81" s="32">
         <v>3899</v>
       </c>
-      <c r="G81" s="32" t="s">
-        <v>153</v>
+      <c r="G81" s="35" t="s">
+        <v>317</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I81" s="32">
         <v>0</v>
@@ -6535,19 +5416,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
-        <v>100</v>
+      <c r="G82" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6566,19 +5447,19 @@
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6597,19 +5478,19 @@
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
-      <c r="G84" t="s">
-        <v>176</v>
+      <c r="G84" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6628,19 +5509,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6659,19 +5540,19 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
-      <c r="G86" t="s">
-        <v>177</v>
+      <c r="G86" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6690,19 +5571,19 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6721,19 +5602,19 @@
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
-      <c r="G88" t="s">
-        <v>178</v>
+      <c r="G88" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6752,19 +5633,19 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
-      <c r="G89" t="s">
-        <v>179</v>
+      <c r="G89" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6783,19 +5664,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="F90" s="32">
         <v>1</v>
       </c>
-      <c r="G90" s="32" t="s">
-        <v>102</v>
+      <c r="G90" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="H90" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I90" s="32">
         <v>0</v>
@@ -6814,19 +5695,19 @@
         <v>2</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F91" s="32">
         <v>500</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I91" s="32">
         <v>0</v>
@@ -6845,19 +5726,19 @@
         <v>3</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="F92" s="32">
         <v>50</v>
       </c>
-      <c r="G92" s="32" t="s">
-        <v>180</v>
+      <c r="G92" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="H92" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I92" s="32">
         <v>0</v>
@@ -6876,19 +5757,19 @@
         <v>4</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F93" s="32">
         <v>50</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I93" s="32">
         <v>0</v>
@@ -6907,19 +5788,19 @@
         <v>5</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="F94" s="32">
         <v>1500</v>
       </c>
-      <c r="G94" s="32" t="s">
-        <v>181</v>
+      <c r="G94" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I94" s="32">
         <v>0</v>
@@ -6938,19 +5819,19 @@
         <v>6</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="F95" s="32">
         <v>1000</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I95" s="32">
         <v>0</v>
@@ -6969,19 +5850,19 @@
         <v>7</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="F96" s="32">
         <v>3000</v>
       </c>
-      <c r="G96" s="32" t="s">
-        <v>182</v>
+      <c r="G96" s="35" t="s">
+        <v>328</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I96" s="32">
         <v>0</v>
@@ -7000,19 +5881,19 @@
         <v>8</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="F97" s="32">
         <v>3899</v>
       </c>
-      <c r="G97" s="32" t="s">
-        <v>183</v>
+      <c r="G97" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I97" s="32">
         <v>0</v>
@@ -7031,19 +5912,19 @@
         <v>1</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -7062,19 +5943,19 @@
         <v>2</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
@@ -7093,19 +5974,19 @@
         <v>3</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -7124,19 +6005,19 @@
         <v>4</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -7155,19 +6036,19 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="15">
-        <v>4000</v>
+        <v>35</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -7187,19 +6068,19 @@
         <v>6</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>302</v>
+        <v>50</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -7218,19 +6099,19 @@
         <v>7</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E104" s="15">
-        <v>2000</v>
+        <v>35</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I104" s="13">
         <v>0</v>
@@ -7250,7 +6131,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E105" s="15">
         <v>20</v>
@@ -7259,10 +6140,10 @@
         <v>3699</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I105" s="13">
         <v>0</v>
@@ -7282,19 +6163,19 @@
         <v>1</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="34">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="F106" s="32">
         <v>1</v>
       </c>
       <c r="G106" s="35" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I106" s="32">
         <v>0</v>
@@ -7314,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E107" s="34">
         <v>160</v>
@@ -7323,10 +6204,10 @@
         <v>300</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I107" s="32">
         <v>0</v>
@@ -7346,19 +6227,19 @@
         <v>3</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="34">
-        <v>36000</v>
+        <v>35</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="F108" s="32">
         <v>600</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I108" s="32">
         <v>0</v>
@@ -7378,19 +6259,19 @@
         <v>4</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="F109" s="32">
         <v>200</v>
       </c>
       <c r="G109" s="35" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="H109" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I109" s="32">
         <v>0</v>
@@ -7410,19 +6291,19 @@
         <v>5</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="34">
-        <v>12000</v>
+        <v>35</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>227</v>
       </c>
       <c r="F110" s="32">
         <v>1000</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I110" s="32">
         <v>0</v>
@@ -7442,19 +6323,19 @@
         <v>6</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="F111" s="32">
         <v>1000</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="I111" s="32">
         <v>0</v>
@@ -7474,19 +6355,19 @@
         <v>7</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E112" s="34">
-        <v>6000</v>
+        <v>35</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="F112" s="32">
         <v>3000</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="H112" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I112" s="32">
         <v>0</v>
@@ -7506,19 +6387,19 @@
         <v>8</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E113" s="34">
-        <v>2000</v>
+        <v>35</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="F113" s="32">
         <v>3899</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="H113" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I113" s="32">
         <v>0</v>
@@ -7538,19 +6419,19 @@
         <v>1</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" s="15">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7570,7 +6451,7 @@
         <v>2</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E115" s="15">
         <v>560</v>
@@ -7579,10 +6460,10 @@
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I115" s="13">
         <v>0</v>
@@ -7602,19 +6483,19 @@
         <v>3</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E116" s="15">
-        <v>128000</v>
+        <v>35</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7634,19 +6515,19 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7666,19 +6547,19 @@
         <v>5</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E118" s="15">
-        <v>40000</v>
+        <v>35</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7698,19 +6579,19 @@
         <v>6</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7730,19 +6611,19 @@
         <v>7</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E120" s="15">
-        <v>18000</v>
+        <v>35</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I120" s="13">
         <v>0</v>
@@ -7762,19 +6643,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E121" s="15">
-        <v>6000</v>
+        <v>35</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I121" s="13">
         <v>0</v>
@@ -7794,19 +6675,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="34">
-        <v>320</v>
+        <v>24</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="F122" s="32">
         <v>1</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I122" s="32">
         <v>0</v>
@@ -7826,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E123" s="34">
         <v>1800</v>
@@ -7835,10 +6716,10 @@
         <v>100</v>
       </c>
       <c r="G123" s="35" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I123" s="32">
         <v>0</v>
@@ -7858,19 +6739,19 @@
         <v>3</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="34">
-        <v>400000</v>
+        <v>35</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>234</v>
       </c>
       <c r="F124" s="32">
         <v>300</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="H124" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I124" s="32">
         <v>0</v>
@@ -7890,19 +6771,19 @@
         <v>4</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="F125" s="32">
         <v>200</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H125" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I125" s="32">
         <v>0</v>
@@ -7922,19 +6803,19 @@
         <v>5</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E126" s="34">
-        <v>120000</v>
+        <v>35</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="F126" s="32">
         <v>1500</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="H126" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I126" s="32">
         <v>0</v>
@@ -7954,19 +6835,19 @@
         <v>6</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="F127" s="32">
         <v>1000</v>
       </c>
       <c r="G127" s="35" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="H127" s="35" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="I127" s="32">
         <v>0</v>
@@ -7986,19 +6867,19 @@
         <v>7</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E128" s="34">
-        <v>55000</v>
+        <v>35</v>
+      </c>
+      <c r="E128" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F128" s="32">
         <v>3000</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="H128" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I128" s="32">
         <v>0</v>
@@ -8018,19 +6899,19 @@
         <v>8</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E129" s="34">
-        <v>18000</v>
+        <v>35</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="F129" s="32">
         <v>3899</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="H129" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I129" s="32">
         <v>0</v>
@@ -8050,19 +6931,19 @@
         <v>1</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" s="15">
-        <v>1200</v>
+        <v>24</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -8082,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E131" s="15">
         <v>6500</v>
@@ -8091,10 +6972,10 @@
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I131" s="13">
         <v>0</v>
@@ -8114,19 +6995,19 @@
         <v>3</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E132" s="15">
-        <v>1600000</v>
+        <v>35</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -8146,19 +7027,19 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -8178,19 +7059,19 @@
         <v>5</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E134" s="15">
-        <v>480000</v>
+        <v>35</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -8210,19 +7091,19 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -8242,19 +7123,19 @@
         <v>7</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E136" s="15">
-        <v>220000</v>
+        <v>35</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I136" s="13">
         <v>0</v>
@@ -8274,19 +7155,19 @@
         <v>8</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E137" s="15">
-        <v>72000</v>
+        <v>35</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I137" s="13">
         <v>0</v>
@@ -8306,19 +7187,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="F138" s="32">
         <v>1</v>
       </c>
       <c r="G138" s="35" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="H138" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I138" s="32">
         <v>0</v>
@@ -8339,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E139" s="34">
         <v>36000</v>
@@ -8348,10 +7229,10 @@
         <v>500</v>
       </c>
       <c r="G139" s="35" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="H139" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I139" s="32">
         <v>0</v>
@@ -8371,19 +7252,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E140" s="34">
-        <v>8000000</v>
+        <v>35</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="F140" s="32">
         <v>80</v>
       </c>
       <c r="G140" s="35" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I140" s="32">
         <v>0</v>
@@ -8403,19 +7284,19 @@
         <v>4</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="F141" s="32">
         <v>20</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="H141" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I141" s="32">
         <v>0</v>
@@ -8435,19 +7316,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E142" s="34">
-        <v>2400000</v>
+        <v>35</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="F142" s="32">
         <v>1500</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I142" s="32">
         <v>0</v>
@@ -8467,19 +7348,19 @@
         <v>6</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="F143" s="32">
         <v>1000</v>
       </c>
       <c r="G143" s="35" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="I143" s="32">
         <v>0</v>
@@ -8499,19 +7380,19 @@
         <v>7</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E144" s="34">
-        <v>1100000</v>
+        <v>35</v>
+      </c>
+      <c r="E144" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="F144" s="32">
         <v>3000</v>
       </c>
       <c r="G144" s="35" t="s">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I144" s="32">
         <v>0</v>
@@ -8531,19 +7412,19 @@
         <v>8</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E145" s="34">
-        <v>360000</v>
+        <v>35</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="F145" s="32">
         <v>3899</v>
       </c>
       <c r="G145" s="35" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="H145" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I145" s="32">
         <v>0</v>
@@ -8563,19 +7444,19 @@
         <v>1</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="G146" t="s">
-        <v>122</v>
+      <c r="G146" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8594,19 +7475,19 @@
         <v>2</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -8625,19 +7506,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
-      <c r="G148" t="s">
-        <v>184</v>
+      <c r="G148" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8656,19 +7537,19 @@
         <v>4</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8687,19 +7568,19 @@
         <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
-      <c r="G150" t="s">
-        <v>185</v>
+      <c r="G150" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8718,19 +7599,19 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8749,19 +7630,19 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
-      <c r="G152" t="s">
-        <v>186</v>
+      <c r="G152" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8780,19 +7661,19 @@
         <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8811,19 +7692,19 @@
         <v>1</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="F154" s="32">
         <v>1</v>
       </c>
-      <c r="G154" s="32" t="s">
-        <v>96</v>
+      <c r="G154" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I154" s="32">
         <v>0</v>
@@ -8842,19 +7723,19 @@
         <v>2</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F155" s="32">
         <v>300</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="H155" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I155" s="32">
         <v>0</v>
@@ -8873,19 +7754,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="F156" s="32">
         <v>600</v>
       </c>
-      <c r="G156" s="32" t="s">
-        <v>187</v>
+      <c r="G156" s="35" t="s">
+        <v>296</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I156" s="32">
         <v>0</v>
@@ -8904,19 +7785,19 @@
         <v>4</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="F157" s="32">
         <v>200</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H157" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I157" s="32">
         <v>0</v>
@@ -8935,19 +7816,19 @@
         <v>5</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="F158" s="32">
         <v>1000</v>
       </c>
-      <c r="G158" s="32" t="s">
-        <v>184</v>
+      <c r="G158" s="35" t="s">
+        <v>362</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I158" s="32">
         <v>0</v>
@@ -8966,19 +7847,19 @@
         <v>6</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="F159" s="32">
         <v>1000</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="I159" s="32">
         <v>0</v>
@@ -8997,19 +7878,19 @@
         <v>7</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="F160" s="32">
         <v>3000</v>
       </c>
-      <c r="G160" s="32" t="s">
-        <v>188</v>
+      <c r="G160" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I160" s="32">
         <v>0</v>
@@ -9028,19 +7909,19 @@
         <v>8</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="F161" s="32">
         <v>3899</v>
       </c>
-      <c r="G161" s="32" t="s">
-        <v>186</v>
+      <c r="G161" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I161" s="32">
         <v>0</v>
@@ -9059,19 +7940,19 @@
         <v>1</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
-      <c r="G162" t="s">
-        <v>98</v>
+      <c r="G162" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -9090,19 +7971,19 @@
         <v>2</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -9121,19 +8002,19 @@
         <v>3</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
-      <c r="G164" t="s">
-        <v>189</v>
+      <c r="G164" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9152,19 +8033,19 @@
         <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9183,19 +8064,19 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
-      <c r="G166" t="s">
-        <v>190</v>
+      <c r="G166" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9214,19 +8095,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9245,19 +8126,19 @@
         <v>7</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
-      <c r="G168" t="s">
-        <v>179</v>
+      <c r="G168" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -9276,19 +8157,19 @@
         <v>8</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
-      <c r="G169" t="s">
-        <v>188</v>
+      <c r="G169" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -9307,19 +8188,19 @@
         <v>1</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F170" s="32">
         <v>1</v>
       </c>
-      <c r="G170" s="32" t="s">
-        <v>126</v>
+      <c r="G170" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="H170" s="35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I170" s="32">
         <v>0</v>
@@ -9338,19 +8219,19 @@
         <v>2</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F171" s="32">
         <v>100</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I171" s="32">
         <v>0</v>
@@ -9369,19 +8250,19 @@
         <v>3</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="F172" s="32">
         <v>300</v>
       </c>
-      <c r="G172" s="32" t="s">
-        <v>176</v>
+      <c r="G172" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I172" s="32">
         <v>0</v>
@@ -9400,19 +8281,19 @@
         <v>4</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="F173" s="32">
         <v>200</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I173" s="32">
         <v>0</v>
@@ -9431,19 +8312,19 @@
         <v>5</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F174" s="32">
         <v>1500</v>
       </c>
-      <c r="G174" s="32" t="s">
-        <v>177</v>
+      <c r="G174" s="35" t="s">
+        <v>371</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I174" s="32">
         <v>0</v>
@@ -9462,19 +8343,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="F175" s="32">
         <v>1000</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H175" s="35" t="s">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="I175" s="32">
         <v>0</v>
@@ -9493,19 +8374,19 @@
         <v>7</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="F176" s="32">
         <v>3000</v>
       </c>
-      <c r="G176" s="32" t="s">
-        <v>178</v>
+      <c r="G176" s="35" t="s">
+        <v>372</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I176" s="32">
         <v>0</v>
@@ -9524,19 +8405,19 @@
         <v>8</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="F177" s="32">
         <v>3899</v>
       </c>
-      <c r="G177" s="32" t="s">
-        <v>179</v>
+      <c r="G177" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I177" s="32">
         <v>0</v>
@@ -9555,19 +8436,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
-      <c r="G178" t="s">
-        <v>127</v>
+      <c r="G178" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -9586,19 +8467,19 @@
         <v>2</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -9617,19 +8498,19 @@
         <v>3</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
-      <c r="G180" t="s">
-        <v>191</v>
+      <c r="G180" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -9648,19 +8529,19 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -9679,19 +8560,19 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="F182">
         <v>1500</v>
       </c>
-      <c r="G182" t="s">
-        <v>192</v>
+      <c r="G182" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9710,19 +8591,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="F183">
         <v>1000</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -9741,19 +8622,19 @@
         <v>7</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
-      <c r="G184" t="s">
-        <v>193</v>
+      <c r="G184" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -9772,19 +8653,19 @@
         <v>8</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
-      <c r="G185" t="s">
-        <v>194</v>
+      <c r="G185" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -9808,16 +8689,16 @@
         <v>1</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="I186" s="32">
         <v>1</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -9833,19 +8714,19 @@
         <v>2</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F187" s="32">
         <v>500</v>
       </c>
       <c r="G187" s="32" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I187" s="32">
         <v>0</v>
@@ -9864,19 +8745,19 @@
         <v>3</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="F188" s="32">
         <v>100</v>
       </c>
-      <c r="G188" s="32" t="s">
-        <v>195</v>
+      <c r="G188" s="35" t="s">
+        <v>379</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I188" s="32">
         <v>0</v>
@@ -9895,19 +8776,19 @@
         <v>4</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E189" s="34" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="F189" s="32">
         <v>100</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="I189" s="32">
         <v>0</v>
@@ -9926,19 +8807,19 @@
         <v>5</v>
       </c>
       <c r="D190" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="F190" s="32">
         <v>2500</v>
       </c>
-      <c r="G190" s="32" t="s">
-        <v>196</v>
+      <c r="G190" s="35" t="s">
+        <v>380</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="I190" s="32">
         <v>0</v>
@@ -9957,19 +8838,19 @@
         <v>6</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="F191" s="32">
         <v>100</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="I191" s="32">
         <v>0</v>
@@ -9988,19 +8869,19 @@
         <v>7</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="F192" s="32">
         <v>3000</v>
       </c>
-      <c r="G192" s="32" t="s">
-        <v>197</v>
+      <c r="G192" s="35" t="s">
+        <v>382</v>
       </c>
       <c r="H192" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I192" s="32">
         <v>0</v>
@@ -10019,25 +8900,26 @@
         <v>8</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="F193" s="32">
         <v>3899</v>
       </c>
-      <c r="G193" s="32" t="s">
-        <v>198</v>
+      <c r="G193" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="H193" s="35" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I193" s="32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J193"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -737,6 +737,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,6 +793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,6 +821,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -845,6 +849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1237,10 +1242,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3060000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>240000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1774,6 +1775,10 @@
   </si>
   <si>
     <t>鱼币*7200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2375,7 +2380,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2408,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2428,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2448,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2468,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2488,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2508,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2528,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2548,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2568,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2588,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2608,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2628,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2648,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2668,7 +2673,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2688,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2708,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2728,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2748,7 +2753,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -2768,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2788,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2808,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2828,7 +2833,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -2848,7 +2853,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2868,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -2894,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3503,7 +3508,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>78</v>
@@ -3534,7 +3539,7 @@
         <v>200</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>78</v>
@@ -3565,7 +3570,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>77</v>
@@ -3596,7 +3601,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>97</v>
@@ -3627,7 +3632,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>36</v>
@@ -3658,7 +3663,7 @@
         <v>3899</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>36</v>
@@ -3751,7 +3756,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>78</v>
@@ -3782,7 +3787,7 @@
         <v>200</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>78</v>
@@ -3813,7 +3818,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>77</v>
@@ -3844,7 +3849,7 @@
         <v>500</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>77</v>
@@ -3875,7 +3880,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>36</v>
@@ -3906,7 +3911,7 @@
         <v>3899</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>36</v>
@@ -3999,7 +4004,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>78</v>
@@ -4030,7 +4035,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>78</v>
@@ -4061,7 +4066,7 @@
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>77</v>
@@ -4092,7 +4097,7 @@
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>77</v>
@@ -4123,7 +4128,7 @@
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>36</v>
@@ -4154,7 +4159,7 @@
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>36</v>
@@ -4247,7 +4252,7 @@
         <v>80</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>78</v>
@@ -4278,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>78</v>
@@ -4309,7 +4314,7 @@
         <v>1500</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>77</v>
@@ -4340,7 +4345,7 @@
         <v>1000</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>104</v>
@@ -4371,7 +4376,7 @@
         <v>3000</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>36</v>
@@ -4402,7 +4407,7 @@
         <v>3899</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>36</v>
@@ -4495,7 +4500,7 @@
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>78</v>
@@ -4526,7 +4531,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>78</v>
@@ -4557,7 +4562,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>77</v>
@@ -4619,7 +4624,7 @@
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>36</v>
@@ -4743,7 +4748,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>78</v>
@@ -4774,7 +4779,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>78</v>
@@ -4805,7 +4810,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H62" s="35" t="s">
         <v>77</v>
@@ -4836,7 +4841,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H63" s="35" t="s">
         <v>77</v>
@@ -4867,7 +4872,7 @@
         <v>3000</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>36</v>
@@ -4898,7 +4903,7 @@
         <v>3899</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>36</v>
@@ -4991,7 +4996,7 @@
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>78</v>
@@ -5022,7 +5027,7 @@
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>78</v>
@@ -5053,7 +5058,7 @@
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>77</v>
@@ -5084,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>104</v>
@@ -5146,7 +5151,7 @@
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>36</v>
@@ -5239,7 +5244,7 @@
         <v>300</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H76" s="35" t="s">
         <v>78</v>
@@ -5270,7 +5275,7 @@
         <v>200</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H77" s="35" t="s">
         <v>78</v>
@@ -5301,7 +5306,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H78" s="35" t="s">
         <v>77</v>
@@ -5332,7 +5337,7 @@
         <v>1000</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H79" s="35" t="s">
         <v>77</v>
@@ -5363,7 +5368,7 @@
         <v>3000</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H80" s="35" t="s">
         <v>36</v>
@@ -5394,7 +5399,7 @@
         <v>3899</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H81" s="35" t="s">
         <v>36</v>
@@ -5487,7 +5492,7 @@
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>78</v>
@@ -5518,7 +5523,7 @@
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>78</v>
@@ -5549,7 +5554,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>77</v>
@@ -5580,7 +5585,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>77</v>
@@ -5611,7 +5616,7 @@
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>36</v>
@@ -5642,7 +5647,7 @@
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>36</v>
@@ -5735,7 +5740,7 @@
         <v>50</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H92" s="35" t="s">
         <v>78</v>
@@ -5766,7 +5771,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H93" s="35" t="s">
         <v>78</v>
@@ -5797,7 +5802,7 @@
         <v>1500</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" s="35" t="s">
         <v>77</v>
@@ -5828,7 +5833,7 @@
         <v>1000</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H95" s="35" t="s">
         <v>77</v>
@@ -5859,7 +5864,7 @@
         <v>3000</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H96" s="35" t="s">
         <v>36</v>
@@ -5890,7 +5895,7 @@
         <v>3899</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H97" s="35" t="s">
         <v>36</v>
@@ -5983,7 +5988,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>78</v>
@@ -6014,7 +6019,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>78</v>
@@ -6045,7 +6050,7 @@
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>77</v>
@@ -6236,7 +6241,7 @@
         <v>600</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H108" s="35" t="s">
         <v>78</v>
@@ -6268,7 +6273,7 @@
         <v>200</v>
       </c>
       <c r="G109" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H109" s="35" t="s">
         <v>78</v>
@@ -6300,7 +6305,7 @@
         <v>1000</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H110" s="35" t="s">
         <v>77</v>
@@ -6332,7 +6337,7 @@
         <v>1000</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H111" s="35" t="s">
         <v>107</v>
@@ -6364,7 +6369,7 @@
         <v>3000</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H112" s="35" t="s">
         <v>36</v>
@@ -6492,7 +6497,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>78</v>
@@ -6524,7 +6529,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>78</v>
@@ -6556,7 +6561,7 @@
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>77</v>
@@ -6588,7 +6593,7 @@
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>104</v>
@@ -6620,7 +6625,7 @@
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>36</v>
@@ -6652,7 +6657,7 @@
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>36</v>
@@ -6748,7 +6753,7 @@
         <v>300</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H124" s="35" t="s">
         <v>78</v>
@@ -6780,7 +6785,7 @@
         <v>200</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H125" s="35" t="s">
         <v>78</v>
@@ -6812,7 +6817,7 @@
         <v>1500</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H126" s="35" t="s">
         <v>77</v>
@@ -6844,7 +6849,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H127" s="35" t="s">
         <v>112</v>
@@ -6876,7 +6881,7 @@
         <v>3000</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H128" s="35" t="s">
         <v>36</v>
@@ -6908,7 +6913,7 @@
         <v>3899</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H129" s="35" t="s">
         <v>36</v>
@@ -7004,7 +7009,7 @@
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>78</v>
@@ -7036,7 +7041,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>78</v>
@@ -7068,7 +7073,7 @@
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>77</v>
@@ -7100,7 +7105,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>77</v>
@@ -7132,7 +7137,7 @@
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>36</v>
@@ -7164,7 +7169,7 @@
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>36</v>
@@ -7261,7 +7266,7 @@
         <v>80</v>
       </c>
       <c r="G140" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H140" s="35" t="s">
         <v>78</v>
@@ -7293,7 +7298,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H141" s="35" t="s">
         <v>78</v>
@@ -7325,7 +7330,7 @@
         <v>1500</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H142" s="35" t="s">
         <v>77</v>
@@ -7357,7 +7362,7 @@
         <v>1000</v>
       </c>
       <c r="G143" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H143" s="35" t="s">
         <v>104</v>
@@ -7389,7 +7394,7 @@
         <v>3000</v>
       </c>
       <c r="G144" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H144" s="35" t="s">
         <v>36</v>
@@ -7415,13 +7420,13 @@
         <v>35</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>249</v>
+        <v>383</v>
       </c>
       <c r="F145" s="32">
         <v>3899</v>
       </c>
       <c r="G145" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H145" s="35" t="s">
         <v>36</v>
@@ -7509,13 +7514,13 @@
         <v>35</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>78</v>
@@ -7546,7 +7551,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>78</v>
@@ -7571,13 +7576,13 @@
         <v>35</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>77</v>
@@ -7608,7 +7613,7 @@
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>106</v>
@@ -7633,13 +7638,13 @@
         <v>35</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>36</v>
@@ -7763,7 +7768,7 @@
         <v>600</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H156" s="35" t="s">
         <v>78</v>
@@ -7788,13 +7793,13 @@
         <v>35</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F157" s="32">
         <v>200</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H157" s="35" t="s">
         <v>78</v>
@@ -7819,13 +7824,13 @@
         <v>35</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F158" s="32">
         <v>1000</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H158" s="35" t="s">
         <v>77</v>
@@ -7850,13 +7855,13 @@
         <v>35</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F159" s="32">
         <v>1000</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H159" s="35" t="s">
         <v>110</v>
@@ -7881,13 +7886,13 @@
         <v>35</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F160" s="32">
         <v>3000</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H160" s="35" t="s">
         <v>36</v>
@@ -7918,7 +7923,7 @@
         <v>3899</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H161" s="35" t="s">
         <v>36</v>
@@ -8005,13 +8010,13 @@
         <v>35</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>78</v>
@@ -8036,13 +8041,13 @@
         <v>35</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>78</v>
@@ -8067,13 +8072,13 @@
         <v>35</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>77</v>
@@ -8098,13 +8103,13 @@
         <v>35</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>113</v>
@@ -8135,7 +8140,7 @@
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>36</v>
@@ -8166,7 +8171,7 @@
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>36</v>
@@ -8253,13 +8258,13 @@
         <v>35</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F172" s="32">
         <v>300</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H172" s="35" t="s">
         <v>78</v>
@@ -8290,7 +8295,7 @@
         <v>200</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H173" s="35" t="s">
         <v>78</v>
@@ -8321,7 +8326,7 @@
         <v>1500</v>
       </c>
       <c r="G174" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H174" s="35" t="s">
         <v>77</v>
@@ -8346,13 +8351,13 @@
         <v>35</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F175" s="32">
         <v>1000</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H175" s="35" t="s">
         <v>114</v>
@@ -8383,7 +8388,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H176" s="35" t="s">
         <v>36</v>
@@ -8408,13 +8413,13 @@
         <v>35</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F177" s="32">
         <v>3899</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H177" s="35" t="s">
         <v>36</v>
@@ -8501,13 +8506,13 @@
         <v>35</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>78</v>
@@ -8532,13 +8537,13 @@
         <v>35</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>78</v>
@@ -8563,13 +8568,13 @@
         <v>35</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F182">
         <v>1500</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>77</v>
@@ -8600,7 +8605,7 @@
         <v>1000</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>77</v>
@@ -8625,13 +8630,13 @@
         <v>35</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>36</v>
@@ -8656,13 +8661,13 @@
         <v>35</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>36</v>
@@ -8748,13 +8753,13 @@
         <v>35</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F188" s="32">
         <v>100</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H188" s="35" t="s">
         <v>78</v>
@@ -8779,13 +8784,13 @@
         <v>35</v>
       </c>
       <c r="E189" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F189" s="32">
         <v>100</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H189" s="35" t="s">
         <v>78</v>
@@ -8810,13 +8815,13 @@
         <v>35</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F190" s="32">
         <v>2500</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H190" s="35" t="s">
         <v>77</v>
@@ -8841,13 +8846,13 @@
         <v>35</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F191" s="32">
         <v>100</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H191" s="35" t="s">
         <v>114</v>
@@ -8872,13 +8877,13 @@
         <v>35</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F192" s="32">
         <v>3000</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H192" s="35" t="s">
         <v>36</v>
@@ -8903,13 +8908,13 @@
         <v>35</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F193" s="32">
         <v>3899</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H193" s="35" t="s">
         <v>36</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="385">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1346,14 +1346,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币320000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>鱼币*100000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1779,6 +1771,18 @@
   </si>
   <si>
     <t>3600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*320000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2899,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3170,7 +3174,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="I9" s="18">
         <v>0</v>
@@ -3508,7 +3512,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>78</v>
@@ -3539,7 +3543,7 @@
         <v>200</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>78</v>
@@ -3570,7 +3574,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>77</v>
@@ -3601,7 +3605,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>97</v>
@@ -3632,7 +3636,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>36</v>
@@ -3663,7 +3667,7 @@
         <v>3899</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>36</v>
@@ -3756,7 +3760,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>78</v>
@@ -3787,7 +3791,7 @@
         <v>200</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>78</v>
@@ -3818,7 +3822,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>77</v>
@@ -3849,7 +3853,7 @@
         <v>500</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>77</v>
@@ -3880,7 +3884,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>36</v>
@@ -3911,7 +3915,7 @@
         <v>3899</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>36</v>
@@ -4004,7 +4008,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>78</v>
@@ -4035,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>78</v>
@@ -4066,7 +4070,7 @@
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>77</v>
@@ -4097,7 +4101,7 @@
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>77</v>
@@ -4128,7 +4132,7 @@
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>36</v>
@@ -4159,7 +4163,7 @@
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>36</v>
@@ -4252,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>78</v>
@@ -4283,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>78</v>
@@ -4314,7 +4318,7 @@
         <v>1500</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>77</v>
@@ -4345,7 +4349,7 @@
         <v>1000</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>104</v>
@@ -4376,7 +4380,7 @@
         <v>3000</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>36</v>
@@ -4407,7 +4411,7 @@
         <v>3899</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>36</v>
@@ -4531,7 +4535,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>78</v>
@@ -4562,7 +4566,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>77</v>
@@ -4624,7 +4628,7 @@
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>36</v>
@@ -4748,7 +4752,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>78</v>
@@ -4779,7 +4783,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>78</v>
@@ -4841,7 +4845,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H63" s="35" t="s">
         <v>77</v>
@@ -4872,7 +4876,7 @@
         <v>3000</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H64" s="35" t="s">
         <v>36</v>
@@ -4903,7 +4907,7 @@
         <v>3899</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>36</v>
@@ -4996,7 +5000,7 @@
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>78</v>
@@ -5027,7 +5031,7 @@
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>78</v>
@@ -5058,7 +5062,7 @@
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>77</v>
@@ -5089,7 +5093,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>104</v>
@@ -5151,7 +5155,7 @@
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>36</v>
@@ -5244,7 +5248,7 @@
         <v>300</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H76" s="35" t="s">
         <v>78</v>
@@ -5275,7 +5279,7 @@
         <v>200</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H77" s="35" t="s">
         <v>78</v>
@@ -5306,7 +5310,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H78" s="35" t="s">
         <v>77</v>
@@ -5337,7 +5341,7 @@
         <v>1000</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H79" s="35" t="s">
         <v>77</v>
@@ -5368,7 +5372,7 @@
         <v>3000</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H80" s="35" t="s">
         <v>36</v>
@@ -5399,7 +5403,7 @@
         <v>3899</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H81" s="35" t="s">
         <v>36</v>
@@ -5492,7 +5496,7 @@
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>78</v>
@@ -5523,7 +5527,7 @@
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>78</v>
@@ -5554,7 +5558,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>77</v>
@@ -5585,7 +5589,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>77</v>
@@ -5616,7 +5620,7 @@
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>36</v>
@@ -5647,7 +5651,7 @@
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>36</v>
@@ -5740,7 +5744,7 @@
         <v>50</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H92" s="35" t="s">
         <v>78</v>
@@ -5771,7 +5775,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H93" s="35" t="s">
         <v>78</v>
@@ -5802,7 +5806,7 @@
         <v>1500</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H94" s="35" t="s">
         <v>77</v>
@@ -5833,7 +5837,7 @@
         <v>1000</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H95" s="35" t="s">
         <v>77</v>
@@ -5864,7 +5868,7 @@
         <v>3000</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H96" s="35" t="s">
         <v>36</v>
@@ -5895,7 +5899,7 @@
         <v>3899</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H97" s="35" t="s">
         <v>36</v>
@@ -5988,7 +5992,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>78</v>
@@ -6019,7 +6023,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>78</v>
@@ -6050,7 +6054,7 @@
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>77</v>
@@ -6241,7 +6245,7 @@
         <v>600</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H108" s="35" t="s">
         <v>78</v>
@@ -6273,7 +6277,7 @@
         <v>200</v>
       </c>
       <c r="G109" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H109" s="35" t="s">
         <v>78</v>
@@ -6305,7 +6309,7 @@
         <v>1000</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H110" s="35" t="s">
         <v>77</v>
@@ -6337,7 +6341,7 @@
         <v>1000</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H111" s="35" t="s">
         <v>107</v>
@@ -6369,7 +6373,7 @@
         <v>3000</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H112" s="35" t="s">
         <v>36</v>
@@ -6497,7 +6501,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>78</v>
@@ -6529,7 +6533,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>78</v>
@@ -6561,7 +6565,7 @@
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>77</v>
@@ -6593,7 +6597,7 @@
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>104</v>
@@ -6625,7 +6629,7 @@
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>36</v>
@@ -6657,7 +6661,7 @@
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>36</v>
@@ -6753,7 +6757,7 @@
         <v>300</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H124" s="35" t="s">
         <v>78</v>
@@ -6785,7 +6789,7 @@
         <v>200</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H125" s="35" t="s">
         <v>78</v>
@@ -6817,7 +6821,7 @@
         <v>1500</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H126" s="35" t="s">
         <v>77</v>
@@ -6849,7 +6853,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H127" s="35" t="s">
         <v>112</v>
@@ -6881,7 +6885,7 @@
         <v>3000</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H128" s="35" t="s">
         <v>36</v>
@@ -6913,7 +6917,7 @@
         <v>3899</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H129" s="35" t="s">
         <v>36</v>
@@ -7009,7 +7013,7 @@
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>78</v>
@@ -7041,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>78</v>
@@ -7073,7 +7077,7 @@
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>77</v>
@@ -7105,7 +7109,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>77</v>
@@ -7137,7 +7141,7 @@
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>36</v>
@@ -7169,7 +7173,7 @@
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>36</v>
@@ -7266,7 +7270,7 @@
         <v>80</v>
       </c>
       <c r="G140" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H140" s="35" t="s">
         <v>78</v>
@@ -7298,7 +7302,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H141" s="35" t="s">
         <v>78</v>
@@ -7330,7 +7334,7 @@
         <v>1500</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H142" s="35" t="s">
         <v>77</v>
@@ -7362,7 +7366,7 @@
         <v>1000</v>
       </c>
       <c r="G143" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H143" s="35" t="s">
         <v>104</v>
@@ -7394,7 +7398,7 @@
         <v>3000</v>
       </c>
       <c r="G144" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H144" s="35" t="s">
         <v>36</v>
@@ -7420,13 +7424,13 @@
         <v>35</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F145" s="32">
         <v>3899</v>
       </c>
       <c r="G145" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H145" s="35" t="s">
         <v>36</v>
@@ -7520,7 +7524,7 @@
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>78</v>
@@ -7551,7 +7555,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>78</v>
@@ -7582,7 +7586,7 @@
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>77</v>
@@ -7613,7 +7617,7 @@
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>106</v>
@@ -7644,7 +7648,7 @@
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>36</v>
@@ -7768,7 +7772,7 @@
         <v>600</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H156" s="35" t="s">
         <v>78</v>
@@ -7799,7 +7803,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H157" s="35" t="s">
         <v>78</v>
@@ -7830,7 +7834,7 @@
         <v>1000</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H158" s="35" t="s">
         <v>77</v>
@@ -7861,7 +7865,7 @@
         <v>1000</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H159" s="35" t="s">
         <v>110</v>
@@ -7892,7 +7896,7 @@
         <v>3000</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H160" s="35" t="s">
         <v>36</v>
@@ -7923,7 +7927,7 @@
         <v>3899</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H161" s="35" t="s">
         <v>36</v>
@@ -8016,7 +8020,7 @@
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>78</v>
@@ -8047,7 +8051,7 @@
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>78</v>
@@ -8078,7 +8082,7 @@
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>77</v>
@@ -8109,7 +8113,7 @@
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>113</v>
@@ -8140,7 +8144,7 @@
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>36</v>
@@ -8171,7 +8175,7 @@
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>36</v>
@@ -8264,7 +8268,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H172" s="35" t="s">
         <v>78</v>
@@ -8295,7 +8299,7 @@
         <v>200</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H173" s="35" t="s">
         <v>78</v>
@@ -8326,7 +8330,7 @@
         <v>1500</v>
       </c>
       <c r="G174" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H174" s="35" t="s">
         <v>77</v>
@@ -8357,7 +8361,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H175" s="35" t="s">
         <v>114</v>
@@ -8388,7 +8392,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H176" s="35" t="s">
         <v>36</v>
@@ -8419,7 +8423,7 @@
         <v>3899</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H177" s="35" t="s">
         <v>36</v>
@@ -8512,7 +8516,7 @@
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>78</v>
@@ -8543,7 +8547,7 @@
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>78</v>
@@ -8574,7 +8578,7 @@
         <v>1500</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>77</v>
@@ -8605,7 +8609,7 @@
         <v>1000</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>77</v>
@@ -8636,7 +8640,7 @@
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>36</v>
@@ -8667,7 +8671,7 @@
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>36</v>
@@ -8759,7 +8763,7 @@
         <v>100</v>
       </c>
       <c r="G188" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H188" s="35" t="s">
         <v>78</v>
@@ -8790,7 +8794,7 @@
         <v>100</v>
       </c>
       <c r="G189" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H189" s="35" t="s">
         <v>78</v>
@@ -8821,7 +8825,7 @@
         <v>2500</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H190" s="35" t="s">
         <v>77</v>
@@ -8852,7 +8856,7 @@
         <v>100</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H191" s="35" t="s">
         <v>114</v>
@@ -8883,7 +8887,7 @@
         <v>3000</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H192" s="35" t="s">
         <v>36</v>
@@ -8914,7 +8918,7 @@
         <v>3899</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H193" s="35" t="s">
         <v>36</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="406">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1243,18 +1243,6 @@
   <si>
     <t>20,21,22,23,24,25,26,27,</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,20</t>
-  </si>
-  <si>
-    <t>0,40</t>
-  </si>
-  <si>
-    <t>0,60</t>
-  </si>
-  <si>
-    <t>50,50,50,50,100,</t>
   </si>
   <si>
     <t>|期望条数</t>
@@ -2151,12 +2139,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2183,6 +2165,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2461,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2519,111 +2507,32 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="35">
-        <f>60*50000</f>
-        <v>3000000</v>
-      </c>
+      <c r="C4" s="35"/>
       <c r="D4" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4">
-        <f>C6*(1+0.05)</f>
-        <v>63</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>80</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E13" si="0">C7*(1+0.05)</f>
-        <v>84</v>
-      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="4">
-        <f>300*(1+0.05)</f>
-        <v>315</v>
-      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <v>1.8867925000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>9.7087379999999997E-3</v>
-      </c>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2637,7 +2546,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2668,16 +2577,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>261</v>
-      </c>
       <c r="J1" s="36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2704,7 +2613,7 @@
       <c r="G2" s="37">
         <v>5</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="47">
         <v>1000</v>
       </c>
       <c r="I2">
@@ -2737,7 +2646,7 @@
       <c r="G3" s="37">
         <v>15</v>
       </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="47"/>
       <c r="I3">
         <f>G3+I2</f>
         <v>20</v>
@@ -2769,7 +2678,7 @@
       <c r="G4" s="37">
         <v>30</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="47"/>
       <c r="I4">
         <f t="shared" ref="I4:I7" si="1">G4+I3</f>
         <v>50</v>
@@ -2801,7 +2710,7 @@
       <c r="G5" s="37">
         <v>50</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="47"/>
       <c r="I5">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2833,7 +2742,7 @@
       <c r="G6" s="37">
         <v>80</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="47"/>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -2865,7 +2774,7 @@
       <c r="G7" s="37">
         <v>200</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="47"/>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>380</v>
@@ -2897,8 +2806,8 @@
       <c r="G8" s="37">
         <v>8</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>260</v>
+      <c r="H8" s="48" t="s">
+        <v>256</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2930,7 +2839,7 @@
       <c r="G9" s="37">
         <v>15</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="47"/>
       <c r="I9">
         <f>G9+I8</f>
         <v>23</v>
@@ -2962,7 +2871,7 @@
       <c r="G10" s="37">
         <v>30</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="47"/>
       <c r="I10">
         <f t="shared" ref="I10:I25" si="3">G10+I9</f>
         <v>53</v>
@@ -2994,7 +2903,7 @@
       <c r="G11" s="37">
         <v>50</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="47"/>
       <c r="I11">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -3026,7 +2935,7 @@
       <c r="G12" s="37">
         <v>80</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="47"/>
       <c r="I12">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -3058,7 +2967,7 @@
       <c r="G13" s="37">
         <v>150</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="47"/>
       <c r="I13">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -3090,8 +2999,8 @@
       <c r="G14" s="37">
         <v>10</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>258</v>
+      <c r="H14" s="48" t="s">
+        <v>254</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -3123,7 +3032,7 @@
       <c r="G15" s="37">
         <v>30</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="47"/>
       <c r="I15">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -3155,7 +3064,7 @@
       <c r="G16" s="37">
         <v>50</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="47"/>
       <c r="I16">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -3187,7 +3096,7 @@
       <c r="G17" s="37">
         <v>80</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="47"/>
       <c r="I17">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -3219,7 +3128,7 @@
       <c r="G18" s="37">
         <v>100</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="47"/>
       <c r="I18">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -3251,7 +3160,7 @@
       <c r="G19" s="37">
         <v>300</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="47"/>
       <c r="I19">
         <f t="shared" si="3"/>
         <v>570</v>
@@ -3283,8 +3192,8 @@
       <c r="G20" s="37">
         <v>8</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>259</v>
+      <c r="H20" s="48" t="s">
+        <v>255</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -3316,7 +3225,7 @@
       <c r="G21" s="37">
         <v>15</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="47"/>
       <c r="I21">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -3348,7 +3257,7 @@
       <c r="G22" s="37">
         <v>30</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="47"/>
       <c r="I22">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -3380,7 +3289,7 @@
       <c r="G23" s="37">
         <v>60</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="47"/>
       <c r="I23">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -3412,7 +3321,7 @@
       <c r="G24" s="37">
         <v>80</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="47"/>
       <c r="I24">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -3444,7 +3353,7 @@
       <c r="G25" s="37">
         <v>150</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="47"/>
       <c r="I25">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -3455,7 +3364,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="40"/>
+      <c r="K28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3474,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -3522,13 +3431,13 @@
         <v>58</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -3545,7 +3454,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -3563,7 +3472,7 @@
         <f>E2/10*10000*F2</f>
         <v>50000</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="39">
         <f>SUM(K2:K8)/10000</f>
         <v>14805</v>
       </c>
@@ -3603,8 +3512,8 @@
         <f>E3/10*10000*F3</f>
         <v>5000000</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
@@ -3620,7 +3529,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
@@ -3634,12 +3543,12 @@
       <c r="I4" s="17">
         <v>0</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="40">
         <f>E4*F4</f>
         <v>40000000</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
@@ -3669,12 +3578,12 @@
       <c r="I5" s="17">
         <v>0</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="40">
         <f t="shared" ref="K5:K8" si="0">E5*F5</f>
         <v>25000000</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -3704,12 +3613,12 @@
       <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="40">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
@@ -3739,12 +3648,12 @@
       <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="40">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
@@ -3760,7 +3669,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
@@ -3774,12 +3683,12 @@
       <c r="I8" s="17">
         <v>0</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="40">
         <f t="shared" si="0"/>
         <v>28000000</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -3795,13 +3704,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>250</v>
@@ -3809,9 +3718,9 @@
       <c r="I9" s="17">
         <v>0</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
@@ -3851,7 +3760,7 @@
         <f>SUM(K10:K17)/10000</f>
         <v>59207</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="42">
         <v>60000</v>
       </c>
     </row>
@@ -3877,7 +3786,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>30</v>
@@ -3889,8 +3798,8 @@
         <f>E11/10*10000*F11</f>
         <v>15000000</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
@@ -3908,7 +3817,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
@@ -3922,12 +3831,12 @@
       <c r="I12" s="22">
         <v>0</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="42">
         <f>E12*F12</f>
         <v>150000000</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="39"/>
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -3960,12 +3869,12 @@
       <c r="I13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="42">
         <f t="shared" ref="K13:K17" si="3">E13*F13</f>
         <v>20000000</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
@@ -3983,7 +3892,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
@@ -3997,12 +3906,12 @@
       <c r="I14" s="22">
         <v>0</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="42">
         <f t="shared" si="3"/>
         <v>80000000</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
@@ -4034,12 +3943,12 @@
       <c r="I15" s="22">
         <v>0</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="42">
         <f t="shared" si="3"/>
         <v>60000000</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
@@ -4057,7 +3966,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
@@ -4071,12 +3980,12 @@
       <c r="I16" s="22">
         <v>0</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="42">
         <f t="shared" si="3"/>
         <v>150000000</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
@@ -4094,7 +4003,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
@@ -4108,12 +4017,12 @@
       <c r="I17" s="22">
         <v>0</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="42">
         <f t="shared" si="3"/>
         <v>116970000</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -4131,7 +4040,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
@@ -4153,7 +4062,7 @@
         <f>SUM(K18:K25)/10000</f>
         <v>149220</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="43">
         <v>150000</v>
       </c>
     </row>
@@ -4191,8 +4100,8 @@
         <f>E19/10*10000*F19</f>
         <v>42000000</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
@@ -4210,7 +4119,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
@@ -4224,12 +4133,12 @@
       <c r="I20" s="27">
         <v>0</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="42">
         <f>E20*F20</f>
         <v>180000000</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
@@ -4247,7 +4156,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
@@ -4261,12 +4170,12 @@
       <c r="I21" s="27">
         <v>0</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="42">
         <f t="shared" ref="K21:K25" si="4">E21*F21</f>
         <v>50000000</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
@@ -4284,7 +4193,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
@@ -4298,12 +4207,12 @@
       <c r="I22" s="27">
         <v>0</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <f t="shared" si="4"/>
         <v>200000000</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
@@ -4335,12 +4244,12 @@
       <c r="I23" s="27">
         <v>0</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="42">
         <f t="shared" si="4"/>
         <v>180000000</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
@@ -4358,7 +4267,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
@@ -4372,12 +4281,12 @@
       <c r="I24" s="27">
         <v>0</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="42">
         <f t="shared" si="4"/>
         <v>450000000</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
@@ -4395,7 +4304,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
@@ -4409,12 +4318,12 @@
       <c r="I25" s="27">
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="42">
         <f t="shared" si="4"/>
         <v>389900000</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
@@ -4438,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>31</v>
@@ -4454,7 +4363,7 @@
         <f>SUM(K26:K33)/10000</f>
         <v>298338</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="43">
         <v>300000</v>
       </c>
     </row>
@@ -4474,13 +4383,13 @@
         <v>29</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>30</v>
@@ -4492,8 +4401,8 @@
         <f>E27/10*10000*F27</f>
         <v>35000000</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
@@ -4525,12 +4434,12 @@
       <c r="I28" s="31">
         <v>0</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="42">
         <f>E28*F28</f>
         <v>300000000</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
@@ -4562,12 +4471,12 @@
       <c r="I29" s="31">
         <v>0</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="42">
         <f t="shared" ref="K29:K33" si="5">E29*F29</f>
         <v>160000000</v>
       </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
@@ -4585,7 +4494,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
@@ -4599,12 +4508,12 @@
       <c r="I30" s="31">
         <v>0</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="42">
         <f t="shared" si="5"/>
         <v>1120000000</v>
       </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
@@ -4636,12 +4545,12 @@
       <c r="I31" s="31">
         <v>0</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="42">
         <f t="shared" si="5"/>
         <v>150000000</v>
       </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
@@ -4659,7 +4568,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
@@ -4673,12 +4582,12 @@
       <c r="I32" s="31">
         <v>0</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="42">
         <f t="shared" si="5"/>
         <v>750000000</v>
       </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
     </row>
     <row r="33" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
@@ -4696,7 +4605,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
@@ -4710,12 +4619,12 @@
       <c r="I33" s="31">
         <v>0</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="42">
         <f t="shared" si="5"/>
         <v>467880000</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
@@ -4733,7 +4642,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4755,7 +4664,7 @@
         <f>SUM(K34:K41)/10000</f>
         <v>535272</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="43">
         <v>540000</v>
       </c>
     </row>
@@ -4793,8 +4702,8 @@
         <f>E35/10*10000*F35</f>
         <v>500000000</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
@@ -4826,12 +4735,12 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="42">
         <f>E36*F36</f>
         <v>320000000</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
@@ -4863,12 +4772,12 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="K37" s="44">
+      <c r="K37" s="42">
         <f t="shared" ref="K37:K41" si="6">E37*F37</f>
         <v>40000000</v>
       </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
@@ -4886,7 +4795,7 @@
         <v>32</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F38">
         <v>2000</v>
@@ -4900,12 +4809,12 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="K38" s="44">
+      <c r="K38" s="42">
         <f t="shared" si="6"/>
         <v>1600000000</v>
       </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
@@ -4923,7 +4832,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F39">
         <v>500</v>
@@ -4937,12 +4846,12 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" s="44">
+      <c r="K39" s="42">
         <f t="shared" si="6"/>
         <v>300000000</v>
       </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
@@ -4960,7 +4869,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F40">
         <v>3000</v>
@@ -4974,12 +4883,12 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="42">
         <f t="shared" si="6"/>
         <v>1500000000</v>
       </c>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
@@ -4997,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F41">
         <v>3899</v>
@@ -5011,12 +4920,12 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="42">
         <f t="shared" si="6"/>
         <v>1091720000</v>
       </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
@@ -5034,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
@@ -5056,7 +4965,7 @@
         <f>SUM(K42:K49)/10000</f>
         <v>1139250</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="43">
         <v>1140000</v>
       </c>
     </row>
@@ -5094,8 +5003,8 @@
         <f>E43/10*10000*F43</f>
         <v>4500000000</v>
       </c>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
     </row>
     <row r="44" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
@@ -5113,7 +5022,7 @@
         <v>32</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
@@ -5127,12 +5036,12 @@
       <c r="I44" s="31">
         <v>0</v>
       </c>
-      <c r="K44" s="44">
+      <c r="K44" s="42">
         <f>E44*F44</f>
         <v>400000000</v>
       </c>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
     </row>
     <row r="45" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
@@ -5150,7 +5059,7 @@
         <v>32</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
@@ -5164,12 +5073,12 @@
       <c r="I45" s="31">
         <v>0</v>
       </c>
-      <c r="K45" s="44">
+      <c r="K45" s="42">
         <f t="shared" ref="K45:K49" si="7">E45*F45</f>
         <v>60000000</v>
       </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
     </row>
     <row r="46" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
@@ -5187,7 +5096,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
@@ -5201,12 +5110,12 @@
       <c r="I46" s="31">
         <v>0</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="42">
         <f t="shared" si="7"/>
         <v>1620000000</v>
       </c>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
     </row>
     <row r="47" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
@@ -5224,7 +5133,7 @@
         <v>32</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
@@ -5238,12 +5147,12 @@
       <c r="I47" s="31">
         <v>0</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="42">
         <f t="shared" si="7"/>
         <v>880000000</v>
       </c>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
@@ -5261,7 +5170,7 @@
         <v>32</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
@@ -5275,12 +5184,12 @@
       <c r="I48" s="31">
         <v>0</v>
       </c>
-      <c r="K48" s="44">
+      <c r="K48" s="42">
         <f t="shared" si="7"/>
         <v>1980000000</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
@@ -5298,7 +5207,7 @@
         <v>32</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
@@ -5312,12 +5221,12 @@
       <c r="I49" s="31">
         <v>0</v>
       </c>
-      <c r="K49" s="44">
+      <c r="K49" s="42">
         <f t="shared" si="7"/>
         <v>1949500000</v>
       </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
@@ -5335,7 +5244,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5377,7 +5286,7 @@
         <v>29</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F51">
         <v>500</v>
@@ -5395,7 +5304,7 @@
         <f>E51/10*10000*F51</f>
         <v>25000000</v>
       </c>
-      <c r="L51" s="45"/>
+      <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
@@ -5413,7 +5322,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F52">
         <v>500</v>
@@ -5427,11 +5336,11 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="K52" s="44">
+      <c r="K52" s="42">
         <f>E52*F52</f>
         <v>300000000</v>
       </c>
-      <c r="L52" s="45"/>
+      <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
@@ -5463,11 +5372,11 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="K53" s="44">
+      <c r="K53" s="42">
         <f t="shared" ref="K53:K57" si="8">E53*F53</f>
         <v>250000000</v>
       </c>
-      <c r="L53" s="45"/>
+      <c r="L53" s="43"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
@@ -5499,11 +5408,11 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="K54" s="44">
+      <c r="K54" s="42">
         <f t="shared" si="8"/>
         <v>400000000</v>
       </c>
-      <c r="L54" s="45"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
@@ -5521,7 +5430,7 @@
         <v>32</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F55">
         <v>1000</v>
@@ -5535,11 +5444,11 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="K55" s="44">
+      <c r="K55" s="42">
         <f t="shared" si="8"/>
         <v>350000000</v>
       </c>
-      <c r="L55" s="45"/>
+      <c r="L55" s="43"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
@@ -5557,7 +5466,7 @@
         <v>32</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F56">
         <v>2800</v>
@@ -5571,11 +5480,11 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="K56" s="44">
+      <c r="K56" s="42">
         <f t="shared" si="8"/>
         <v>728000000</v>
       </c>
-      <c r="L56" s="45"/>
+      <c r="L56" s="43"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
@@ -5593,7 +5502,7 @@
         <v>32</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F57">
         <v>2800</v>
@@ -5607,11 +5516,11 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="K57" s="44">
+      <c r="K57" s="42">
         <f t="shared" si="8"/>
         <v>336000000</v>
       </c>
-      <c r="L57" s="45"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
@@ -5629,7 +5538,7 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
@@ -5644,14 +5553,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="20">
-        <f t="shared" ref="K58:K73" si="9">E58/10*10000*F58</f>
+        <f t="shared" ref="K58:K59" si="9">E58/10*10000*F58</f>
         <v>1000000</v>
       </c>
       <c r="L58" s="25">
         <f t="shared" ref="L58" si="10">SUM(K58:K65)/10000</f>
         <v>689565</v>
       </c>
-      <c r="M58" s="46">
+      <c r="M58" s="44">
         <v>690000</v>
       </c>
     </row>
@@ -5671,7 +5580,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
@@ -5689,8 +5598,8 @@
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="L59" s="45"/>
-      <c r="M59" s="46"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="44"/>
     </row>
     <row r="60" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
@@ -5708,7 +5617,7 @@
         <v>32</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
@@ -5722,12 +5631,12 @@
       <c r="I60" s="31">
         <v>0</v>
       </c>
-      <c r="K60" s="44">
-        <f t="shared" ref="K60:K73" si="11">E60*F60</f>
+      <c r="K60" s="42">
+        <f t="shared" ref="K60:K65" si="11">E60*F60</f>
         <v>1200000000</v>
       </c>
-      <c r="L60" s="45"/>
-      <c r="M60" s="46"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="44"/>
     </row>
     <row r="61" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
@@ -5759,12 +5668,12 @@
       <c r="I61" s="31">
         <v>0</v>
       </c>
-      <c r="K61" s="44">
+      <c r="K61" s="42">
         <f t="shared" si="11"/>
         <v>300000000</v>
       </c>
-      <c r="L61" s="45"/>
-      <c r="M61" s="46"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="44"/>
     </row>
     <row r="62" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
@@ -5796,12 +5705,12 @@
       <c r="I62" s="31">
         <v>0</v>
       </c>
-      <c r="K62" s="44">
+      <c r="K62" s="42">
         <f t="shared" si="11"/>
         <v>1200000000</v>
       </c>
-      <c r="L62" s="45"/>
-      <c r="M62" s="46"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="44"/>
     </row>
     <row r="63" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
@@ -5819,7 +5728,7 @@
         <v>32</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
@@ -5833,12 +5742,12 @@
       <c r="I63" s="31">
         <v>0</v>
       </c>
-      <c r="K63" s="44">
+      <c r="K63" s="42">
         <f t="shared" si="11"/>
         <v>1000000000</v>
       </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="46"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="44"/>
     </row>
     <row r="64" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
@@ -5856,7 +5765,7 @@
         <v>32</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
@@ -5870,12 +5779,12 @@
       <c r="I64" s="31">
         <v>0</v>
       </c>
-      <c r="K64" s="44">
+      <c r="K64" s="42">
         <f t="shared" si="11"/>
         <v>1800000000</v>
       </c>
-      <c r="L64" s="45"/>
-      <c r="M64" s="46"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="44"/>
     </row>
     <row r="65" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
@@ -5893,7 +5802,7 @@
         <v>32</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
@@ -5907,12 +5816,12 @@
       <c r="I65" s="31">
         <v>0</v>
       </c>
-      <c r="K65" s="44">
+      <c r="K65" s="42">
         <f t="shared" si="11"/>
         <v>1364650000</v>
       </c>
-      <c r="L65" s="45"/>
-      <c r="M65" s="46"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="44"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
@@ -5945,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="20">
-        <f t="shared" ref="K66:K73" si="12">E66/10*10000*F66</f>
+        <f t="shared" ref="K66:K67" si="12">E66/10*10000*F66</f>
         <v>2000000</v>
       </c>
       <c r="L66" s="25">
@@ -5972,7 +5881,7 @@
         <v>29</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F67">
         <v>300</v>
@@ -5990,7 +5899,7 @@
         <f t="shared" si="12"/>
         <v>60000000</v>
       </c>
-      <c r="L67" s="45"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
@@ -6008,7 +5917,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F68">
         <v>600</v>
@@ -6022,11 +5931,11 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="K68" s="44">
+      <c r="K68" s="42">
         <f t="shared" ref="K68:K73" si="14">E68*F68</f>
         <v>3000000000</v>
       </c>
-      <c r="L68" s="45"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
@@ -6044,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F69">
         <v>200</v>
@@ -6058,11 +5967,11 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="K69" s="44">
+      <c r="K69" s="42">
         <f t="shared" si="14"/>
         <v>800000000</v>
       </c>
-      <c r="L69" s="45"/>
+      <c r="L69" s="43"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
@@ -6080,7 +5989,7 @@
         <v>32</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F70">
         <v>1000</v>
@@ -6094,11 +6003,11 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="K70" s="44">
+      <c r="K70" s="42">
         <f t="shared" si="14"/>
         <v>3000000000</v>
       </c>
-      <c r="L70" s="45"/>
+      <c r="L70" s="43"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
@@ -6130,11 +6039,11 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="K71" s="44">
+      <c r="K71" s="42">
         <f t="shared" si="14"/>
         <v>2000000000</v>
       </c>
-      <c r="L71" s="45"/>
+      <c r="L71" s="43"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
@@ -6152,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F72">
         <v>3000</v>
@@ -6166,11 +6075,11 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="K72" s="44">
+      <c r="K72" s="42">
         <f t="shared" si="14"/>
         <v>3840000000</v>
       </c>
-      <c r="L72" s="45"/>
+      <c r="L72" s="43"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
@@ -6188,7 +6097,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F73">
         <v>3899</v>
@@ -6202,11 +6111,11 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="K73" s="44">
+      <c r="K73" s="42">
         <f t="shared" si="14"/>
         <v>3119200000</v>
       </c>
-      <c r="L73" s="45"/>
+      <c r="L73" s="43"/>
     </row>
     <row r="74" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
@@ -6224,7 +6133,7 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
@@ -6239,14 +6148,14 @@
         <v>0</v>
       </c>
       <c r="K74" s="20">
-        <f t="shared" ref="K74:K105" si="15">E74/10*10000*F74</f>
+        <f t="shared" ref="K74:K75" si="15">E74/10*10000*F74</f>
         <v>5000000</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" ref="L74" si="16">SUM(K74:K81)/10000</f>
         <v>3075300</v>
       </c>
-      <c r="M74" s="46">
+      <c r="M74" s="44">
         <v>3090000</v>
       </c>
     </row>
@@ -6266,7 +6175,7 @@
         <v>29</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
@@ -6284,8 +6193,8 @@
         <f t="shared" si="15"/>
         <v>50000000</v>
       </c>
-      <c r="L75" s="45"/>
-      <c r="M75" s="46"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="44"/>
     </row>
     <row r="76" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
@@ -6317,12 +6226,12 @@
       <c r="I76" s="31">
         <v>0</v>
       </c>
-      <c r="K76" s="44">
-        <f t="shared" ref="K76:K107" si="19">E76*F76</f>
+      <c r="K76" s="42">
+        <f t="shared" ref="K76:K81" si="19">E76*F76</f>
         <v>2400000000</v>
       </c>
-      <c r="L76" s="45"/>
-      <c r="M76" s="46"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="44"/>
     </row>
     <row r="77" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
@@ -6354,12 +6263,12 @@
       <c r="I77" s="31">
         <v>0</v>
       </c>
-      <c r="K77" s="44">
+      <c r="K77" s="42">
         <f t="shared" si="19"/>
         <v>1200000000</v>
       </c>
-      <c r="L77" s="45"/>
-      <c r="M77" s="46"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="44"/>
     </row>
     <row r="78" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
@@ -6391,12 +6300,12 @@
       <c r="I78" s="31">
         <v>0</v>
       </c>
-      <c r="K78" s="44">
+      <c r="K78" s="42">
         <f t="shared" si="19"/>
         <v>7500000000</v>
       </c>
-      <c r="L78" s="45"/>
-      <c r="M78" s="46"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="44"/>
     </row>
     <row r="79" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
@@ -6428,12 +6337,12 @@
       <c r="I79" s="31">
         <v>0</v>
       </c>
-      <c r="K79" s="44">
+      <c r="K79" s="42">
         <f t="shared" si="19"/>
         <v>4000000000</v>
       </c>
-      <c r="L79" s="45"/>
-      <c r="M79" s="46"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="44"/>
     </row>
     <row r="80" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
@@ -6451,7 +6360,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
@@ -6465,12 +6374,12 @@
       <c r="I80" s="31">
         <v>0</v>
       </c>
-      <c r="K80" s="44">
+      <c r="K80" s="42">
         <f t="shared" si="19"/>
         <v>7800000000</v>
       </c>
-      <c r="L80" s="45"/>
-      <c r="M80" s="46"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="44"/>
     </row>
     <row r="81" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
@@ -6488,7 +6397,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
@@ -6502,12 +6411,12 @@
       <c r="I81" s="31">
         <v>0</v>
       </c>
-      <c r="K81" s="44">
+      <c r="K81" s="42">
         <f t="shared" si="19"/>
         <v>7798000000</v>
       </c>
-      <c r="L81" s="45"/>
-      <c r="M81" s="46"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="44"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
@@ -6525,7 +6434,7 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6540,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="20">
-        <f t="shared" ref="K82:K145" si="20">E82/10*10000*F82</f>
+        <f t="shared" ref="K82:K83" si="20">E82/10*10000*F82</f>
         <v>8000000</v>
       </c>
       <c r="L82" s="25">
@@ -6567,7 +6476,7 @@
         <v>29</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F83">
         <v>500</v>
@@ -6585,7 +6494,7 @@
         <f t="shared" si="20"/>
         <v>1250000000</v>
       </c>
-      <c r="L83" s="45"/>
+      <c r="L83" s="43"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
@@ -6603,7 +6512,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F84">
         <v>50</v>
@@ -6617,11 +6526,11 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="K84" s="44">
-        <f t="shared" ref="K84:K147" si="22">E84*F84</f>
+      <c r="K84" s="42">
+        <f t="shared" ref="K84:K89" si="22">E84*F84</f>
         <v>750000000</v>
       </c>
-      <c r="L84" s="45"/>
+      <c r="L84" s="43"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
@@ -6639,7 +6548,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F85">
         <v>50</v>
@@ -6653,11 +6562,11 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="K85" s="44">
+      <c r="K85" s="42">
         <f t="shared" si="22"/>
         <v>500000000</v>
       </c>
-      <c r="L85" s="45"/>
+      <c r="L85" s="43"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
@@ -6689,11 +6598,11 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="42">
         <f t="shared" si="22"/>
         <v>12000000000</v>
       </c>
-      <c r="L86" s="45"/>
+      <c r="L86" s="43"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
@@ -6725,11 +6634,11 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="K87" s="44">
+      <c r="K87" s="42">
         <f t="shared" si="22"/>
         <v>6000000000</v>
       </c>
-      <c r="L87" s="45"/>
+      <c r="L87" s="43"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
@@ -6747,7 +6656,7 @@
         <v>32</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F88">
         <v>3000</v>
@@ -6761,11 +6670,11 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="K88" s="44">
+      <c r="K88" s="42">
         <f t="shared" si="22"/>
         <v>16800000000</v>
       </c>
-      <c r="L88" s="45"/>
+      <c r="L88" s="43"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
@@ -6783,7 +6692,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F89">
         <v>3899</v>
@@ -6797,11 +6706,11 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="K89" s="44">
+      <c r="K89" s="42">
         <f t="shared" si="22"/>
         <v>17545500000</v>
       </c>
-      <c r="L89" s="45"/>
+      <c r="L89" s="43"/>
     </row>
     <row r="90" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
@@ -6819,7 +6728,7 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
@@ -6834,14 +6743,14 @@
         <v>0</v>
       </c>
       <c r="K90" s="20">
-        <f t="shared" ref="K90:K153" si="23">E90/10*10000*F90</f>
+        <f t="shared" ref="K90:K91" si="23">E90/10*10000*F90</f>
         <v>15000000</v>
       </c>
       <c r="L90" s="25">
         <f t="shared" ref="L90:L138" si="24">SUM(K90:K97)/10000</f>
         <v>9980750</v>
       </c>
-      <c r="M90" s="46">
+      <c r="M90" s="44">
         <v>9990000</v>
       </c>
     </row>
@@ -6861,7 +6770,7 @@
         <v>29</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
@@ -6879,8 +6788,8 @@
         <f t="shared" si="23"/>
         <v>2500000000</v>
       </c>
-      <c r="L91" s="45"/>
-      <c r="M91" s="46"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="44"/>
     </row>
     <row r="92" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
@@ -6898,7 +6807,7 @@
         <v>32</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
@@ -6912,12 +6821,12 @@
       <c r="I92" s="31">
         <v>0</v>
       </c>
-      <c r="K92" s="44">
-        <f t="shared" ref="K92:K155" si="25">E92*F92</f>
+      <c r="K92" s="42">
+        <f t="shared" ref="K92:K97" si="25">E92*F92</f>
         <v>2000000000</v>
       </c>
-      <c r="L92" s="45"/>
-      <c r="M92" s="46"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="44"/>
     </row>
     <row r="93" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
@@ -6949,12 +6858,12 @@
       <c r="I93" s="31">
         <v>0</v>
       </c>
-      <c r="K93" s="44">
+      <c r="K93" s="42">
         <f t="shared" si="25"/>
         <v>1250000000</v>
       </c>
-      <c r="L93" s="45"/>
-      <c r="M93" s="46"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="44"/>
     </row>
     <row r="94" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
@@ -6972,7 +6881,7 @@
         <v>32</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
@@ -6986,12 +6895,12 @@
       <c r="I94" s="31">
         <v>0</v>
       </c>
-      <c r="K94" s="44">
+      <c r="K94" s="42">
         <f t="shared" si="25"/>
         <v>27000000000</v>
       </c>
-      <c r="L94" s="45"/>
-      <c r="M94" s="46"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="44"/>
     </row>
     <row r="95" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
@@ -7009,7 +6918,7 @@
         <v>32</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
@@ -7023,12 +6932,12 @@
       <c r="I95" s="31">
         <v>0</v>
       </c>
-      <c r="K95" s="44">
+      <c r="K95" s="42">
         <f t="shared" si="25"/>
         <v>12000000000</v>
       </c>
-      <c r="L95" s="45"/>
-      <c r="M95" s="46"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="44"/>
     </row>
     <row r="96" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17">
@@ -7046,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
@@ -7060,12 +6969,12 @@
       <c r="I96" s="31">
         <v>0</v>
       </c>
-      <c r="K96" s="44">
+      <c r="K96" s="42">
         <f t="shared" si="25"/>
         <v>25800000000</v>
       </c>
-      <c r="L96" s="45"/>
-      <c r="M96" s="46"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="44"/>
     </row>
     <row r="97" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17">
@@ -7083,7 +6992,7 @@
         <v>32</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
@@ -7097,12 +7006,12 @@
       <c r="I97" s="31">
         <v>0</v>
       </c>
-      <c r="K97" s="44">
+      <c r="K97" s="42">
         <f t="shared" si="25"/>
         <v>29242500000</v>
       </c>
-      <c r="L97" s="45"/>
-      <c r="M97" s="46"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="44"/>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
@@ -7120,7 +7029,7 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
@@ -7135,14 +7044,14 @@
         <v>0</v>
       </c>
       <c r="K98" s="20">
-        <f t="shared" ref="K98:K129" si="26">E98/10*10000*F98</f>
+        <f t="shared" ref="K98:K99" si="26">E98/10*10000*F98</f>
         <v>2000000</v>
       </c>
       <c r="L98" s="25">
         <f t="shared" ref="L98" si="27">SUM(K98:K105)/10000</f>
         <v>1497400</v>
       </c>
-      <c r="M98" s="48">
+      <c r="M98" s="46">
         <v>1500000</v>
       </c>
     </row>
@@ -7180,8 +7089,8 @@
         <f t="shared" si="26"/>
         <v>200000000</v>
       </c>
-      <c r="L99" s="45"/>
-      <c r="M99" s="47"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="45"/>
     </row>
     <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
@@ -7213,12 +7122,12 @@
       <c r="I100" s="13">
         <v>0</v>
       </c>
-      <c r="K100" s="44">
-        <f t="shared" ref="K100:K131" si="28">E100*F100</f>
+      <c r="K100" s="42">
+        <f t="shared" ref="K100:K105" si="28">E100*F100</f>
         <v>4800000000</v>
       </c>
-      <c r="L100" s="45"/>
-      <c r="M100" s="47"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="45"/>
     </row>
     <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
@@ -7250,12 +7159,12 @@
       <c r="I101" s="13">
         <v>0</v>
       </c>
-      <c r="K101" s="44">
+      <c r="K101" s="42">
         <f t="shared" si="28"/>
         <v>800000000</v>
       </c>
-      <c r="L101" s="45"/>
-      <c r="M101" s="47"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="45"/>
     </row>
     <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
@@ -7273,7 +7182,7 @@
         <v>32</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
@@ -7287,12 +7196,12 @@
       <c r="I102" s="13">
         <v>0</v>
       </c>
-      <c r="K102" s="44">
+      <c r="K102" s="42">
         <f t="shared" si="28"/>
         <v>2500000000</v>
       </c>
-      <c r="L102" s="45"/>
-      <c r="M102" s="47"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="45"/>
     </row>
     <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
@@ -7310,7 +7219,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
@@ -7324,12 +7233,12 @@
       <c r="I103" s="13">
         <v>0</v>
       </c>
-      <c r="K103" s="44">
+      <c r="K103" s="42">
         <f t="shared" si="28"/>
         <v>1800000000</v>
       </c>
-      <c r="L103" s="45"/>
-      <c r="M103" s="47"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="45"/>
     </row>
     <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17">
@@ -7347,7 +7256,7 @@
         <v>32</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
@@ -7361,12 +7270,12 @@
       <c r="I104" s="13">
         <v>0</v>
       </c>
-      <c r="K104" s="44">
+      <c r="K104" s="42">
         <f t="shared" si="28"/>
         <v>3024000000</v>
       </c>
-      <c r="L104" s="45"/>
-      <c r="M104" s="47"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="45"/>
     </row>
     <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17">
@@ -7384,7 +7293,7 @@
         <v>32</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
@@ -7398,12 +7307,12 @@
       <c r="I105" s="13">
         <v>0</v>
       </c>
-      <c r="K105" s="44">
+      <c r="K105" s="42">
         <f t="shared" si="28"/>
         <v>1848000000</v>
       </c>
-      <c r="L105" s="45"/>
-      <c r="M105" s="47"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="45"/>
     </row>
     <row r="106" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
@@ -7421,7 +7330,7 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
@@ -7436,14 +7345,14 @@
         <v>0</v>
       </c>
       <c r="K106" s="20">
-        <f t="shared" ref="K106:K169" si="29">E106/10*10000*F106</f>
+        <f t="shared" ref="K106:K107" si="29">E106/10*10000*F106</f>
         <v>10000000</v>
       </c>
       <c r="L106" s="25">
         <f t="shared" si="21"/>
         <v>5998600</v>
       </c>
-      <c r="M106" s="48">
+      <c r="M106" s="46">
         <v>6000000</v>
       </c>
     </row>
@@ -7463,7 +7372,7 @@
         <v>29</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
@@ -7481,8 +7390,8 @@
         <f t="shared" si="29"/>
         <v>240000000</v>
       </c>
-      <c r="L107" s="45"/>
-      <c r="M107" s="46"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="44"/>
     </row>
     <row r="108" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
@@ -7500,7 +7409,7 @@
         <v>32</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
@@ -7514,12 +7423,12 @@
       <c r="I108" s="31">
         <v>0</v>
       </c>
-      <c r="K108" s="44">
-        <f t="shared" ref="K108:K171" si="30">E108*F108</f>
+      <c r="K108" s="42">
+        <f t="shared" ref="K108:K113" si="30">E108*F108</f>
         <v>12000000000</v>
       </c>
-      <c r="L108" s="45"/>
-      <c r="M108" s="46"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="44"/>
     </row>
     <row r="109" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
@@ -7537,7 +7446,7 @@
         <v>32</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
@@ -7551,12 +7460,12 @@
       <c r="I109" s="31">
         <v>0</v>
       </c>
-      <c r="K109" s="44">
+      <c r="K109" s="42">
         <f t="shared" si="30"/>
         <v>3000000000</v>
       </c>
-      <c r="L109" s="45"/>
-      <c r="M109" s="46"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="44"/>
     </row>
     <row r="110" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
@@ -7574,7 +7483,7 @@
         <v>32</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
@@ -7588,12 +7497,12 @@
       <c r="I110" s="31">
         <v>0</v>
       </c>
-      <c r="K110" s="44">
+      <c r="K110" s="42">
         <f t="shared" si="30"/>
         <v>8060000000</v>
       </c>
-      <c r="L110" s="45"/>
-      <c r="M110" s="46"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="44"/>
     </row>
     <row r="111" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
@@ -7611,7 +7520,7 @@
         <v>32</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
@@ -7625,12 +7534,12 @@
       <c r="I111" s="31">
         <v>0</v>
       </c>
-      <c r="K111" s="44">
+      <c r="K111" s="42">
         <f t="shared" si="30"/>
         <v>6080000000</v>
       </c>
-      <c r="L111" s="45"/>
-      <c r="M111" s="46"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="44"/>
     </row>
     <row r="112" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
@@ -7662,12 +7571,12 @@
       <c r="I112" s="31">
         <v>0</v>
       </c>
-      <c r="K112" s="44">
+      <c r="K112" s="42">
         <f t="shared" si="30"/>
         <v>15000000000</v>
       </c>
-      <c r="L112" s="45"/>
-      <c r="M112" s="46"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="44"/>
     </row>
     <row r="113" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
@@ -7699,12 +7608,12 @@
       <c r="I113" s="31">
         <v>0</v>
       </c>
-      <c r="K113" s="44">
+      <c r="K113" s="42">
         <f t="shared" si="30"/>
         <v>15596000000</v>
       </c>
-      <c r="L113" s="45"/>
-      <c r="M113" s="46"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="44"/>
     </row>
     <row r="114" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
@@ -7722,13 +7631,13 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>31</v>
@@ -7737,14 +7646,14 @@
         <v>0</v>
       </c>
       <c r="K114" s="20">
-        <f t="shared" ref="K114:K177" si="31">E114/10*10000*F114</f>
+        <f t="shared" ref="K114:K115" si="31">E114/10*10000*F114</f>
         <v>30000000</v>
       </c>
       <c r="L114" s="25">
         <f t="shared" si="24"/>
         <v>13491300</v>
       </c>
-      <c r="M114" s="48">
+      <c r="M114" s="46">
         <v>13500000</v>
       </c>
     </row>
@@ -7764,7 +7673,7 @@
         <v>29</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
@@ -7782,8 +7691,8 @@
         <f t="shared" si="31"/>
         <v>390000000</v>
       </c>
-      <c r="L115" s="45"/>
-      <c r="M115" s="47"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="45"/>
     </row>
     <row r="116" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
@@ -7815,12 +7724,12 @@
       <c r="I116" s="13">
         <v>0</v>
       </c>
-      <c r="K116" s="44">
-        <f t="shared" ref="K116:K179" si="32">E116*F116</f>
+      <c r="K116" s="42">
+        <f t="shared" ref="K116:K121" si="32">E116*F116</f>
         <v>30000000000</v>
       </c>
-      <c r="L116" s="45"/>
-      <c r="M116" s="47"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="45"/>
     </row>
     <row r="117" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
@@ -7838,7 +7747,7 @@
         <v>32</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
@@ -7852,12 +7761,12 @@
       <c r="I117" s="13">
         <v>0</v>
       </c>
-      <c r="K117" s="44">
+      <c r="K117" s="42">
         <f t="shared" si="32"/>
         <v>6000000000</v>
       </c>
-      <c r="L117" s="45"/>
-      <c r="M117" s="47"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="45"/>
     </row>
     <row r="118" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
@@ -7875,7 +7784,7 @@
         <v>32</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
@@ -7889,12 +7798,12 @@
       <c r="I118" s="13">
         <v>0</v>
       </c>
-      <c r="K118" s="44">
+      <c r="K118" s="42">
         <f t="shared" si="32"/>
         <v>20000000000</v>
       </c>
-      <c r="L118" s="45"/>
-      <c r="M118" s="47"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="45"/>
     </row>
     <row r="119" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
@@ -7912,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
@@ -7926,12 +7835,12 @@
       <c r="I119" s="13">
         <v>0</v>
       </c>
-      <c r="K119" s="44">
+      <c r="K119" s="42">
         <f t="shared" si="32"/>
         <v>15800000000</v>
       </c>
-      <c r="L119" s="45"/>
-      <c r="M119" s="47"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="45"/>
     </row>
     <row r="120" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
@@ -7949,7 +7858,7 @@
         <v>32</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
@@ -7963,12 +7872,12 @@
       <c r="I120" s="13">
         <v>0</v>
       </c>
-      <c r="K120" s="44">
+      <c r="K120" s="42">
         <f t="shared" si="32"/>
         <v>35400000000</v>
       </c>
-      <c r="L120" s="45"/>
-      <c r="M120" s="47"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="45"/>
     </row>
     <row r="121" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
@@ -7986,7 +7895,7 @@
         <v>32</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
@@ -8000,12 +7909,12 @@
       <c r="I121" s="13">
         <v>0</v>
       </c>
-      <c r="K121" s="44">
+      <c r="K121" s="42">
         <f t="shared" si="32"/>
         <v>27293000000</v>
       </c>
-      <c r="L121" s="45"/>
-      <c r="M121" s="47"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="45"/>
     </row>
     <row r="122" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
@@ -8023,7 +7932,7 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
@@ -8038,14 +7947,14 @@
         <v>0</v>
       </c>
       <c r="K122" s="20">
-        <f t="shared" ref="K122:K153" si="33">E122/10*10000*F122</f>
+        <f t="shared" ref="K122:K123" si="33">E122/10*10000*F122</f>
         <v>50000000</v>
       </c>
       <c r="L122" s="25">
         <f t="shared" ref="L122" si="34">SUM(K122:K129)/10000</f>
         <v>25490720</v>
       </c>
-      <c r="M122" s="48">
+      <c r="M122" s="46">
         <v>25500000</v>
       </c>
     </row>
@@ -8065,7 +7974,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
@@ -8083,8 +7992,8 @@
         <f t="shared" si="33"/>
         <v>350000000</v>
       </c>
-      <c r="L123" s="45"/>
-      <c r="M123" s="46"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="44"/>
     </row>
     <row r="124" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
@@ -8102,7 +8011,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
@@ -8116,12 +8025,12 @@
       <c r="I124" s="31">
         <v>0</v>
       </c>
-      <c r="K124" s="44">
-        <f t="shared" ref="K124:K155" si="35">E124*F124</f>
+      <c r="K124" s="42">
+        <f t="shared" ref="K124:K129" si="35">E124*F124</f>
         <v>24000000000</v>
       </c>
-      <c r="L124" s="45"/>
-      <c r="M124" s="46"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="44"/>
     </row>
     <row r="125" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
@@ -8139,7 +8048,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
@@ -8153,12 +8062,12 @@
       <c r="I125" s="31">
         <v>0</v>
       </c>
-      <c r="K125" s="44">
+      <c r="K125" s="42">
         <f t="shared" si="35"/>
         <v>12000000000</v>
       </c>
-      <c r="L125" s="45"/>
-      <c r="M125" s="46"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="44"/>
     </row>
     <row r="126" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17">
@@ -8176,7 +8085,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
@@ -8190,12 +8099,12 @@
       <c r="I126" s="31">
         <v>0</v>
       </c>
-      <c r="K126" s="44">
+      <c r="K126" s="42">
         <f t="shared" si="35"/>
         <v>60000000000</v>
       </c>
-      <c r="L126" s="45"/>
-      <c r="M126" s="46"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="44"/>
     </row>
     <row r="127" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17">
@@ -8213,7 +8122,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
@@ -8227,12 +8136,12 @@
       <c r="I127" s="31">
         <v>0</v>
       </c>
-      <c r="K127" s="44">
+      <c r="K127" s="42">
         <f t="shared" si="35"/>
         <v>31800000000</v>
       </c>
-      <c r="L127" s="45"/>
-      <c r="M127" s="46"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="44"/>
     </row>
     <row r="128" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
@@ -8250,7 +8159,7 @@
         <v>32</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
@@ -8264,12 +8173,12 @@
       <c r="I128" s="31">
         <v>0</v>
       </c>
-      <c r="K128" s="44">
+      <c r="K128" s="42">
         <f t="shared" si="35"/>
         <v>76800000000</v>
       </c>
-      <c r="L128" s="45"/>
-      <c r="M128" s="46"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="44"/>
     </row>
     <row r="129" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17">
@@ -8287,7 +8196,7 @@
         <v>32</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
@@ -8301,12 +8210,12 @@
       <c r="I129" s="31">
         <v>0</v>
       </c>
-      <c r="K129" s="44">
+      <c r="K129" s="42">
         <f t="shared" si="35"/>
         <v>49907200000</v>
       </c>
-      <c r="L129" s="45"/>
-      <c r="M129" s="46"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="44"/>
     </row>
     <row r="130" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17">
@@ -8339,14 +8248,14 @@
         <v>0</v>
       </c>
       <c r="K130" s="20">
-        <f t="shared" ref="K130:K193" si="36">E130/10*10000*F130</f>
+        <f t="shared" ref="K130:K131" si="36">E130/10*10000*F130</f>
         <v>80000000</v>
       </c>
       <c r="L130" s="25">
         <f t="shared" si="21"/>
         <v>40495000</v>
       </c>
-      <c r="M130" s="48">
+      <c r="M130" s="46">
         <v>40500000</v>
       </c>
     </row>
@@ -8366,7 +8275,7 @@
         <v>29</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
@@ -8384,8 +8293,8 @@
         <f t="shared" si="36"/>
         <v>2500000000</v>
       </c>
-      <c r="L131" s="45"/>
-      <c r="M131" s="47"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="45"/>
     </row>
     <row r="132" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17">
@@ -8403,7 +8312,7 @@
         <v>32</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
@@ -8417,12 +8326,12 @@
       <c r="I132" s="13">
         <v>0</v>
       </c>
-      <c r="K132" s="44">
-        <f t="shared" ref="K132:K193" si="37">E132*F132</f>
+      <c r="K132" s="42">
+        <f t="shared" ref="K132:K137" si="37">E132*F132</f>
         <v>8000000000</v>
       </c>
-      <c r="L132" s="45"/>
-      <c r="M132" s="47"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="45"/>
     </row>
     <row r="133" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17">
@@ -8440,7 +8349,7 @@
         <v>32</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
@@ -8454,12 +8363,12 @@
       <c r="I133" s="13">
         <v>0</v>
       </c>
-      <c r="K133" s="44">
+      <c r="K133" s="42">
         <f t="shared" si="37"/>
         <v>1600000000</v>
       </c>
-      <c r="L133" s="45"/>
-      <c r="M133" s="47"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="45"/>
     </row>
     <row r="134" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
@@ -8477,7 +8386,7 @@
         <v>32</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
@@ -8491,12 +8400,12 @@
       <c r="I134" s="13">
         <v>0</v>
       </c>
-      <c r="K134" s="44">
+      <c r="K134" s="42">
         <f t="shared" si="37"/>
         <v>90000000000</v>
       </c>
-      <c r="L134" s="45"/>
-      <c r="M134" s="47"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="45"/>
     </row>
     <row r="135" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
@@ -8514,7 +8423,7 @@
         <v>32</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
@@ -8528,12 +8437,12 @@
       <c r="I135" s="13">
         <v>0</v>
       </c>
-      <c r="K135" s="44">
+      <c r="K135" s="42">
         <f t="shared" si="37"/>
         <v>50800000000</v>
       </c>
-      <c r="L135" s="45"/>
-      <c r="M135" s="47"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="45"/>
     </row>
     <row r="136" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
@@ -8551,7 +8460,7 @@
         <v>32</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
@@ -8565,12 +8474,12 @@
       <c r="I136" s="13">
         <v>0</v>
       </c>
-      <c r="K136" s="44">
+      <c r="K136" s="42">
         <f t="shared" si="37"/>
         <v>135000000000</v>
       </c>
-      <c r="L136" s="45"/>
-      <c r="M136" s="47"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="45"/>
     </row>
     <row r="137" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
@@ -8602,12 +8511,12 @@
       <c r="I137" s="13">
         <v>0</v>
       </c>
-      <c r="K137" s="44">
+      <c r="K137" s="42">
         <f t="shared" si="37"/>
         <v>116970000000</v>
       </c>
-      <c r="L137" s="45"/>
-      <c r="M137" s="47"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="45"/>
     </row>
     <row r="138" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17">
@@ -8641,14 +8550,14 @@
       </c>
       <c r="J138" s="34"/>
       <c r="K138" s="20">
-        <f t="shared" ref="K138:K193" si="38">E138/10*10000*F138</f>
+        <f t="shared" ref="K138:K139" si="38">E138/10*10000*F138</f>
         <v>100000000</v>
       </c>
       <c r="L138" s="25">
         <f t="shared" si="24"/>
         <v>85493400</v>
       </c>
-      <c r="M138" s="48">
+      <c r="M138" s="46">
         <v>85500000</v>
       </c>
     </row>
@@ -8668,7 +8577,7 @@
         <v>29</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8686,8 +8595,8 @@
         <f t="shared" si="38"/>
         <v>4500000000</v>
       </c>
-      <c r="L139" s="45"/>
-      <c r="M139" s="46"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="44"/>
     </row>
     <row r="140" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17">
@@ -8705,7 +8614,7 @@
         <v>32</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
@@ -8719,12 +8628,12 @@
       <c r="I140" s="31">
         <v>0</v>
       </c>
-      <c r="K140" s="44">
-        <f t="shared" ref="K140:K193" si="41">E140*F140</f>
+      <c r="K140" s="42">
+        <f t="shared" ref="K140:K145" si="41">E140*F140</f>
         <v>24000000000</v>
       </c>
-      <c r="L140" s="45"/>
-      <c r="M140" s="46"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="44"/>
     </row>
     <row r="141" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17">
@@ -8742,7 +8651,7 @@
         <v>32</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
@@ -8756,12 +8665,12 @@
       <c r="I141" s="31">
         <v>0</v>
       </c>
-      <c r="K141" s="44">
+      <c r="K141" s="42">
         <f t="shared" si="41"/>
         <v>4000000000</v>
       </c>
-      <c r="L141" s="45"/>
-      <c r="M141" s="46"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="44"/>
     </row>
     <row r="142" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17">
@@ -8779,7 +8688,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
@@ -8793,12 +8702,12 @@
       <c r="I142" s="31">
         <v>0</v>
       </c>
-      <c r="K142" s="44">
+      <c r="K142" s="42">
         <f t="shared" si="41"/>
         <v>225000000000</v>
       </c>
-      <c r="L142" s="45"/>
-      <c r="M142" s="46"/>
+      <c r="L142" s="43"/>
+      <c r="M142" s="44"/>
     </row>
     <row r="143" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17">
@@ -8816,7 +8725,7 @@
         <v>32</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
@@ -8830,12 +8739,12 @@
       <c r="I143" s="31">
         <v>0</v>
       </c>
-      <c r="K143" s="44">
+      <c r="K143" s="42">
         <f t="shared" si="41"/>
         <v>100000000000</v>
       </c>
-      <c r="L143" s="45"/>
-      <c r="M143" s="46"/>
+      <c r="L143" s="43"/>
+      <c r="M143" s="44"/>
     </row>
     <row r="144" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17">
@@ -8853,7 +8762,7 @@
         <v>32</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
@@ -8867,12 +8776,12 @@
       <c r="I144" s="31">
         <v>0</v>
       </c>
-      <c r="K144" s="44">
+      <c r="K144" s="42">
         <f t="shared" si="41"/>
         <v>240000000000</v>
       </c>
-      <c r="L144" s="45"/>
-      <c r="M144" s="46"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="44"/>
     </row>
     <row r="145" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17">
@@ -8890,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
@@ -8904,12 +8813,12 @@
       <c r="I145" s="31">
         <v>0</v>
       </c>
-      <c r="K145" s="44">
+      <c r="K145" s="42">
         <f t="shared" si="41"/>
         <v>257334000000</v>
       </c>
-      <c r="L145" s="45"/>
-      <c r="M145" s="46"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="44"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="17">
@@ -8927,7 +8836,7 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -8942,14 +8851,14 @@
         <v>0</v>
       </c>
       <c r="K146" s="20">
-        <f t="shared" ref="K146:K193" si="42">E146/10*10000*F146</f>
+        <f t="shared" ref="K146:K147" si="42">E146/10*10000*F146</f>
         <v>5000000</v>
       </c>
       <c r="L146" s="25">
         <f t="shared" ref="L146" si="43">SUM(K146:K153)/10000</f>
         <v>2394372</v>
       </c>
-      <c r="M146" s="48">
+      <c r="M146" s="46">
         <v>2400000</v>
       </c>
     </row>
@@ -8969,7 +8878,7 @@
         <v>29</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F147">
         <v>500</v>
@@ -8987,7 +8896,7 @@
         <f t="shared" si="42"/>
         <v>400000000</v>
       </c>
-      <c r="L147" s="45"/>
+      <c r="L147" s="43"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="17">
@@ -9005,7 +8914,7 @@
         <v>32</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F148">
         <v>500</v>
@@ -9019,11 +8928,11 @@
       <c r="I148">
         <v>0</v>
       </c>
-      <c r="K148" s="44">
-        <f t="shared" ref="K148:K193" si="44">E148*F148</f>
+      <c r="K148" s="42">
+        <f t="shared" ref="K148:K153" si="44">E148*F148</f>
         <v>3000000000</v>
       </c>
-      <c r="L148" s="45"/>
+      <c r="L148" s="43"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
@@ -9041,7 +8950,7 @@
         <v>32</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F149">
         <v>500</v>
@@ -9055,11 +8964,11 @@
       <c r="I149">
         <v>0</v>
       </c>
-      <c r="K149" s="44">
+      <c r="K149" s="42">
         <f t="shared" si="44"/>
         <v>2500000000</v>
       </c>
-      <c r="L149" s="45"/>
+      <c r="L149" s="43"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
@@ -9077,7 +8986,7 @@
         <v>32</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F150">
         <v>1000</v>
@@ -9091,11 +9000,11 @@
       <c r="I150">
         <v>0</v>
       </c>
-      <c r="K150" s="44">
+      <c r="K150" s="42">
         <f t="shared" si="44"/>
         <v>4000000000</v>
       </c>
-      <c r="L150" s="45"/>
+      <c r="L150" s="43"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
@@ -9113,7 +9022,7 @@
         <v>32</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F151">
         <v>1000</v>
@@ -9127,11 +9036,11 @@
       <c r="I151">
         <v>0</v>
       </c>
-      <c r="K151" s="44">
+      <c r="K151" s="42">
         <f t="shared" si="44"/>
         <v>3200000000</v>
       </c>
-      <c r="L151" s="45"/>
+      <c r="L151" s="43"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
@@ -9149,7 +9058,7 @@
         <v>32</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F152">
         <v>2800</v>
@@ -9163,11 +9072,11 @@
       <c r="I152">
         <v>0</v>
       </c>
-      <c r="K152" s="44">
+      <c r="K152" s="42">
         <f t="shared" si="44"/>
         <v>6104000000</v>
       </c>
-      <c r="L152" s="45"/>
+      <c r="L152" s="43"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="17">
@@ -9185,7 +9094,7 @@
         <v>34</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F153">
         <v>3699</v>
@@ -9199,11 +9108,11 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="K153" s="44">
+      <c r="K153" s="42">
         <f t="shared" si="44"/>
         <v>4734720000</v>
       </c>
-      <c r="L153" s="45"/>
+      <c r="L153" s="43"/>
     </row>
     <row r="154" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17">
@@ -9236,14 +9145,14 @@
         <v>0</v>
       </c>
       <c r="K154" s="20">
-        <f t="shared" ref="K154:K193" si="45">E154/10*10000*F154</f>
+        <f t="shared" ref="K154:K155" si="45">E154/10*10000*F154</f>
         <v>8000000</v>
       </c>
       <c r="L154" s="25">
         <f t="shared" ref="L154:L178" si="46">SUM(K154:K161)/10000</f>
         <v>6899132</v>
       </c>
-      <c r="M154" s="48">
+      <c r="M154" s="46">
         <v>6900000</v>
       </c>
     </row>
@@ -9263,7 +9172,7 @@
         <v>29</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
@@ -9281,8 +9190,8 @@
         <f t="shared" si="45"/>
         <v>336000000</v>
       </c>
-      <c r="L155" s="45"/>
-      <c r="M155" s="46"/>
+      <c r="L155" s="43"/>
+      <c r="M155" s="44"/>
     </row>
     <row r="156" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
@@ -9300,7 +9209,7 @@
         <v>32</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
@@ -9314,12 +9223,12 @@
       <c r="I156" s="31">
         <v>0</v>
       </c>
-      <c r="K156" s="44">
-        <f t="shared" ref="K156:K193" si="47">E156*F156</f>
+      <c r="K156" s="42">
+        <f t="shared" ref="K156:K161" si="47">E156*F156</f>
         <v>9000000000</v>
       </c>
-      <c r="L156" s="45"/>
-      <c r="M156" s="46"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="44"/>
     </row>
     <row r="157" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17">
@@ -9351,12 +9260,12 @@
       <c r="I157" s="31">
         <v>0</v>
       </c>
-      <c r="K157" s="44">
+      <c r="K157" s="42">
         <f t="shared" si="47"/>
         <v>2400000000</v>
       </c>
-      <c r="L157" s="45"/>
-      <c r="M157" s="46"/>
+      <c r="L157" s="43"/>
+      <c r="M157" s="44"/>
     </row>
     <row r="158" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17">
@@ -9374,7 +9283,7 @@
         <v>32</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
@@ -9388,12 +9297,12 @@
       <c r="I158" s="31">
         <v>0</v>
       </c>
-      <c r="K158" s="44">
+      <c r="K158" s="42">
         <f t="shared" si="47"/>
         <v>10000000000</v>
       </c>
-      <c r="L158" s="45"/>
-      <c r="M158" s="46"/>
+      <c r="L158" s="43"/>
+      <c r="M158" s="44"/>
     </row>
     <row r="159" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17">
@@ -9411,7 +9320,7 @@
         <v>32</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
@@ -9425,12 +9334,12 @@
       <c r="I159" s="31">
         <v>0</v>
       </c>
-      <c r="K159" s="44">
+      <c r="K159" s="42">
         <f t="shared" si="47"/>
         <v>8000000000</v>
       </c>
-      <c r="L159" s="45"/>
-      <c r="M159" s="46"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="44"/>
     </row>
     <row r="160" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17">
@@ -9448,7 +9357,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
@@ -9462,12 +9371,12 @@
       <c r="I160" s="31">
         <v>0</v>
       </c>
-      <c r="K160" s="44">
+      <c r="K160" s="42">
         <f t="shared" si="47"/>
         <v>21000000000</v>
       </c>
-      <c r="L160" s="45"/>
-      <c r="M160" s="46"/>
+      <c r="L160" s="43"/>
+      <c r="M160" s="44"/>
     </row>
     <row r="161" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17">
@@ -9485,7 +9394,7 @@
         <v>32</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
@@ -9499,12 +9408,12 @@
       <c r="I161" s="31">
         <v>0</v>
       </c>
-      <c r="K161" s="44">
+      <c r="K161" s="42">
         <f t="shared" si="47"/>
         <v>18247320000</v>
       </c>
-      <c r="L161" s="45"/>
-      <c r="M161" s="46"/>
+      <c r="L161" s="43"/>
+      <c r="M161" s="44"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="17">
@@ -9522,7 +9431,7 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -9537,14 +9446,14 @@
         <v>0</v>
       </c>
       <c r="K162" s="20">
-        <f t="shared" ref="K162:K193" si="48">E162/10*10000*F162</f>
+        <f t="shared" ref="K162:K163" si="48">E162/10*10000*F162</f>
         <v>30000000</v>
       </c>
       <c r="L162" s="25">
         <f t="shared" ref="L162:L186" si="49">SUM(K162:K169)/10000</f>
         <v>15889120</v>
       </c>
-      <c r="M162" s="48">
+      <c r="M162" s="46">
         <v>15900000</v>
       </c>
     </row>
@@ -9564,7 +9473,7 @@
         <v>29</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F163">
         <v>300</v>
@@ -9582,7 +9491,7 @@
         <f t="shared" si="48"/>
         <v>750000000</v>
       </c>
-      <c r="L163" s="45"/>
+      <c r="L163" s="43"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="17">
@@ -9614,11 +9523,11 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="K164" s="44">
-        <f t="shared" ref="K164:K193" si="50">E164*F164</f>
+      <c r="K164" s="42">
+        <f t="shared" ref="K164:K169" si="50">E164*F164</f>
         <v>30000000000</v>
       </c>
-      <c r="L164" s="45"/>
+      <c r="L164" s="43"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="17">
@@ -9636,7 +9545,7 @@
         <v>32</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F165">
         <v>200</v>
@@ -9650,11 +9559,11 @@
       <c r="I165">
         <v>0</v>
       </c>
-      <c r="K165" s="44">
+      <c r="K165" s="42">
         <f t="shared" si="50"/>
         <v>8000000000</v>
       </c>
-      <c r="L165" s="45"/>
+      <c r="L165" s="43"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
@@ -9672,7 +9581,7 @@
         <v>32</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F166">
         <v>1000</v>
@@ -9686,11 +9595,11 @@
       <c r="I166">
         <v>0</v>
       </c>
-      <c r="K166" s="44">
+      <c r="K166" s="42">
         <f t="shared" si="50"/>
         <v>25000000000</v>
       </c>
-      <c r="L166" s="45"/>
+      <c r="L166" s="43"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
@@ -9722,11 +9631,11 @@
       <c r="I167">
         <v>0</v>
       </c>
-      <c r="K167" s="44">
+      <c r="K167" s="42">
         <f t="shared" si="50"/>
         <v>20000000000</v>
       </c>
-      <c r="L167" s="45"/>
+      <c r="L167" s="43"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
@@ -9744,7 +9653,7 @@
         <v>32</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F168">
         <v>3000</v>
@@ -9758,11 +9667,11 @@
       <c r="I168">
         <v>0</v>
       </c>
-      <c r="K168" s="44">
+      <c r="K168" s="42">
         <f t="shared" si="50"/>
         <v>40800000000</v>
       </c>
-      <c r="L168" s="45"/>
+      <c r="L168" s="43"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="17">
@@ -9780,7 +9689,7 @@
         <v>32</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F169">
         <v>3899</v>
@@ -9794,11 +9703,11 @@
       <c r="I169">
         <v>0</v>
       </c>
-      <c r="K169" s="44">
+      <c r="K169" s="42">
         <f t="shared" si="50"/>
         <v>34311200000</v>
       </c>
-      <c r="L169" s="45"/>
+      <c r="L169" s="43"/>
     </row>
     <row r="170" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
@@ -9831,14 +9740,14 @@
         <v>0</v>
       </c>
       <c r="K170" s="20">
-        <f t="shared" ref="K170:K193" si="51">E170/10*10000*F170</f>
+        <f t="shared" ref="K170:K171" si="51">E170/10*10000*F170</f>
         <v>50000000</v>
       </c>
       <c r="L170" s="25">
         <f t="shared" ref="L170" si="52">SUM(K170:K177)/10000</f>
         <v>33882500</v>
       </c>
-      <c r="M170" s="48">
+      <c r="M170" s="46">
         <v>33900000</v>
       </c>
     </row>
@@ -9858,7 +9767,7 @@
         <v>29</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
@@ -9876,8 +9785,8 @@
         <f t="shared" si="51"/>
         <v>300000000</v>
       </c>
-      <c r="L171" s="45"/>
-      <c r="M171" s="46"/>
+      <c r="L171" s="43"/>
+      <c r="M171" s="44"/>
     </row>
     <row r="172" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17">
@@ -9909,12 +9818,12 @@
       <c r="I172" s="31">
         <v>0</v>
       </c>
-      <c r="K172" s="44">
-        <f t="shared" ref="K172:K193" si="53">E172*F172</f>
+      <c r="K172" s="42">
+        <f t="shared" ref="K172:K177" si="53">E172*F172</f>
         <v>24000000000</v>
       </c>
-      <c r="L172" s="45"/>
-      <c r="M172" s="46"/>
+      <c r="L172" s="43"/>
+      <c r="M172" s="44"/>
     </row>
     <row r="173" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17">
@@ -9932,7 +9841,7 @@
         <v>32</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
@@ -9946,12 +9855,12 @@
       <c r="I173" s="31">
         <v>0</v>
       </c>
-      <c r="K173" s="44">
+      <c r="K173" s="42">
         <f t="shared" si="53"/>
         <v>12000000000</v>
       </c>
-      <c r="L173" s="45"/>
-      <c r="M173" s="46"/>
+      <c r="L173" s="43"/>
+      <c r="M173" s="44"/>
     </row>
     <row r="174" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17">
@@ -9969,7 +9878,7 @@
         <v>32</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
@@ -9983,12 +9892,12 @@
       <c r="I174" s="31">
         <v>0</v>
       </c>
-      <c r="K174" s="44">
+      <c r="K174" s="42">
         <f t="shared" si="53"/>
         <v>75000000000</v>
       </c>
-      <c r="L174" s="45"/>
-      <c r="M174" s="46"/>
+      <c r="L174" s="43"/>
+      <c r="M174" s="44"/>
     </row>
     <row r="175" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17">
@@ -10020,12 +9929,12 @@
       <c r="I175" s="31">
         <v>0</v>
       </c>
-      <c r="K175" s="44">
+      <c r="K175" s="42">
         <f t="shared" si="53"/>
         <v>40000000000</v>
       </c>
-      <c r="L175" s="45"/>
-      <c r="M175" s="46"/>
+      <c r="L175" s="43"/>
+      <c r="M175" s="44"/>
     </row>
     <row r="176" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17">
@@ -10057,12 +9966,12 @@
       <c r="I176" s="31">
         <v>0</v>
       </c>
-      <c r="K176" s="44">
+      <c r="K176" s="42">
         <f t="shared" si="53"/>
         <v>90000000000</v>
       </c>
-      <c r="L176" s="45"/>
-      <c r="M176" s="46"/>
+      <c r="L176" s="43"/>
+      <c r="M176" s="44"/>
     </row>
     <row r="177" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17">
@@ -10094,12 +10003,12 @@
       <c r="I177" s="31">
         <v>0</v>
       </c>
-      <c r="K177" s="44">
+      <c r="K177" s="42">
         <f t="shared" si="53"/>
         <v>97475000000</v>
       </c>
-      <c r="L177" s="45"/>
-      <c r="M177" s="46"/>
+      <c r="L177" s="43"/>
+      <c r="M177" s="44"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="17">
@@ -10117,7 +10026,7 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -10132,14 +10041,14 @@
         <v>0</v>
       </c>
       <c r="K178" s="20">
-        <f t="shared" ref="K178:K193" si="54">E178/10*10000*F178</f>
+        <f t="shared" ref="K178:K179" si="54">E178/10*10000*F178</f>
         <v>80000000</v>
       </c>
       <c r="L178" s="25">
         <f t="shared" si="46"/>
         <v>57893200</v>
       </c>
-      <c r="M178" s="48">
+      <c r="M178" s="46">
         <v>57900000</v>
       </c>
     </row>
@@ -10159,7 +10068,7 @@
         <v>29</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F179">
         <v>500</v>
@@ -10177,7 +10086,7 @@
         <f t="shared" si="54"/>
         <v>2500000000</v>
       </c>
-      <c r="L179" s="45"/>
+      <c r="L179" s="43"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="17">
@@ -10195,7 +10104,7 @@
         <v>32</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F180">
         <v>50</v>
@@ -10209,11 +10118,11 @@
       <c r="I180">
         <v>0</v>
       </c>
-      <c r="K180" s="44">
-        <f t="shared" ref="K180:K193" si="55">E180*F180</f>
+      <c r="K180" s="42">
+        <f t="shared" ref="K180:K185" si="55">E180*F180</f>
         <v>5000000000</v>
       </c>
-      <c r="L180" s="45"/>
+      <c r="L180" s="43"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="17">
@@ -10231,7 +10140,7 @@
         <v>32</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F181">
         <v>50</v>
@@ -10245,11 +10154,11 @@
       <c r="I181">
         <v>0</v>
       </c>
-      <c r="K181" s="44">
+      <c r="K181" s="42">
         <f t="shared" si="55"/>
         <v>4500000000</v>
       </c>
-      <c r="L181" s="45"/>
+      <c r="L181" s="43"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="17">
@@ -10267,7 +10176,7 @@
         <v>32</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182">
         <v>1000</v>
@@ -10281,11 +10190,11 @@
       <c r="I182">
         <v>0</v>
       </c>
-      <c r="K182" s="44">
+      <c r="K182" s="42">
         <f t="shared" si="55"/>
         <v>80000000000</v>
       </c>
-      <c r="L182" s="45"/>
+      <c r="L182" s="43"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="17">
@@ -10303,7 +10212,7 @@
         <v>32</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F183">
         <v>1500</v>
@@ -10317,11 +10226,11 @@
       <c r="I183">
         <v>0</v>
       </c>
-      <c r="K183" s="44">
+      <c r="K183" s="42">
         <f t="shared" si="55"/>
         <v>110700000000</v>
       </c>
-      <c r="L183" s="45"/>
+      <c r="L183" s="43"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
@@ -10339,7 +10248,7 @@
         <v>32</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F184">
         <v>3000</v>
@@ -10353,11 +10262,11 @@
       <c r="I184">
         <v>0</v>
       </c>
-      <c r="K184" s="44">
+      <c r="K184" s="42">
         <f t="shared" si="55"/>
         <v>189000000000</v>
       </c>
-      <c r="L184" s="45"/>
+      <c r="L184" s="43"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="17">
@@ -10375,7 +10284,7 @@
         <v>32</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F185">
         <v>3899</v>
@@ -10389,11 +10298,11 @@
       <c r="I185">
         <v>0</v>
       </c>
-      <c r="K185" s="44">
+      <c r="K185" s="42">
         <f t="shared" si="55"/>
         <v>187152000000</v>
       </c>
-      <c r="L185" s="45"/>
+      <c r="L185" s="43"/>
     </row>
     <row r="186" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17">
@@ -10408,16 +10317,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H186" s="34" t="s">
         <v>59</v>
@@ -10427,14 +10336,14 @@
       </c>
       <c r="J186" s="34"/>
       <c r="K186" s="20">
-        <f t="shared" ref="K186:K193" si="56">E186/10*10000*F186</f>
+        <f t="shared" ref="K186:K187" si="56">E186/10*10000*F186</f>
         <v>150000000</v>
       </c>
       <c r="L186" s="25">
         <f t="shared" si="49"/>
         <v>102859000</v>
       </c>
-      <c r="M186" s="48">
+      <c r="M186" s="46">
         <v>102900000</v>
       </c>
     </row>
@@ -10454,7 +10363,7 @@
         <v>29</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -10472,8 +10381,8 @@
         <f t="shared" si="56"/>
         <v>4500000000</v>
       </c>
-      <c r="L187" s="45"/>
-      <c r="M187" s="46"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="44"/>
     </row>
     <row r="188" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17">
@@ -10491,7 +10400,7 @@
         <v>32</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
@@ -10505,12 +10414,12 @@
       <c r="I188" s="31">
         <v>0</v>
       </c>
-      <c r="K188" s="44">
+      <c r="K188" s="42">
         <f t="shared" ref="K188:K193" si="57">E188*F188</f>
         <v>25000000000</v>
       </c>
-      <c r="L188" s="45"/>
-      <c r="M188" s="46"/>
+      <c r="L188" s="43"/>
+      <c r="M188" s="44"/>
     </row>
     <row r="189" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17">
@@ -10528,7 +10437,7 @@
         <v>32</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
@@ -10542,12 +10451,12 @@
       <c r="I189" s="31">
         <v>0</v>
       </c>
-      <c r="K189" s="44">
+      <c r="K189" s="42">
         <f t="shared" si="57"/>
         <v>15000000000</v>
       </c>
-      <c r="L189" s="45"/>
-      <c r="M189" s="46"/>
+      <c r="L189" s="43"/>
+      <c r="M189" s="44"/>
     </row>
     <row r="190" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17">
@@ -10565,7 +10474,7 @@
         <v>32</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
@@ -10579,12 +10488,12 @@
       <c r="I190" s="31">
         <v>0</v>
       </c>
-      <c r="K190" s="44">
+      <c r="K190" s="42">
         <f t="shared" si="57"/>
         <v>216000000000</v>
       </c>
-      <c r="L190" s="45"/>
-      <c r="M190" s="46"/>
+      <c r="L190" s="43"/>
+      <c r="M190" s="44"/>
     </row>
     <row r="191" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17">
@@ -10616,12 +10525,12 @@
       <c r="I191" s="31">
         <v>0</v>
       </c>
-      <c r="K191" s="44">
+      <c r="K191" s="42">
         <f t="shared" si="57"/>
         <v>240000000000</v>
       </c>
-      <c r="L191" s="45"/>
-      <c r="M191" s="46"/>
+      <c r="L191" s="43"/>
+      <c r="M191" s="44"/>
     </row>
     <row r="192" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17">
@@ -10639,7 +10548,7 @@
         <v>32</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
@@ -10653,12 +10562,12 @@
       <c r="I192" s="31">
         <v>0</v>
       </c>
-      <c r="K192" s="44">
+      <c r="K192" s="42">
         <f t="shared" si="57"/>
         <v>294000000000</v>
       </c>
-      <c r="L192" s="45"/>
-      <c r="M192" s="46"/>
+      <c r="L192" s="43"/>
+      <c r="M192" s="44"/>
     </row>
     <row r="193" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17">
@@ -10676,7 +10585,7 @@
         <v>32</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
@@ -10690,12 +10599,12 @@
       <c r="I193" s="31">
         <v>0</v>
       </c>
-      <c r="K193" s="44">
+      <c r="K193" s="42">
         <f t="shared" si="57"/>
         <v>233940000000</v>
       </c>
-      <c r="L193" s="45"/>
-      <c r="M193" s="46"/>
+      <c r="L193" s="43"/>
+      <c r="M193" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J193"/>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="353">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -127,9 +127,6 @@
     <t>话费碎片*140</t>
   </si>
   <si>
-    <t>话费碎片*1800</t>
-  </si>
-  <si>
     <t>话费碎片*9000</t>
   </si>
   <si>
@@ -157,10 +154,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>by_btn_sd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -189,39 +182,9 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>话费碎片*20</t>
-  </si>
-  <si>
-    <t>话费碎片*80</t>
-  </si>
-  <si>
-    <t>话费碎片*280</t>
-  </si>
-  <si>
-    <t>话费碎片*900</t>
-  </si>
-  <si>
-    <t>话费碎片*3600</t>
-  </si>
-  <si>
-    <t>话费碎片*18000</t>
-  </si>
-  <si>
-    <t>锁定*40</t>
-  </si>
-  <si>
-    <t>话费碎片*320</t>
-  </si>
-  <si>
     <t>话费碎片*1120</t>
   </si>
   <si>
-    <t>话费碎片*13000</t>
-  </si>
-  <si>
-    <t>话费碎片*72000</t>
-  </si>
-  <si>
     <t>com_award_icon_yb1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -242,149 +205,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>activity_icon_gift90_pg11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6500</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>560</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>话费碎片*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_icon_yb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -461,10 +285,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -473,18 +293,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>60000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -493,39 +301,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>300000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -537,206 +313,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>640</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*25000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>20000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鱼币*90000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -798,446 +378,6 @@
   </si>
   <si>
     <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*45000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*300000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*140000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*45000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*550000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*720000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*900000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*640000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*90000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*360000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*12000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*360000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*550000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*16000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*720000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*50000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*24000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*11000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*3600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*240000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*240000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2560000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*2400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*32000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*25000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*9600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*4400000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*1440000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*160000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*48000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*22000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*7200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*320000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1294,582 +434,898 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|平均价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|预期价值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>560000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>660000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>260000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>660000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8060000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4680000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>48000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>73800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>98000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>216000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d3dby_btn_sd</t>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
     <t>锁定*3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|平均价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|预期价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券</t>
   </si>
   <si>
     <t>话费碎片*50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*350</t>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+  </si>
+  <si>
+    <t>3000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+  </si>
+  <si>
+    <t>鱼币*3000000</t>
+  </si>
+  <si>
+    <t>鱼币*1080000</t>
+  </si>
+  <si>
+    <t>鱼币*880000</t>
+  </si>
+  <si>
+    <t>鱼币*660000</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*350000</t>
+  </si>
+  <si>
+    <t>鱼币*260000</t>
+  </si>
+  <si>
+    <t>话费碎片*100</t>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*200</t>
   </si>
   <si>
     <t>5000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费碎片*350</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>560000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>880000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>260000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8060000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费碎片*500</t>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+  </si>
+  <si>
+    <t>鱼币*2600000</t>
   </si>
   <si>
     <t>8000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>31800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4680000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>240000福利券</t>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>63000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>48000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>73800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>98000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>216000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费碎片*2500</t>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+  </si>
+  <si>
+    <t>鱼币*5600000</t>
+  </si>
+  <si>
+    <t>鱼币*4500000</t>
+  </si>
+  <si>
+    <t>15000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*5000</t>
+  </si>
+  <si>
+    <t>鱼币*40000000</t>
+  </si>
+  <si>
+    <t>鱼币*25000000</t>
+  </si>
+  <si>
+    <t>鱼币*18000000</t>
+  </si>
+  <si>
+    <t>鱼币*12000000</t>
+  </si>
+  <si>
+    <t>鱼币*8600000</t>
+  </si>
+  <si>
+    <t>鱼币*7500000</t>
+  </si>
+  <si>
+    <t>话费碎片*400</t>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+  </si>
+  <si>
+    <t>10000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*800</t>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+  </si>
+  <si>
+    <t>鱼币*8060000</t>
+  </si>
+  <si>
+    <t>鱼币*6080000</t>
+  </si>
+  <si>
+    <t>30000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1300</t>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+  </si>
+  <si>
+    <t>鱼币*15800000</t>
+  </si>
+  <si>
+    <t>鱼币*11800000</t>
+  </si>
+  <si>
+    <t>鱼币*7000000</t>
+  </si>
+  <si>
+    <t>50000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*3500</t>
+  </si>
+  <si>
+    <t>鱼币*80000000</t>
+  </si>
+  <si>
+    <t>鱼币*60000000</t>
+  </si>
+  <si>
+    <t>鱼币*31800000</t>
+  </si>
+  <si>
+    <t>鱼币*25600000</t>
+  </si>
+  <si>
+    <t>鱼币*12800000</t>
+  </si>
+  <si>
+    <t>80000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*100000000</t>
+  </si>
+  <si>
+    <t>鱼币*50800000</t>
+  </si>
+  <si>
+    <t>鱼币*45000000</t>
+  </si>
+  <si>
+    <t>100000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000000</t>
+  </si>
+  <si>
+    <t>鱼币*200000000</t>
+  </si>
+  <si>
+    <t>鱼币*150000000</t>
+  </si>
+  <si>
+    <t>鱼币*66000000</t>
+  </si>
+  <si>
+    <t>鱼币*3200000</t>
+  </si>
+  <si>
+    <t>鱼币*2180000</t>
+  </si>
+  <si>
+    <t>鱼币*4680000</t>
+  </si>
+  <si>
+    <t>鱼币*13600000</t>
+  </si>
+  <si>
+    <t>鱼币*8800000</t>
+  </si>
+  <si>
+    <t>话费碎片*3000</t>
+  </si>
+  <si>
+    <t>鱼币*90000000</t>
+  </si>
+  <si>
+    <t>鱼币*73800000</t>
+  </si>
+  <si>
+    <t>鱼币*63000000</t>
+  </si>
+  <si>
+    <t>鱼币*48000000</t>
+  </si>
+  <si>
+    <t>150000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*500000000</t>
+  </si>
+  <si>
+    <t>鱼币*216000000</t>
+  </si>
+  <si>
+    <t>鱼币*160000000</t>
+  </si>
+  <si>
+    <t>鱼币*98000000</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2487,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2496,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2577,16 +2033,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2807,7 +2263,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -3000,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -3193,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -3383,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3413,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -3425,19 +2881,19 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -3454,16 +2910,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
@@ -3491,10 +2947,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="17">
         <v>500</v>
@@ -3503,7 +2959,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="17">
         <v>0</v>
@@ -3526,19 +2982,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
@@ -3561,19 +3017,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F5" s="17">
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
@@ -3596,19 +3052,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="17">
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -3631,19 +3087,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
@@ -3666,19 +3122,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="17">
         <v>0</v>
@@ -3701,19 +3157,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3738,16 +3194,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -3777,19 +3233,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F11" s="22">
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="22">
         <v>0</v>
@@ -3814,19 +3270,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
@@ -3852,19 +3308,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F13" s="22">
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>120</v>
+        <v>251</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -3889,19 +3345,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -3926,19 +3382,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F15" s="22">
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -3963,19 +3419,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I16" s="22">
         <v>0</v>
@@ -4000,19 +3456,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="22">
         <v>0</v>
@@ -4040,16 +3496,16 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -4079,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="27">
         <v>300</v>
@@ -4091,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="27">
         <v>0</v>
@@ -4116,19 +3572,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>271</v>
+        <v>109</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -4153,19 +3609,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -4190,19 +3646,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -4227,19 +3683,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -4264,19 +3720,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="27">
         <v>0</v>
@@ -4301,19 +3757,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="27">
         <v>0</v>
@@ -4341,16 +3797,16 @@
         <v>24</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="31">
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
@@ -4380,19 +3836,19 @@
         <v>2</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="31">
         <v>0</v>
@@ -4417,19 +3873,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F28" s="31">
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I28" s="31">
         <v>0</v>
@@ -4454,19 +3910,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F29" s="31">
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I29" s="31">
         <v>0</v>
@@ -4491,19 +3947,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I30" s="31">
         <v>0</v>
@@ -4528,19 +3984,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F31" s="31">
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I31" s="31">
         <v>0</v>
@@ -4565,19 +4021,19 @@
         <v>7</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="31">
         <v>0</v>
@@ -4602,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I33" s="31">
         <v>0</v>
@@ -4642,16 +4098,16 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4681,19 +4137,19 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4718,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4755,19 +4211,19 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4792,19 +4248,19 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4829,19 +4285,19 @@
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4866,19 +4322,19 @@
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4903,19 +4359,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4943,16 +4399,16 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -4982,19 +4438,19 @@
         <v>2</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
@@ -5019,19 +4475,19 @@
         <v>3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I44" s="31">
         <v>0</v>
@@ -5056,19 +4512,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I45" s="31">
         <v>0</v>
@@ -5093,19 +4549,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
@@ -5130,19 +4586,19 @@
         <v>6</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
@@ -5167,19 +4623,19 @@
         <v>7</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>293</v>
+        <v>129</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I48" s="31">
         <v>0</v>
@@ -5204,19 +4660,19 @@
         <v>8</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="31">
         <v>0</v>
@@ -5244,16 +4700,16 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5283,19 +4739,19 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5319,19 +4775,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5355,19 +4811,19 @@
         <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5391,19 +4847,19 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5427,19 +4883,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5463,19 +4919,19 @@
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5499,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5538,16 +4994,16 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
@@ -5577,19 +5033,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>44</v>
+        <v>283</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="31">
         <v>0</v>
@@ -5614,19 +5070,19 @@
         <v>3</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I60" s="31">
         <v>0</v>
@@ -5651,19 +5107,19 @@
         <v>4</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I61" s="31">
         <v>0</v>
@@ -5688,19 +5144,19 @@
         <v>5</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I62" s="31">
         <v>0</v>
@@ -5725,19 +5181,19 @@
         <v>6</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I63" s="31">
         <v>0</v>
@@ -5762,19 +5218,19 @@
         <v>7</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I64" s="31">
         <v>0</v>
@@ -5799,19 +5255,19 @@
         <v>8</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I65" s="31">
         <v>0</v>
@@ -5839,16 +5295,16 @@
         <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5878,19 +5334,19 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5914,19 +5370,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5950,19 +5406,19 @@
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5986,19 +5442,19 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6022,19 +5478,19 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6058,19 +5514,19 @@
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6094,19 +5550,19 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6133,16 +5589,16 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
@@ -6172,19 +5628,19 @@
         <v>2</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I75" s="31">
         <v>0</v>
@@ -6209,19 +5665,19 @@
         <v>3</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I76" s="31">
         <v>0</v>
@@ -6246,19 +5702,19 @@
         <v>4</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I77" s="31">
         <v>0</v>
@@ -6283,19 +5739,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F78" s="31">
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I78" s="31">
         <v>0</v>
@@ -6320,19 +5776,19 @@
         <v>6</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I79" s="31">
         <v>0</v>
@@ -6357,19 +5813,19 @@
         <v>7</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I80" s="31">
         <v>0</v>
@@ -6394,19 +5850,19 @@
         <v>8</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I81" s="31">
         <v>0</v>
@@ -6434,16 +5890,16 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6473,19 +5929,19 @@
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6509,19 +5965,19 @@
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6545,19 +6001,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6581,19 +6037,19 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6617,19 +6073,19 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6653,19 +6109,19 @@
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6689,19 +6145,19 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>319</v>
+        <v>155</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6728,16 +6184,16 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
@@ -6767,19 +6223,19 @@
         <v>2</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="H91" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I91" s="31">
         <v>0</v>
@@ -6804,19 +6260,19 @@
         <v>3</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I92" s="31">
         <v>0</v>
@@ -6841,19 +6297,19 @@
         <v>4</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I93" s="31">
         <v>0</v>
@@ -6878,19 +6334,19 @@
         <v>5</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I94" s="31">
         <v>0</v>
@@ -6915,19 +6371,19 @@
         <v>6</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I95" s="31">
         <v>0</v>
@@ -6952,19 +6408,19 @@
         <v>7</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="H96" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I96" s="31">
         <v>0</v>
@@ -6989,19 +6445,19 @@
         <v>8</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="H97" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I97" s="31">
         <v>0</v>
@@ -7029,16 +6485,16 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -7068,19 +6524,19 @@
         <v>2</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
@@ -7105,19 +6561,19 @@
         <v>3</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -7142,19 +6598,19 @@
         <v>4</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -7179,19 +6635,19 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>330</v>
+        <v>166</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -7216,19 +6672,19 @@
         <v>6</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>333</v>
+        <v>169</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -7253,19 +6709,19 @@
         <v>7</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I104" s="13">
         <v>0</v>
@@ -7290,19 +6746,19 @@
         <v>8</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>332</v>
+        <v>168</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>122</v>
+        <v>279</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I105" s="13">
         <v>0</v>
@@ -7330,16 +6786,16 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
@@ -7369,19 +6825,19 @@
         <v>2</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>335</v>
+        <v>171</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="H107" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I107" s="31">
         <v>0</v>
@@ -7406,19 +6862,19 @@
         <v>3</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I108" s="31">
         <v>0</v>
@@ -7443,19 +6899,19 @@
         <v>4</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I109" s="31">
         <v>0</v>
@@ -7480,19 +6936,19 @@
         <v>5</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I110" s="31">
         <v>0</v>
@@ -7517,19 +6973,19 @@
         <v>6</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I111" s="31">
         <v>0</v>
@@ -7554,19 +7010,19 @@
         <v>7</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I112" s="31">
         <v>0</v>
@@ -7591,19 +7047,19 @@
         <v>8</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F113" s="31">
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="H113" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I113" s="31">
         <v>0</v>
@@ -7631,16 +7087,16 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7670,19 +7126,19 @@
         <v>2</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I115" s="13">
         <v>0</v>
@@ -7707,19 +7163,19 @@
         <v>3</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7744,19 +7200,19 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7781,19 +7237,19 @@
         <v>5</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7818,19 +7274,19 @@
         <v>6</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7855,19 +7311,19 @@
         <v>7</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I120" s="13">
         <v>0</v>
@@ -7892,19 +7348,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>344</v>
+        <v>180</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I121" s="13">
         <v>0</v>
@@ -7932,16 +7388,16 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -7971,19 +7427,19 @@
         <v>2</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="H123" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I123" s="31">
         <v>0</v>
@@ -8008,19 +7464,19 @@
         <v>3</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I124" s="31">
         <v>0</v>
@@ -8045,19 +7501,19 @@
         <v>4</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I125" s="31">
         <v>0</v>
@@ -8082,19 +7538,19 @@
         <v>5</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I126" s="31">
         <v>0</v>
@@ -8119,19 +7575,19 @@
         <v>6</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I127" s="31">
         <v>0</v>
@@ -8156,19 +7612,19 @@
         <v>7</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I128" s="31">
         <v>0</v>
@@ -8193,19 +7649,19 @@
         <v>8</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="H129" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I129" s="31">
         <v>0</v>
@@ -8233,16 +7689,16 @@
         <v>24</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -8272,19 +7728,19 @@
         <v>2</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I131" s="13">
         <v>0</v>
@@ -8309,19 +7765,19 @@
         <v>3</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -8346,19 +7802,19 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -8383,19 +7839,19 @@
         <v>5</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -8420,19 +7876,19 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -8457,19 +7913,19 @@
         <v>7</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I136" s="13">
         <v>0</v>
@@ -8494,19 +7950,19 @@
         <v>8</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I137" s="13">
         <v>0</v>
@@ -8534,16 +7990,16 @@
         <v>24</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8574,19 +8030,19 @@
         <v>2</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H139" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I139" s="31">
         <v>0</v>
@@ -8611,19 +8067,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I140" s="31">
         <v>0</v>
@@ -8648,19 +8104,19 @@
         <v>4</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I141" s="31">
         <v>0</v>
@@ -8685,19 +8141,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I142" s="31">
         <v>0</v>
@@ -8722,19 +8178,19 @@
         <v>6</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I143" s="31">
         <v>0</v>
@@ -8759,19 +8215,19 @@
         <v>7</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I144" s="31">
         <v>0</v>
@@ -8796,19 +8252,19 @@
         <v>8</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I145" s="31">
         <v>0</v>
@@ -8836,16 +8292,16 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8875,19 +8331,19 @@
         <v>2</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -8911,19 +8367,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>373</v>
+        <v>208</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8947,19 +8403,19 @@
         <v>4</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>374</v>
+        <v>209</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8983,19 +8439,19 @@
         <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9019,19 +8475,19 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9055,19 +8511,19 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9091,19 +8547,19 @@
         <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
-      <c r="G153" t="s">
-        <v>49</v>
+      <c r="G153" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9130,16 +8586,16 @@
         <v>24</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F154" s="31">
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
@@ -9169,19 +8625,19 @@
         <v>2</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I155" s="31">
         <v>0</v>
@@ -9206,19 +8662,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I156" s="31">
         <v>0</v>
@@ -9243,19 +8699,19 @@
         <v>4</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F157" s="31">
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I157" s="31">
         <v>0</v>
@@ -9280,19 +8736,19 @@
         <v>5</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -9317,19 +8773,19 @@
         <v>6</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -9354,19 +8810,19 @@
         <v>7</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>379</v>
+        <v>214</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I160" s="31">
         <v>0</v>
@@ -9391,19 +8847,19 @@
         <v>8</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>382</v>
+        <v>217</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I161" s="31">
         <v>0</v>
@@ -9431,16 +8887,16 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -9470,19 +8926,19 @@
         <v>2</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -9506,19 +8962,19 @@
         <v>3</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9542,19 +8998,19 @@
         <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9578,19 +9034,19 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>385</v>
+        <v>220</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9614,19 +9070,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9650,19 +9106,19 @@
         <v>7</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -9686,19 +9142,19 @@
         <v>8</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -9725,16 +9181,16 @@
         <v>24</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F170" s="31">
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -9764,19 +9220,19 @@
         <v>2</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>388</v>
+        <v>223</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="H171" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I171" s="31">
         <v>0</v>
@@ -9801,19 +9257,19 @@
         <v>3</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F172" s="31">
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I172" s="31">
         <v>0</v>
@@ -9838,19 +9294,19 @@
         <v>4</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I173" s="31">
         <v>0</v>
@@ -9875,19 +9331,19 @@
         <v>5</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I174" s="31">
         <v>0</v>
@@ -9912,19 +9368,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I175" s="31">
         <v>0</v>
@@ -9949,19 +9405,19 @@
         <v>7</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I176" s="31">
         <v>0</v>
@@ -9986,19 +9442,19 @@
         <v>8</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F177" s="31">
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="H177" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I177" s="31">
         <v>0</v>
@@ -10026,16 +9482,16 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -10065,19 +9521,19 @@
         <v>2</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>395</v>
+        <v>229</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -10101,19 +9557,19 @@
         <v>3</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -10137,19 +9593,19 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>397</v>
+        <v>231</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -10173,19 +9629,19 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -10209,19 +9665,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -10245,19 +9701,19 @@
         <v>7</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>398</v>
+        <v>232</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -10281,19 +9737,19 @@
         <v>8</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>399</v>
+        <v>233</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -10317,19 +9773,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>392</v>
+        <v>227</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -10360,19 +9816,19 @@
         <v>2</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>400</v>
+        <v>234</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
       </c>
       <c r="G187" s="31" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H187" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I187" s="31">
         <v>0</v>
@@ -10397,19 +9853,19 @@
         <v>3</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>403</v>
+        <v>237</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I188" s="31">
         <v>0</v>
@@ -10434,19 +9890,19 @@
         <v>4</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I189" s="31">
         <v>0</v>
@@ -10471,19 +9927,19 @@
         <v>5</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>405</v>
+        <v>239</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I190" s="31">
         <v>0</v>
@@ -10508,19 +9964,19 @@
         <v>6</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I191" s="31">
         <v>0</v>
@@ -10545,19 +10001,19 @@
         <v>7</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>404</v>
+        <v>238</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="H192" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I192" s="31">
         <v>0</v>
@@ -10582,19 +10038,19 @@
         <v>8</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="H193" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I193" s="31">
         <v>0</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -989,343 +989,345 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3d3dby_btn_sd</t>
+    <t>com_award_icon_money</t>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
+    <t>锁定*3</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*50</t>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*350</t>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+  </si>
+  <si>
+    <t>3000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+  </si>
+  <si>
+    <t>鱼币*3000000</t>
+  </si>
+  <si>
+    <t>鱼币*1080000</t>
+  </si>
+  <si>
+    <t>鱼币*880000</t>
+  </si>
+  <si>
+    <t>鱼币*660000</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*350000</t>
+  </si>
+  <si>
+    <t>鱼币*260000</t>
+  </si>
+  <si>
+    <t>话费碎片*100</t>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*200</t>
+  </si>
+  <si>
+    <t>5000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*500</t>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+  </si>
+  <si>
+    <t>鱼币*2600000</t>
+  </si>
+  <si>
+    <t>8000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*2500</t>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+  </si>
+  <si>
+    <t>鱼币*5600000</t>
+  </si>
+  <si>
+    <t>鱼币*4500000</t>
+  </si>
+  <si>
+    <t>15000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*5000</t>
+  </si>
+  <si>
+    <t>鱼币*40000000</t>
+  </si>
+  <si>
+    <t>鱼币*25000000</t>
+  </si>
+  <si>
+    <t>鱼币*18000000</t>
+  </si>
+  <si>
+    <t>鱼币*12000000</t>
+  </si>
+  <si>
+    <t>鱼币*8600000</t>
+  </si>
+  <si>
+    <t>鱼币*7500000</t>
+  </si>
+  <si>
+    <t>话费碎片*400</t>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+  </si>
+  <si>
+    <t>10000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*800</t>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+  </si>
+  <si>
+    <t>鱼币*8060000</t>
+  </si>
+  <si>
+    <t>鱼币*6080000</t>
+  </si>
+  <si>
+    <t>30000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1300</t>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+  </si>
+  <si>
+    <t>鱼币*15800000</t>
+  </si>
+  <si>
+    <t>鱼币*11800000</t>
+  </si>
+  <si>
+    <t>鱼币*7000000</t>
+  </si>
+  <si>
+    <t>50000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*3500</t>
+  </si>
+  <si>
+    <t>鱼币*80000000</t>
+  </si>
+  <si>
+    <t>鱼币*60000000</t>
+  </si>
+  <si>
+    <t>鱼币*31800000</t>
+  </si>
+  <si>
+    <t>鱼币*25600000</t>
+  </si>
+  <si>
+    <t>鱼币*12800000</t>
+  </si>
+  <si>
+    <t>80000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*100000000</t>
+  </si>
+  <si>
+    <t>鱼币*50800000</t>
+  </si>
+  <si>
+    <t>鱼币*45000000</t>
+  </si>
+  <si>
+    <t>100000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000000</t>
+  </si>
+  <si>
+    <t>鱼币*200000000</t>
+  </si>
+  <si>
+    <t>鱼币*150000000</t>
+  </si>
+  <si>
+    <t>鱼币*66000000</t>
+  </si>
+  <si>
+    <t>鱼币*3200000</t>
+  </si>
+  <si>
+    <t>鱼币*2180000</t>
+  </si>
+  <si>
+    <t>鱼币*4680000</t>
+  </si>
+  <si>
+    <t>鱼币*13600000</t>
+  </si>
+  <si>
+    <t>鱼币*8800000</t>
+  </si>
+  <si>
+    <t>话费碎片*3000</t>
+  </si>
+  <si>
+    <t>鱼币*90000000</t>
+  </si>
+  <si>
+    <t>鱼币*73800000</t>
+  </si>
+  <si>
+    <t>鱼币*63000000</t>
+  </si>
+  <si>
+    <t>鱼币*48000000</t>
+  </si>
+  <si>
+    <t>150000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*500000000</t>
+  </si>
+  <si>
+    <t>鱼币*216000000</t>
+  </si>
+  <si>
+    <t>鱼币*160000000</t>
+  </si>
+  <si>
+    <t>鱼币*98000000</t>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3dby_btn_sd</t>
-  </si>
-  <si>
-    <t>com_award_icon_money</t>
-  </si>
-  <si>
-    <t>鱼币*1280000</t>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-  </si>
-  <si>
-    <t>鱼币*50000</t>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>鱼币*250000</t>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-  </si>
-  <si>
-    <t>锁定*3</t>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*50</t>
-  </si>
-  <si>
-    <t>300福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000</t>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-  </si>
-  <si>
-    <t>鱼币*150000</t>
-  </si>
-  <si>
-    <t>500福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*350</t>
-  </si>
-  <si>
-    <t>鱼币*1000000</t>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-  </si>
-  <si>
-    <t>鱼币*560000</t>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-  </si>
-  <si>
-    <t>1000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1000</t>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-  </si>
-  <si>
-    <t>鱼币*600000</t>
-  </si>
-  <si>
-    <t>鱼币*500000</t>
-  </si>
-  <si>
-    <t>鱼币*280000</t>
-  </si>
-  <si>
-    <t>3000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*5000000</t>
-  </si>
-  <si>
-    <t>鱼币*3000000</t>
-  </si>
-  <si>
-    <t>鱼币*1080000</t>
-  </si>
-  <si>
-    <t>鱼币*880000</t>
-  </si>
-  <si>
-    <t>鱼币*660000</t>
-  </si>
-  <si>
-    <t>鱼币*400000</t>
-  </si>
-  <si>
-    <t>鱼币*350000</t>
-  </si>
-  <si>
-    <t>鱼币*260000</t>
-  </si>
-  <si>
-    <t>话费碎片*100</t>
-  </si>
-  <si>
-    <t>鱼币*1500000</t>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-  </si>
-  <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*200</t>
-  </si>
-  <si>
-    <t>5000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*500</t>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-  </si>
-  <si>
-    <t>鱼币*6000000</t>
-  </si>
-  <si>
-    <t>鱼币*2600000</t>
-  </si>
-  <si>
-    <t>8000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*2500</t>
-  </si>
-  <si>
-    <t>鱼币*15000000</t>
-  </si>
-  <si>
-    <t>鱼币*10000000</t>
-  </si>
-  <si>
-    <t>鱼币*5600000</t>
-  </si>
-  <si>
-    <t>鱼币*4500000</t>
-  </si>
-  <si>
-    <t>15000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*5000</t>
-  </si>
-  <si>
-    <t>鱼币*40000000</t>
-  </si>
-  <si>
-    <t>鱼币*25000000</t>
-  </si>
-  <si>
-    <t>鱼币*18000000</t>
-  </si>
-  <si>
-    <t>鱼币*12000000</t>
-  </si>
-  <si>
-    <t>鱼币*8600000</t>
-  </si>
-  <si>
-    <t>鱼币*7500000</t>
-  </si>
-  <si>
-    <t>话费碎片*400</t>
-  </si>
-  <si>
-    <t>鱼币*2500000</t>
-  </si>
-  <si>
-    <t>鱼币*1800000</t>
-  </si>
-  <si>
-    <t>10000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*800</t>
-  </si>
-  <si>
-    <t>鱼币*20000000</t>
-  </si>
-  <si>
-    <t>鱼币*8060000</t>
-  </si>
-  <si>
-    <t>鱼币*6080000</t>
-  </si>
-  <si>
-    <t>30000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1300</t>
-  </si>
-  <si>
-    <t>鱼币*50000000</t>
-  </si>
-  <si>
-    <t>鱼币*30000000</t>
-  </si>
-  <si>
-    <t>鱼币*15800000</t>
-  </si>
-  <si>
-    <t>鱼币*11800000</t>
-  </si>
-  <si>
-    <t>鱼币*7000000</t>
-  </si>
-  <si>
-    <t>50000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*3500</t>
-  </si>
-  <si>
-    <t>鱼币*80000000</t>
-  </si>
-  <si>
-    <t>鱼币*60000000</t>
-  </si>
-  <si>
-    <t>鱼币*31800000</t>
-  </si>
-  <si>
-    <t>鱼币*25600000</t>
-  </si>
-  <si>
-    <t>鱼币*12800000</t>
-  </si>
-  <si>
-    <t>80000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*100000000</t>
-  </si>
-  <si>
-    <t>鱼币*50800000</t>
-  </si>
-  <si>
-    <t>鱼币*45000000</t>
-  </si>
-  <si>
-    <t>100000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000000</t>
-  </si>
-  <si>
-    <t>鱼币*200000000</t>
-  </si>
-  <si>
-    <t>鱼币*150000000</t>
-  </si>
-  <si>
-    <t>鱼币*66000000</t>
-  </si>
-  <si>
-    <t>鱼币*3200000</t>
-  </si>
-  <si>
-    <t>鱼币*2180000</t>
-  </si>
-  <si>
-    <t>鱼币*4680000</t>
-  </si>
-  <si>
-    <t>鱼币*13600000</t>
-  </si>
-  <si>
-    <t>鱼币*8800000</t>
-  </si>
-  <si>
-    <t>话费碎片*3000</t>
-  </si>
-  <si>
-    <t>鱼币*90000000</t>
-  </si>
-  <si>
-    <t>鱼币*73800000</t>
-  </si>
-  <si>
-    <t>鱼币*63000000</t>
-  </si>
-  <si>
-    <t>鱼币*48000000</t>
-  </si>
-  <si>
-    <t>150000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*500000000</t>
-  </si>
-  <si>
-    <t>鱼币*216000000</t>
-  </si>
-  <si>
-    <t>鱼币*160000000</t>
-  </si>
-  <si>
-    <t>鱼币*98000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2839,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>30</v>
@@ -2991,7 +2993,7 @@
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>43</v>
@@ -3026,7 +3028,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>43</v>
@@ -3061,7 +3063,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>50</v>
@@ -3096,7 +3098,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>42</v>
@@ -3131,7 +3133,7 @@
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>32</v>
@@ -3166,10 +3168,10 @@
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3200,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>30</v>
@@ -3242,7 +3244,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3279,7 +3281,7 @@
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>43</v>
@@ -3317,7 +3319,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>43</v>
@@ -3354,7 +3356,7 @@
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>49</v>
@@ -3391,7 +3393,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>42</v>
@@ -3428,7 +3430,7 @@
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>48</v>
@@ -3465,7 +3467,7 @@
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>32</v>
@@ -3502,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>30</v>
@@ -3581,7 +3583,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>43</v>
@@ -3618,7 +3620,7 @@
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>43</v>
@@ -3655,7 +3657,7 @@
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>42</v>
@@ -3692,7 +3694,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>51</v>
@@ -3729,7 +3731,7 @@
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>32</v>
@@ -3766,7 +3768,7 @@
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>32</v>
@@ -3803,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
@@ -3845,7 +3847,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3882,7 +3884,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>43</v>
@@ -3919,7 +3921,7 @@
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>43</v>
@@ -3956,7 +3958,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>42</v>
@@ -3993,7 +3995,7 @@
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>42</v>
@@ -4030,7 +4032,7 @@
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>32</v>
@@ -4067,7 +4069,7 @@
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>32</v>
@@ -4104,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -4146,7 +4148,7 @@
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4183,7 +4185,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>43</v>
@@ -4220,7 +4222,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>43</v>
@@ -4257,7 +4259,7 @@
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>42</v>
@@ -4294,7 +4296,7 @@
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>42</v>
@@ -4331,7 +4333,7 @@
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>32</v>
@@ -4368,7 +4370,7 @@
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>32</v>
@@ -4405,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>30</v>
@@ -4484,7 +4486,7 @@
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>43</v>
@@ -4521,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>43</v>
@@ -4558,7 +4560,7 @@
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>42</v>
@@ -4595,7 +4597,7 @@
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>57</v>
@@ -4632,7 +4634,7 @@
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>32</v>
@@ -4669,7 +4671,7 @@
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>32</v>
@@ -4706,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -4748,7 +4750,7 @@
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4784,7 +4786,7 @@
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>43</v>
@@ -4820,7 +4822,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>43</v>
@@ -4856,7 +4858,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>42</v>
@@ -4892,7 +4894,7 @@
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>56</v>
@@ -4928,7 +4930,7 @@
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>32</v>
@@ -4964,7 +4966,7 @@
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>32</v>
@@ -5000,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>30</v>
@@ -5042,7 +5044,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5079,7 +5081,7 @@
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>43</v>
@@ -5116,7 +5118,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>43</v>
@@ -5153,7 +5155,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>42</v>
@@ -5190,7 +5192,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H63" s="34" t="s">
         <v>42</v>
@@ -5227,7 +5229,7 @@
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>32</v>
@@ -5264,7 +5266,7 @@
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>32</v>
@@ -5301,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -5343,7 +5345,7 @@
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5379,7 +5381,7 @@
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>43</v>
@@ -5415,7 +5417,7 @@
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>43</v>
@@ -5451,7 +5453,7 @@
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>42</v>
@@ -5487,7 +5489,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>57</v>
@@ -5523,7 +5525,7 @@
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>32</v>
@@ -5559,7 +5561,7 @@
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>32</v>
@@ -5595,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>30</v>
@@ -5637,7 +5639,7 @@
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5674,7 +5676,7 @@
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>43</v>
@@ -5711,7 +5713,7 @@
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>43</v>
@@ -5748,7 +5750,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>42</v>
@@ -5785,7 +5787,7 @@
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>42</v>
@@ -5822,7 +5824,7 @@
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>32</v>
@@ -5859,7 +5861,7 @@
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>32</v>
@@ -5896,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>30</v>
@@ -5938,7 +5940,7 @@
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5974,7 +5976,7 @@
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>43</v>
@@ -6010,7 +6012,7 @@
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>43</v>
@@ -6046,7 +6048,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>42</v>
@@ -6082,7 +6084,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>42</v>
@@ -6118,7 +6120,7 @@
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>32</v>
@@ -6154,7 +6156,7 @@
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>32</v>
@@ -6190,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>30</v>
@@ -6232,7 +6234,7 @@
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6269,7 +6271,7 @@
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H92" s="34" t="s">
         <v>43</v>
@@ -6306,7 +6308,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>43</v>
@@ -6343,7 +6345,7 @@
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H94" s="34" t="s">
         <v>42</v>
@@ -6380,7 +6382,7 @@
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H95" s="34" t="s">
         <v>42</v>
@@ -6417,7 +6419,7 @@
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>32</v>
@@ -6454,7 +6456,7 @@
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>32</v>
@@ -6491,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>30</v>
@@ -6533,7 +6535,7 @@
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6570,7 +6572,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>43</v>
@@ -6607,7 +6609,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>43</v>
@@ -6644,7 +6646,7 @@
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>42</v>
@@ -6681,7 +6683,7 @@
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>59</v>
@@ -6718,7 +6720,7 @@
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>32</v>
@@ -6755,7 +6757,7 @@
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>32</v>
@@ -6792,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>30</v>
@@ -6834,7 +6836,7 @@
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6871,7 +6873,7 @@
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>43</v>
@@ -6908,7 +6910,7 @@
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H109" s="34" t="s">
         <v>43</v>
@@ -6945,7 +6947,7 @@
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>42</v>
@@ -6982,7 +6984,7 @@
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>60</v>
@@ -7019,7 +7021,7 @@
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>32</v>
@@ -7056,7 +7058,7 @@
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>32</v>
@@ -7093,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>30</v>
@@ -7135,7 +7137,7 @@
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7172,7 +7174,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>43</v>
@@ -7209,7 +7211,7 @@
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>43</v>
@@ -7246,7 +7248,7 @@
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>42</v>
@@ -7283,7 +7285,7 @@
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>57</v>
@@ -7320,7 +7322,7 @@
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>32</v>
@@ -7357,7 +7359,7 @@
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>32</v>
@@ -7394,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>30</v>
@@ -7436,7 +7438,7 @@
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7473,7 +7475,7 @@
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H124" s="34" t="s">
         <v>43</v>
@@ -7510,7 +7512,7 @@
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H125" s="34" t="s">
         <v>43</v>
@@ -7547,7 +7549,7 @@
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H126" s="34" t="s">
         <v>42</v>
@@ -7584,7 +7586,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H127" s="34" t="s">
         <v>64</v>
@@ -7621,7 +7623,7 @@
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>32</v>
@@ -7658,7 +7660,7 @@
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>32</v>
@@ -7695,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>30</v>
@@ -7737,7 +7739,7 @@
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7774,7 +7776,7 @@
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>43</v>
@@ -7811,7 +7813,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>43</v>
@@ -7848,7 +7850,7 @@
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>42</v>
@@ -7885,7 +7887,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>42</v>
@@ -7922,7 +7924,7 @@
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>32</v>
@@ -7959,7 +7961,7 @@
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>32</v>
@@ -7996,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>30</v>
@@ -8076,7 +8078,7 @@
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H140" s="34" t="s">
         <v>43</v>
@@ -8113,7 +8115,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>43</v>
@@ -8150,7 +8152,7 @@
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H142" s="34" t="s">
         <v>42</v>
@@ -8187,7 +8189,7 @@
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H143" s="34" t="s">
         <v>57</v>
@@ -8224,7 +8226,7 @@
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>32</v>
@@ -8261,7 +8263,7 @@
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>32</v>
@@ -8298,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>30</v>
@@ -8340,7 +8342,7 @@
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8376,7 +8378,7 @@
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>43</v>
@@ -8412,7 +8414,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>43</v>
@@ -8448,7 +8450,7 @@
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>42</v>
@@ -8484,7 +8486,7 @@
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>59</v>
@@ -8520,10 +8522,10 @@
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8556,10 +8558,10 @@
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8592,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H154" s="34" t="s">
         <v>30</v>
@@ -8671,7 +8673,7 @@
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H156" s="34" t="s">
         <v>43</v>
@@ -8708,7 +8710,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H157" s="34" t="s">
         <v>43</v>
@@ -8745,7 +8747,7 @@
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H158" s="34" t="s">
         <v>42</v>
@@ -8782,7 +8784,7 @@
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H159" s="34" t="s">
         <v>62</v>
@@ -8819,7 +8821,7 @@
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>32</v>
@@ -8856,7 +8858,7 @@
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>32</v>
@@ -8893,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>30</v>
@@ -8935,7 +8937,7 @@
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8971,7 +8973,7 @@
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>43</v>
@@ -9007,7 +9009,7 @@
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>43</v>
@@ -9043,7 +9045,7 @@
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>42</v>
@@ -9079,7 +9081,7 @@
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>65</v>
@@ -9115,7 +9117,7 @@
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>32</v>
@@ -9151,7 +9153,7 @@
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>32</v>
@@ -9187,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H170" s="34" t="s">
         <v>30</v>
@@ -9229,7 +9231,7 @@
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9266,7 +9268,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>43</v>
@@ -9303,7 +9305,7 @@
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H173" s="34" t="s">
         <v>43</v>
@@ -9340,7 +9342,7 @@
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H174" s="34" t="s">
         <v>42</v>
@@ -9377,7 +9379,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H175" s="34" t="s">
         <v>66</v>
@@ -9414,7 +9416,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>32</v>
@@ -9451,7 +9453,7 @@
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>32</v>
@@ -9488,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>30</v>
@@ -9530,7 +9532,7 @@
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9566,7 +9568,7 @@
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>43</v>
@@ -9602,7 +9604,7 @@
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>43</v>
@@ -9638,7 +9640,7 @@
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>42</v>
@@ -9674,7 +9676,7 @@
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>42</v>
@@ -9710,7 +9712,7 @@
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>32</v>
@@ -9746,7 +9748,7 @@
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>32</v>
@@ -9782,10 +9784,10 @@
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9862,7 +9864,7 @@
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H188" s="34" t="s">
         <v>43</v>
@@ -9899,7 +9901,7 @@
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H189" s="34" t="s">
         <v>43</v>
@@ -9936,7 +9938,7 @@
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H190" s="34" t="s">
         <v>42</v>
@@ -9973,7 +9975,7 @@
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H191" s="34" t="s">
         <v>66</v>
@@ -10010,7 +10012,7 @@
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>32</v>
@@ -10047,7 +10049,7 @@
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>32</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'award|奖品配置'!$A$1:$J$193</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -378,10 +378,6 @@
   </si>
   <si>
     <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,21,22,23,24,25,26,27,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1327,6 +1323,10 @@
   </si>
   <si>
     <t>3dby_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -2035,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>93</v>
-      </c>
       <c r="I1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2265,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2841,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2889,13 +2889,13 @@
         <v>46</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2912,13 +2912,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>30</v>
@@ -2987,13 +2987,13 @@
         <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>43</v>
@@ -3028,7 +3028,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>43</v>
@@ -3063,7 +3063,7 @@
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>50</v>
@@ -3098,7 +3098,7 @@
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>42</v>
@@ -3127,13 +3127,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>32</v>
@@ -3162,16 +3162,16 @@
         <v>33</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>30</v>
@@ -3244,7 +3244,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3275,13 +3275,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>43</v>
@@ -3319,7 +3319,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>43</v>
@@ -3350,13 +3350,13 @@
         <v>31</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>49</v>
@@ -3393,7 +3393,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>42</v>
@@ -3424,13 +3424,13 @@
         <v>31</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>48</v>
@@ -3461,13 +3461,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>32</v>
@@ -3498,13 +3498,13 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>30</v>
@@ -3577,13 +3577,13 @@
         <v>31</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>43</v>
@@ -3614,13 +3614,13 @@
         <v>31</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>43</v>
@@ -3651,13 +3651,13 @@
         <v>31</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>42</v>
@@ -3694,7 +3694,7 @@
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>51</v>
@@ -3725,13 +3725,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>32</v>
@@ -3762,13 +3762,13 @@
         <v>31</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>32</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
@@ -3841,13 +3841,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3884,7 +3884,7 @@
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>43</v>
@@ -3921,7 +3921,7 @@
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>43</v>
@@ -3952,13 +3952,13 @@
         <v>31</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>42</v>
@@ -3995,7 +3995,7 @@
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>42</v>
@@ -4026,13 +4026,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>32</v>
@@ -4063,13 +4063,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>32</v>
@@ -4100,13 +4100,13 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -4148,7 +4148,7 @@
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4185,7 +4185,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>43</v>
@@ -4222,7 +4222,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>43</v>
@@ -4253,13 +4253,13 @@
         <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>42</v>
@@ -4290,13 +4290,13 @@
         <v>31</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>42</v>
@@ -4327,13 +4327,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>32</v>
@@ -4364,13 +4364,13 @@
         <v>31</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>32</v>
@@ -4401,13 +4401,13 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>30</v>
@@ -4480,13 +4480,13 @@
         <v>31</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>43</v>
@@ -4517,13 +4517,13 @@
         <v>31</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H45" s="34" t="s">
         <v>43</v>
@@ -4554,13 +4554,13 @@
         <v>31</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>42</v>
@@ -4591,13 +4591,13 @@
         <v>31</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>57</v>
@@ -4628,13 +4628,13 @@
         <v>31</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>32</v>
@@ -4665,13 +4665,13 @@
         <v>31</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>32</v>
@@ -4702,13 +4702,13 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -4744,13 +4744,13 @@
         <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4780,13 +4780,13 @@
         <v>31</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>43</v>
@@ -4822,7 +4822,7 @@
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>43</v>
@@ -4858,7 +4858,7 @@
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>42</v>
@@ -4888,13 +4888,13 @@
         <v>31</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>56</v>
@@ -4924,13 +4924,13 @@
         <v>31</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>32</v>
@@ -4960,13 +4960,13 @@
         <v>31</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>32</v>
@@ -4996,13 +4996,13 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>30</v>
@@ -5038,13 +5038,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5075,13 +5075,13 @@
         <v>31</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H60" s="34" t="s">
         <v>43</v>
@@ -5118,7 +5118,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H61" s="34" t="s">
         <v>43</v>
@@ -5155,7 +5155,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H62" s="34" t="s">
         <v>42</v>
@@ -5186,13 +5186,13 @@
         <v>31</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H63" s="34" t="s">
         <v>42</v>
@@ -5223,13 +5223,13 @@
         <v>31</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>32</v>
@@ -5260,13 +5260,13 @@
         <v>31</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>32</v>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -5339,13 +5339,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5375,13 +5375,13 @@
         <v>31</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>43</v>
@@ -5411,13 +5411,13 @@
         <v>31</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>43</v>
@@ -5447,13 +5447,13 @@
         <v>31</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>42</v>
@@ -5489,7 +5489,7 @@
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>57</v>
@@ -5519,13 +5519,13 @@
         <v>31</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>32</v>
@@ -5555,13 +5555,13 @@
         <v>31</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>32</v>
@@ -5591,13 +5591,13 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>30</v>
@@ -5633,13 +5633,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5676,7 +5676,7 @@
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>43</v>
@@ -5713,7 +5713,7 @@
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>43</v>
@@ -5750,7 +5750,7 @@
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>42</v>
@@ -5787,7 +5787,7 @@
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H79" s="34" t="s">
         <v>42</v>
@@ -5818,13 +5818,13 @@
         <v>31</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>32</v>
@@ -5855,13 +5855,13 @@
         <v>31</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>32</v>
@@ -5892,13 +5892,13 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>30</v>
@@ -5934,13 +5934,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5970,13 +5970,13 @@
         <v>31</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>43</v>
@@ -6006,13 +6006,13 @@
         <v>31</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>43</v>
@@ -6048,7 +6048,7 @@
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>42</v>
@@ -6084,7 +6084,7 @@
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>42</v>
@@ -6114,13 +6114,13 @@
         <v>31</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>32</v>
@@ -6150,13 +6150,13 @@
         <v>31</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>32</v>
@@ -6186,13 +6186,13 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>30</v>
@@ -6228,13 +6228,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6265,13 +6265,13 @@
         <v>31</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H92" s="34" t="s">
         <v>43</v>
@@ -6308,7 +6308,7 @@
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>43</v>
@@ -6339,13 +6339,13 @@
         <v>31</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H94" s="34" t="s">
         <v>42</v>
@@ -6376,13 +6376,13 @@
         <v>31</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H95" s="34" t="s">
         <v>42</v>
@@ -6413,13 +6413,13 @@
         <v>31</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>32</v>
@@ -6450,13 +6450,13 @@
         <v>31</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>32</v>
@@ -6487,13 +6487,13 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>30</v>
@@ -6535,7 +6535,7 @@
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6572,7 +6572,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>43</v>
@@ -6609,7 +6609,7 @@
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>43</v>
@@ -6640,13 +6640,13 @@
         <v>31</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>42</v>
@@ -6677,13 +6677,13 @@
         <v>31</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>59</v>
@@ -6714,13 +6714,13 @@
         <v>31</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>32</v>
@@ -6751,13 +6751,13 @@
         <v>31</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>32</v>
@@ -6788,13 +6788,13 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>30</v>
@@ -6830,13 +6830,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6867,13 +6867,13 @@
         <v>31</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H108" s="34" t="s">
         <v>43</v>
@@ -6904,13 +6904,13 @@
         <v>31</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H109" s="34" t="s">
         <v>43</v>
@@ -6941,13 +6941,13 @@
         <v>31</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>42</v>
@@ -6978,13 +6978,13 @@
         <v>31</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>60</v>
@@ -7021,7 +7021,7 @@
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>32</v>
@@ -7058,7 +7058,7 @@
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>32</v>
@@ -7089,13 +7089,13 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>30</v>
@@ -7131,13 +7131,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7174,7 +7174,7 @@
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H116" s="16" t="s">
         <v>43</v>
@@ -7205,13 +7205,13 @@
         <v>31</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H117" s="16" t="s">
         <v>43</v>
@@ -7242,13 +7242,13 @@
         <v>31</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>42</v>
@@ -7279,13 +7279,13 @@
         <v>31</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>57</v>
@@ -7316,13 +7316,13 @@
         <v>31</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>32</v>
@@ -7353,13 +7353,13 @@
         <v>31</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>32</v>
@@ -7390,13 +7390,13 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>30</v>
@@ -7432,13 +7432,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7469,13 +7469,13 @@
         <v>31</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H124" s="34" t="s">
         <v>43</v>
@@ -7506,13 +7506,13 @@
         <v>31</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H125" s="34" t="s">
         <v>43</v>
@@ -7543,13 +7543,13 @@
         <v>31</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H126" s="34" t="s">
         <v>42</v>
@@ -7580,13 +7580,13 @@
         <v>31</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H127" s="34" t="s">
         <v>64</v>
@@ -7617,13 +7617,13 @@
         <v>31</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>32</v>
@@ -7654,13 +7654,13 @@
         <v>31</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>32</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>30</v>
@@ -7733,13 +7733,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7770,13 +7770,13 @@
         <v>31</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H132" s="16" t="s">
         <v>43</v>
@@ -7807,13 +7807,13 @@
         <v>31</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H133" s="16" t="s">
         <v>43</v>
@@ -7844,13 +7844,13 @@
         <v>31</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H134" s="16" t="s">
         <v>42</v>
@@ -7881,13 +7881,13 @@
         <v>31</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>42</v>
@@ -7918,13 +7918,13 @@
         <v>31</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>32</v>
@@ -7961,7 +7961,7 @@
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>32</v>
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>30</v>
@@ -8035,7 +8035,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8072,13 +8072,13 @@
         <v>31</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H140" s="34" t="s">
         <v>43</v>
@@ -8109,13 +8109,13 @@
         <v>31</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>43</v>
@@ -8146,13 +8146,13 @@
         <v>31</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H142" s="34" t="s">
         <v>42</v>
@@ -8183,13 +8183,13 @@
         <v>31</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H143" s="34" t="s">
         <v>57</v>
@@ -8220,13 +8220,13 @@
         <v>31</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>32</v>
@@ -8257,13 +8257,13 @@
         <v>31</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>32</v>
@@ -8294,13 +8294,13 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>30</v>
@@ -8336,13 +8336,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8372,13 +8372,13 @@
         <v>31</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>43</v>
@@ -8408,13 +8408,13 @@
         <v>31</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>43</v>
@@ -8444,13 +8444,13 @@
         <v>31</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>42</v>
@@ -8480,13 +8480,13 @@
         <v>31</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>59</v>
@@ -8516,16 +8516,16 @@
         <v>31</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8552,13 +8552,13 @@
         <v>31</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>32</v>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H154" s="34" t="s">
         <v>30</v>
@@ -8630,7 +8630,7 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
@@ -8667,13 +8667,13 @@
         <v>31</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H156" s="34" t="s">
         <v>43</v>
@@ -8710,7 +8710,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H157" s="34" t="s">
         <v>43</v>
@@ -8741,13 +8741,13 @@
         <v>31</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H158" s="34" t="s">
         <v>42</v>
@@ -8778,13 +8778,13 @@
         <v>31</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H159" s="34" t="s">
         <v>62</v>
@@ -8815,13 +8815,13 @@
         <v>31</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>32</v>
@@ -8852,13 +8852,13 @@
         <v>31</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>32</v>
@@ -8889,13 +8889,13 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>30</v>
@@ -8931,13 +8931,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8973,7 +8973,7 @@
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>43</v>
@@ -9003,13 +9003,13 @@
         <v>31</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>43</v>
@@ -9039,13 +9039,13 @@
         <v>31</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>42</v>
@@ -9081,7 +9081,7 @@
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>65</v>
@@ -9111,13 +9111,13 @@
         <v>31</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>32</v>
@@ -9147,13 +9147,13 @@
         <v>31</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>32</v>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H170" s="34" t="s">
         <v>30</v>
@@ -9225,13 +9225,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9268,7 +9268,7 @@
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H172" s="34" t="s">
         <v>43</v>
@@ -9299,13 +9299,13 @@
         <v>31</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H173" s="34" t="s">
         <v>43</v>
@@ -9336,13 +9336,13 @@
         <v>31</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H174" s="34" t="s">
         <v>42</v>
@@ -9379,7 +9379,7 @@
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H175" s="34" t="s">
         <v>66</v>
@@ -9416,7 +9416,7 @@
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>32</v>
@@ -9453,7 +9453,7 @@
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>32</v>
@@ -9484,13 +9484,13 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>30</v>
@@ -9526,13 +9526,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9562,13 +9562,13 @@
         <v>31</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>43</v>
@@ -9598,13 +9598,13 @@
         <v>31</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>43</v>
@@ -9634,13 +9634,13 @@
         <v>31</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>42</v>
@@ -9670,13 +9670,13 @@
         <v>31</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>42</v>
@@ -9706,13 +9706,13 @@
         <v>31</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>32</v>
@@ -9742,13 +9742,13 @@
         <v>31</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>32</v>
@@ -9775,19 +9775,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9858,13 +9858,13 @@
         <v>31</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H188" s="34" t="s">
         <v>43</v>
@@ -9895,13 +9895,13 @@
         <v>31</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H189" s="34" t="s">
         <v>43</v>
@@ -9932,13 +9932,13 @@
         <v>31</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H190" s="34" t="s">
         <v>42</v>
@@ -9975,7 +9975,7 @@
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H191" s="34" t="s">
         <v>66</v>
@@ -10006,13 +10006,13 @@
         <v>31</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>32</v>
@@ -10043,13 +10043,13 @@
         <v>31</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>32</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1327,6 +1323,10 @@
   </si>
   <si>
     <t>20,22,23,24,25,26,27,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2035,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="I1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2265,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2841,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2883,19 +2883,19 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2912,13 +2912,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>30</v>
@@ -2952,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="17">
         <v>500</v>
@@ -2987,16 +2987,16 @@
         <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
@@ -3022,16 +3022,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="17">
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="17">
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -3092,16 +3092,16 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>32</v>
@@ -3159,19 +3159,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>30</v>
@@ -3238,13 +3238,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="22">
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3275,16 +3275,16 @@
         <v>31</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="22">
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>31</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -3387,16 +3387,16 @@
         <v>31</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="22">
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -3424,16 +3424,16 @@
         <v>31</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="22">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>32</v>
@@ -3498,13 +3498,13 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>30</v>
@@ -3540,7 +3540,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="27">
         <v>300</v>
@@ -3577,16 +3577,16 @@
         <v>31</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -3614,16 +3614,16 @@
         <v>31</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -3651,16 +3651,16 @@
         <v>31</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -3688,16 +3688,16 @@
         <v>31</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -3725,13 +3725,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>32</v>
@@ -3762,13 +3762,13 @@
         <v>31</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>32</v>
@@ -3799,13 +3799,13 @@
         <v>24</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="31">
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
@@ -3841,13 +3841,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3878,16 +3878,16 @@
         <v>31</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="31">
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="31">
         <v>0</v>
@@ -3915,16 +3915,16 @@
         <v>31</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="31">
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="31">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>31</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="31">
         <v>0</v>
@@ -3989,16 +3989,16 @@
         <v>31</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="31">
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" s="31">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>32</v>
@@ -4063,13 +4063,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>32</v>
@@ -4100,13 +4100,13 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -4142,13 +4142,13 @@
         <v>28</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4179,16 +4179,16 @@
         <v>31</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4216,16 +4216,16 @@
         <v>31</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4253,16 +4253,16 @@
         <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4290,16 +4290,16 @@
         <v>31</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4327,13 +4327,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>32</v>
@@ -4364,13 +4364,13 @@
         <v>31</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>32</v>
@@ -4401,13 +4401,13 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>30</v>
@@ -4443,7 +4443,7 @@
         <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
@@ -4480,16 +4480,16 @@
         <v>31</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" s="31">
         <v>0</v>
@@ -4517,16 +4517,16 @@
         <v>31</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I45" s="31">
         <v>0</v>
@@ -4554,16 +4554,16 @@
         <v>31</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
@@ -4591,16 +4591,16 @@
         <v>31</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
@@ -4628,13 +4628,13 @@
         <v>31</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>32</v>
@@ -4665,13 +4665,13 @@
         <v>31</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>32</v>
@@ -4702,13 +4702,13 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -4744,13 +4744,13 @@
         <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4780,16 +4780,16 @@
         <v>31</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4816,16 +4816,16 @@
         <v>31</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4852,16 +4852,16 @@
         <v>31</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4888,16 +4888,16 @@
         <v>31</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4924,13 +4924,13 @@
         <v>31</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>32</v>
@@ -4960,13 +4960,13 @@
         <v>31</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>32</v>
@@ -4996,13 +4996,13 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>30</v>
@@ -5038,13 +5038,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5075,16 +5075,16 @@
         <v>31</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" s="31">
         <v>0</v>
@@ -5112,16 +5112,16 @@
         <v>31</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" s="31">
         <v>0</v>
@@ -5149,16 +5149,16 @@
         <v>31</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="31">
         <v>0</v>
@@ -5186,16 +5186,16 @@
         <v>31</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I63" s="31">
         <v>0</v>
@@ -5223,13 +5223,13 @@
         <v>31</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>32</v>
@@ -5260,13 +5260,13 @@
         <v>31</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>32</v>
@@ -5297,13 +5297,13 @@
         <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -5339,13 +5339,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5375,16 +5375,16 @@
         <v>31</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5411,16 +5411,16 @@
         <v>31</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5447,16 +5447,16 @@
         <v>31</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5483,16 +5483,16 @@
         <v>31</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5519,13 +5519,13 @@
         <v>31</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>32</v>
@@ -5555,13 +5555,13 @@
         <v>31</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>32</v>
@@ -5591,13 +5591,13 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>30</v>
@@ -5633,13 +5633,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5670,16 +5670,16 @@
         <v>31</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I76" s="31">
         <v>0</v>
@@ -5707,16 +5707,16 @@
         <v>31</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I77" s="31">
         <v>0</v>
@@ -5744,16 +5744,16 @@
         <v>31</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" s="31">
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I78" s="31">
         <v>0</v>
@@ -5781,16 +5781,16 @@
         <v>31</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I79" s="31">
         <v>0</v>
@@ -5818,13 +5818,13 @@
         <v>31</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>32</v>
@@ -5855,13 +5855,13 @@
         <v>31</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>32</v>
@@ -5892,13 +5892,13 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>30</v>
@@ -5934,13 +5934,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5970,16 +5970,16 @@
         <v>31</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6006,16 +6006,16 @@
         <v>31</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6042,16 +6042,16 @@
         <v>31</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6078,16 +6078,16 @@
         <v>31</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6114,13 +6114,13 @@
         <v>31</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>32</v>
@@ -6150,13 +6150,13 @@
         <v>31</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>32</v>
@@ -6186,13 +6186,13 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>30</v>
@@ -6228,13 +6228,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6265,16 +6265,16 @@
         <v>31</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I92" s="31">
         <v>0</v>
@@ -6302,16 +6302,16 @@
         <v>31</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I93" s="31">
         <v>0</v>
@@ -6339,16 +6339,16 @@
         <v>31</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I94" s="31">
         <v>0</v>
@@ -6376,16 +6376,16 @@
         <v>31</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I95" s="31">
         <v>0</v>
@@ -6413,13 +6413,13 @@
         <v>31</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>32</v>
@@ -6450,13 +6450,13 @@
         <v>31</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>32</v>
@@ -6487,13 +6487,13 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>30</v>
@@ -6529,13 +6529,13 @@
         <v>28</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6566,16 +6566,16 @@
         <v>31</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -6603,16 +6603,16 @@
         <v>31</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -6640,16 +6640,16 @@
         <v>31</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -6677,16 +6677,16 @@
         <v>31</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -6714,13 +6714,13 @@
         <v>31</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>32</v>
@@ -6751,13 +6751,13 @@
         <v>31</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>32</v>
@@ -6788,13 +6788,13 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>30</v>
@@ -6830,13 +6830,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6867,16 +6867,16 @@
         <v>31</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I108" s="31">
         <v>0</v>
@@ -6904,16 +6904,16 @@
         <v>31</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I109" s="31">
         <v>0</v>
@@ -6941,16 +6941,16 @@
         <v>31</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I110" s="31">
         <v>0</v>
@@ -6978,16 +6978,16 @@
         <v>31</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I111" s="31">
         <v>0</v>
@@ -7015,13 +7015,13 @@
         <v>31</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>32</v>
@@ -7052,13 +7052,13 @@
         <v>31</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F113" s="31">
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>32</v>
@@ -7089,13 +7089,13 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>30</v>
@@ -7131,13 +7131,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7168,16 +7168,16 @@
         <v>31</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7205,16 +7205,16 @@
         <v>31</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7242,16 +7242,16 @@
         <v>31</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7279,16 +7279,16 @@
         <v>31</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7316,13 +7316,13 @@
         <v>31</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>32</v>
@@ -7353,13 +7353,13 @@
         <v>31</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>32</v>
@@ -7390,13 +7390,13 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>30</v>
@@ -7432,13 +7432,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7469,16 +7469,16 @@
         <v>31</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I124" s="31">
         <v>0</v>
@@ -7506,16 +7506,16 @@
         <v>31</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I125" s="31">
         <v>0</v>
@@ -7543,16 +7543,16 @@
         <v>31</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I126" s="31">
         <v>0</v>
@@ -7580,16 +7580,16 @@
         <v>31</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I127" s="31">
         <v>0</v>
@@ -7617,13 +7617,13 @@
         <v>31</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>32</v>
@@ -7654,13 +7654,13 @@
         <v>31</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>32</v>
@@ -7691,13 +7691,13 @@
         <v>24</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>30</v>
@@ -7733,13 +7733,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7770,16 +7770,16 @@
         <v>31</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -7807,16 +7807,16 @@
         <v>31</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -7844,16 +7844,16 @@
         <v>31</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -7881,16 +7881,16 @@
         <v>31</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -7918,13 +7918,13 @@
         <v>31</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>32</v>
@@ -7955,13 +7955,13 @@
         <v>31</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>32</v>
@@ -7992,13 +7992,13 @@
         <v>24</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>30</v>
@@ -8035,7 +8035,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8072,16 +8072,16 @@
         <v>31</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I140" s="31">
         <v>0</v>
@@ -8109,16 +8109,16 @@
         <v>31</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I141" s="31">
         <v>0</v>
@@ -8146,16 +8146,16 @@
         <v>31</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I142" s="31">
         <v>0</v>
@@ -8183,16 +8183,16 @@
         <v>31</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I143" s="31">
         <v>0</v>
@@ -8220,13 +8220,13 @@
         <v>31</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>32</v>
@@ -8257,13 +8257,13 @@
         <v>31</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>32</v>
@@ -8294,13 +8294,13 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>30</v>
@@ -8336,13 +8336,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8372,16 +8372,16 @@
         <v>31</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8408,16 +8408,16 @@
         <v>31</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8444,16 +8444,16 @@
         <v>31</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8480,16 +8480,16 @@
         <v>31</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8516,16 +8516,16 @@
         <v>31</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8552,13 +8552,13 @@
         <v>31</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>32</v>
@@ -8588,13 +8588,13 @@
         <v>24</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F154" s="31">
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H154" s="34" t="s">
         <v>30</v>
@@ -8630,13 +8630,13 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H155" s="34" t="s">
         <v>29</v>
@@ -8667,16 +8667,16 @@
         <v>31</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I156" s="31">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>31</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F157" s="31">
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I157" s="31">
         <v>0</v>
@@ -8741,16 +8741,16 @@
         <v>31</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>31</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -8815,13 +8815,13 @@
         <v>31</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>32</v>
@@ -8852,13 +8852,13 @@
         <v>31</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>32</v>
@@ -8889,13 +8889,13 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>30</v>
@@ -8931,13 +8931,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8967,16 +8967,16 @@
         <v>31</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>31</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9039,16 +9039,16 @@
         <v>31</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9075,16 +9075,16 @@
         <v>31</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9111,13 +9111,13 @@
         <v>31</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>32</v>
@@ -9147,13 +9147,13 @@
         <v>31</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>32</v>
@@ -9183,13 +9183,13 @@
         <v>24</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F170" s="31">
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H170" s="34" t="s">
         <v>30</v>
@@ -9225,13 +9225,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9262,16 +9262,16 @@
         <v>31</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F172" s="31">
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I172" s="31">
         <v>0</v>
@@ -9299,16 +9299,16 @@
         <v>31</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I173" s="31">
         <v>0</v>
@@ -9336,16 +9336,16 @@
         <v>31</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I174" s="31">
         <v>0</v>
@@ -9373,16 +9373,16 @@
         <v>31</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I175" s="31">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>31</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>32</v>
@@ -9447,13 +9447,13 @@
         <v>31</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F177" s="31">
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>32</v>
@@ -9484,13 +9484,13 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>30</v>
@@ -9526,13 +9526,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9562,16 +9562,16 @@
         <v>31</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -9598,16 +9598,16 @@
         <v>31</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -9634,16 +9634,16 @@
         <v>31</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9670,16 +9670,16 @@
         <v>31</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -9706,13 +9706,13 @@
         <v>31</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>32</v>
@@ -9742,13 +9742,13 @@
         <v>31</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>32</v>
@@ -9775,19 +9775,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9858,16 +9858,16 @@
         <v>31</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I188" s="31">
         <v>0</v>
@@ -9895,16 +9895,16 @@
         <v>31</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I189" s="31">
         <v>0</v>
@@ -9932,16 +9932,16 @@
         <v>31</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I190" s="31">
         <v>0</v>
@@ -9969,16 +9969,16 @@
         <v>31</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I191" s="31">
         <v>0</v>
@@ -10006,13 +10006,13 @@
         <v>31</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>32</v>
@@ -10043,13 +10043,13 @@
         <v>31</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>32</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'award|奖品配置'!$A$1:$J$193</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="351">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -522,11 +518,319 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>260000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>500000</t>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>660000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6080000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8060000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>45000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -534,155 +838,491 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>2180000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4680000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13600000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>48000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>73800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>98000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>216000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_money</t>
+  </si>
+  <si>
+    <t>鱼币*1280000</t>
+  </si>
+  <si>
+    <t>鱼币*80000</t>
+  </si>
+  <si>
+    <t>鱼币*50000</t>
+  </si>
+  <si>
+    <t>鱼币*30000</t>
+  </si>
+  <si>
+    <t>鱼币*20000</t>
+  </si>
+  <si>
+    <t>鱼币*10000</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>鱼币*250000</t>
+  </si>
+  <si>
+    <t>鱼币*100000</t>
+  </si>
+  <si>
+    <t>鱼币*60000</t>
+  </si>
+  <si>
+    <t>锁定*3</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*50</t>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000</t>
+  </si>
+  <si>
+    <t>鱼币*200000</t>
+  </si>
+  <si>
+    <t>鱼币*180000</t>
+  </si>
+  <si>
+    <t>鱼币*150000</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*350</t>
+  </si>
+  <si>
+    <t>鱼币*1000000</t>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
+  </si>
+  <si>
+    <t>鱼币*560000</t>
+  </si>
+  <si>
+    <t>鱼币*120000</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1000</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+  </si>
+  <si>
+    <t>鱼币*2000000</t>
+  </si>
+  <si>
+    <t>鱼币*600000</t>
+  </si>
+  <si>
+    <t>鱼币*500000</t>
+  </si>
+  <si>
+    <t>鱼币*280000</t>
+  </si>
+  <si>
+    <t>3000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*5000000</t>
+  </si>
+  <si>
+    <t>鱼币*3000000</t>
+  </si>
+  <si>
+    <t>鱼币*1080000</t>
+  </si>
+  <si>
+    <t>鱼币*880000</t>
+  </si>
+  <si>
+    <t>鱼币*660000</t>
+  </si>
+  <si>
+    <t>鱼币*400000</t>
+  </si>
+  <si>
+    <t>鱼币*350000</t>
+  </si>
+  <si>
+    <t>鱼币*260000</t>
+  </si>
+  <si>
+    <t>话费碎片*100</t>
+  </si>
+  <si>
+    <t>鱼币*1500000</t>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*200</t>
+  </si>
+  <si>
+    <t>5000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*500</t>
+  </si>
+  <si>
+    <t>鱼币*8000000</t>
+  </si>
+  <si>
+    <t>鱼币*6000000</t>
+  </si>
+  <si>
+    <t>鱼币*2600000</t>
+  </si>
+  <si>
+    <t>8000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*2500</t>
+  </si>
+  <si>
+    <t>鱼币*15000000</t>
+  </si>
+  <si>
+    <t>鱼币*10000000</t>
+  </si>
+  <si>
+    <t>鱼币*5600000</t>
+  </si>
+  <si>
+    <t>鱼币*4500000</t>
+  </si>
+  <si>
+    <t>15000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*5000</t>
+  </si>
+  <si>
+    <t>鱼币*40000000</t>
+  </si>
+  <si>
+    <t>鱼币*25000000</t>
+  </si>
+  <si>
+    <t>鱼币*18000000</t>
+  </si>
+  <si>
+    <t>鱼币*12000000</t>
+  </si>
+  <si>
+    <t>鱼币*8600000</t>
+  </si>
+  <si>
+    <t>鱼币*7500000</t>
+  </si>
+  <si>
+    <t>话费碎片*400</t>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+  </si>
+  <si>
+    <t>鱼币*1800000</t>
+  </si>
+  <si>
+    <t>10000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*800</t>
+  </si>
+  <si>
+    <t>鱼币*20000000</t>
+  </si>
+  <si>
+    <t>鱼币*8060000</t>
+  </si>
+  <si>
+    <t>鱼币*6080000</t>
+  </si>
+  <si>
+    <t>30000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*1300</t>
+  </si>
+  <si>
+    <t>鱼币*50000000</t>
+  </si>
+  <si>
+    <t>鱼币*30000000</t>
+  </si>
+  <si>
+    <t>鱼币*15800000</t>
+  </si>
+  <si>
+    <t>鱼币*11800000</t>
+  </si>
+  <si>
+    <t>鱼币*7000000</t>
+  </si>
+  <si>
+    <t>50000福利券</t>
+  </si>
+  <si>
+    <t>话费碎片*3500</t>
+  </si>
+  <si>
+    <t>鱼币*80000000</t>
+  </si>
+  <si>
+    <t>鱼币*60000000</t>
+  </si>
+  <si>
+    <t>鱼币*31800000</t>
+  </si>
+  <si>
+    <t>鱼币*25600000</t>
+  </si>
+  <si>
+    <t>鱼币*12800000</t>
+  </si>
+  <si>
+    <t>80000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*100000000</t>
+  </si>
+  <si>
+    <t>鱼币*50800000</t>
+  </si>
+  <si>
+    <t>鱼币*45000000</t>
+  </si>
+  <si>
+    <t>100000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*300000000</t>
+  </si>
+  <si>
+    <t>鱼币*200000000</t>
+  </si>
+  <si>
+    <t>鱼币*150000000</t>
+  </si>
+  <si>
+    <t>鱼币*66000000</t>
+  </si>
+  <si>
+    <t>鱼币*3200000</t>
+  </si>
+  <si>
+    <t>鱼币*2180000</t>
+  </si>
+  <si>
+    <t>鱼币*4680000</t>
+  </si>
+  <si>
+    <t>鱼币*13600000</t>
+  </si>
+  <si>
+    <t>鱼币*8800000</t>
+  </si>
+  <si>
+    <t>话费碎片*3000</t>
+  </si>
+  <si>
+    <t>鱼币*90000000</t>
+  </si>
+  <si>
+    <t>鱼币*73800000</t>
+  </si>
+  <si>
+    <t>鱼币*63000000</t>
+  </si>
+  <si>
+    <t>鱼币*48000000</t>
+  </si>
+  <si>
+    <t>150000福利券</t>
+  </si>
+  <si>
+    <t>鱼币*500000000</t>
+  </si>
+  <si>
+    <t>鱼币*216000000</t>
+  </si>
+  <si>
+    <t>鱼币*160000000</t>
+  </si>
+  <si>
+    <t>鱼币*98000000</t>
+  </si>
+  <si>
+    <t>com_icon_yb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>880000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>260000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>350000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
+    <r>
+      <t>话费碎片*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -690,643 +1330,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>660000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6080000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8060000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>31800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>45000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>66000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2180000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4680000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13600000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>63000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>48000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>73800000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>98000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>216000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_money</t>
-  </si>
-  <si>
-    <t>鱼币*1280000</t>
-  </si>
-  <si>
-    <t>鱼币*80000</t>
-  </si>
-  <si>
-    <t>鱼币*50000</t>
-  </si>
-  <si>
-    <t>鱼币*30000</t>
-  </si>
-  <si>
-    <t>鱼币*20000</t>
-  </si>
-  <si>
-    <t>鱼币*10000</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>鱼币*250000</t>
-  </si>
-  <si>
-    <t>鱼币*100000</t>
-  </si>
-  <si>
-    <t>鱼币*60000</t>
-  </si>
-  <si>
-    <t>锁定*3</t>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*50</t>
-  </si>
-  <si>
-    <t>300福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000</t>
-  </si>
-  <si>
-    <t>鱼币*200000</t>
-  </si>
-  <si>
-    <t>鱼币*180000</t>
-  </si>
-  <si>
-    <t>鱼币*150000</t>
-  </si>
-  <si>
-    <t>500福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*350</t>
-  </si>
-  <si>
-    <t>鱼币*1000000</t>
-  </si>
-  <si>
-    <t>鱼币*800000</t>
-  </si>
-  <si>
-    <t>鱼币*560000</t>
-  </si>
-  <si>
-    <t>鱼币*120000</t>
-  </si>
-  <si>
-    <t>1000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1000</t>
-  </si>
-  <si>
-    <t>鱼币*4000000</t>
-  </si>
-  <si>
-    <t>鱼币*2000000</t>
-  </si>
-  <si>
-    <t>鱼币*600000</t>
-  </si>
-  <si>
-    <t>鱼币*500000</t>
-  </si>
-  <si>
-    <t>鱼币*280000</t>
-  </si>
-  <si>
-    <t>3000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*5000000</t>
-  </si>
-  <si>
-    <t>鱼币*3000000</t>
-  </si>
-  <si>
-    <t>鱼币*1080000</t>
-  </si>
-  <si>
-    <t>鱼币*880000</t>
-  </si>
-  <si>
-    <t>鱼币*660000</t>
-  </si>
-  <si>
-    <t>鱼币*400000</t>
-  </si>
-  <si>
-    <t>鱼币*350000</t>
-  </si>
-  <si>
-    <t>鱼币*260000</t>
-  </si>
-  <si>
-    <t>话费碎片*100</t>
-  </si>
-  <si>
-    <t>鱼币*1500000</t>
-  </si>
-  <si>
-    <t>鱼币*1200000</t>
-  </si>
-  <si>
-    <t>2000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*200</t>
-  </si>
-  <si>
-    <t>5000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*500</t>
-  </si>
-  <si>
-    <t>鱼币*8000000</t>
-  </si>
-  <si>
-    <t>鱼币*6000000</t>
-  </si>
-  <si>
-    <t>鱼币*2600000</t>
-  </si>
-  <si>
-    <t>8000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*2500</t>
-  </si>
-  <si>
-    <t>鱼币*15000000</t>
-  </si>
-  <si>
-    <t>鱼币*10000000</t>
-  </si>
-  <si>
-    <t>鱼币*5600000</t>
-  </si>
-  <si>
-    <t>鱼币*4500000</t>
-  </si>
-  <si>
-    <t>15000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*5000</t>
-  </si>
-  <si>
-    <t>鱼币*40000000</t>
-  </si>
-  <si>
-    <t>鱼币*25000000</t>
-  </si>
-  <si>
-    <t>鱼币*18000000</t>
-  </si>
-  <si>
-    <t>鱼币*12000000</t>
-  </si>
-  <si>
-    <t>鱼币*8600000</t>
-  </si>
-  <si>
-    <t>鱼币*7500000</t>
-  </si>
-  <si>
-    <t>话费碎片*400</t>
-  </si>
-  <si>
-    <t>鱼币*2500000</t>
-  </si>
-  <si>
-    <t>鱼币*1800000</t>
-  </si>
-  <si>
-    <t>10000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*800</t>
-  </si>
-  <si>
-    <t>鱼币*20000000</t>
-  </si>
-  <si>
-    <t>鱼币*8060000</t>
-  </si>
-  <si>
-    <t>鱼币*6080000</t>
-  </si>
-  <si>
-    <t>30000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*1300</t>
-  </si>
-  <si>
-    <t>鱼币*50000000</t>
-  </si>
-  <si>
-    <t>鱼币*30000000</t>
-  </si>
-  <si>
-    <t>鱼币*15800000</t>
-  </si>
-  <si>
-    <t>鱼币*11800000</t>
-  </si>
-  <si>
-    <t>鱼币*7000000</t>
-  </si>
-  <si>
-    <t>50000福利券</t>
-  </si>
-  <si>
-    <t>话费碎片*3500</t>
-  </si>
-  <si>
-    <t>鱼币*80000000</t>
-  </si>
-  <si>
-    <t>鱼币*60000000</t>
-  </si>
-  <si>
-    <t>鱼币*31800000</t>
-  </si>
-  <si>
-    <t>鱼币*25600000</t>
-  </si>
-  <si>
-    <t>鱼币*12800000</t>
-  </si>
-  <si>
-    <t>80000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*100000000</t>
-  </si>
-  <si>
-    <t>鱼币*50800000</t>
-  </si>
-  <si>
-    <t>鱼币*45000000</t>
-  </si>
-  <si>
-    <t>100000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*300000000</t>
-  </si>
-  <si>
-    <t>鱼币*200000000</t>
-  </si>
-  <si>
-    <t>鱼币*150000000</t>
-  </si>
-  <si>
-    <t>鱼币*66000000</t>
-  </si>
-  <si>
-    <t>鱼币*3200000</t>
-  </si>
-  <si>
-    <t>鱼币*2180000</t>
-  </si>
-  <si>
-    <t>鱼币*4680000</t>
-  </si>
-  <si>
-    <t>鱼币*13600000</t>
-  </si>
-  <si>
-    <t>鱼币*8800000</t>
-  </si>
-  <si>
-    <t>话费碎片*3000</t>
-  </si>
-  <si>
-    <t>鱼币*90000000</t>
-  </si>
-  <si>
-    <t>鱼币*73800000</t>
-  </si>
-  <si>
-    <t>鱼币*63000000</t>
-  </si>
-  <si>
-    <t>鱼币*48000000</t>
-  </si>
-  <si>
-    <t>150000福利券</t>
-  </si>
-  <si>
-    <t>鱼币*500000000</t>
-  </si>
-  <si>
-    <t>鱼币*216000000</t>
-  </si>
-  <si>
-    <t>鱼币*160000000</t>
-  </si>
-  <si>
-    <t>鱼币*98000000</t>
-  </si>
-  <si>
-    <t>com_icon_yb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,22,23,24,25,26,27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
+    <t>1200000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1945,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -1954,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2035,16 +2039,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="I1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2265,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2458,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2651,7 +2655,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2841,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2871,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2883,19 +2887,19 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="K1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2912,13 +2916,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>30</v>
@@ -2987,16 +2991,16 @@
         <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
@@ -3022,16 +3026,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="17">
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
@@ -3063,10 +3067,10 @@
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -3092,16 +3096,16 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
@@ -3127,13 +3131,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>32</v>
@@ -3159,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3196,13 +3200,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>30</v>
@@ -3238,13 +3242,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="22">
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3275,16 +3279,16 @@
         <v>31</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
@@ -3313,16 +3317,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="22">
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -3350,16 +3354,16 @@
         <v>31</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -3387,16 +3391,16 @@
         <v>31</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22">
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -3424,16 +3428,16 @@
         <v>31</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="22">
         <v>0</v>
@@ -3461,13 +3465,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H17" s="26" t="s">
         <v>32</v>
@@ -3498,13 +3502,13 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>30</v>
@@ -3577,16 +3581,16 @@
         <v>31</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -3614,16 +3618,16 @@
         <v>31</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -3651,16 +3655,16 @@
         <v>31</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -3688,16 +3692,16 @@
         <v>31</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -3725,13 +3729,13 @@
         <v>31</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>32</v>
@@ -3762,13 +3766,13 @@
         <v>31</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>32</v>
@@ -3805,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>30</v>
@@ -3841,13 +3845,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3878,16 +3882,16 @@
         <v>31</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="31">
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="31">
         <v>0</v>
@@ -3915,16 +3919,16 @@
         <v>31</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="31">
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="31">
         <v>0</v>
@@ -3952,16 +3956,16 @@
         <v>31</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I30" s="31">
         <v>0</v>
@@ -3989,16 +3993,16 @@
         <v>31</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="31">
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I31" s="31">
         <v>0</v>
@@ -4026,13 +4030,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>32</v>
@@ -4063,13 +4067,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>32</v>
@@ -4100,13 +4104,13 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>30</v>
@@ -4142,13 +4146,13 @@
         <v>28</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4179,16 +4183,16 @@
         <v>31</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4216,16 +4220,16 @@
         <v>31</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4253,16 +4257,16 @@
         <v>31</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4290,16 +4294,16 @@
         <v>31</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4327,13 +4331,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>32</v>
@@ -4364,13 +4368,13 @@
         <v>31</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>32</v>
@@ -4401,13 +4405,13 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>30</v>
@@ -4421,7 +4425,7 @@
       </c>
       <c r="L42" s="25">
         <f>SUM(K42:K49)/10000</f>
-        <v>1139250</v>
+        <v>1128250</v>
       </c>
       <c r="M42" s="43">
         <v>1140000</v>
@@ -4443,13 +4447,13 @@
         <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>27</v>
+      <c r="G43" s="34" t="s">
+        <v>348</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4459,7 +4463,7 @@
       </c>
       <c r="K43" s="20">
         <f>E43/10*10000*F43</f>
-        <v>4500000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L43" s="43"/>
       <c r="M43" s="43"/>
@@ -4480,16 +4484,16 @@
         <v>31</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I44" s="31">
         <v>0</v>
@@ -4517,23 +4521,23 @@
         <v>31</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I45" s="31">
         <v>0</v>
       </c>
       <c r="K45" s="42">
         <f t="shared" ref="K45:K49" si="7">E45*F45</f>
-        <v>60000000</v>
+        <v>80000000</v>
       </c>
       <c r="L45" s="43"/>
       <c r="M45" s="43"/>
@@ -4554,23 +4558,23 @@
         <v>31</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
       </c>
       <c r="K46" s="42">
         <f t="shared" si="7"/>
-        <v>1620000000</v>
+        <v>3750000000</v>
       </c>
       <c r="L46" s="43"/>
       <c r="M46" s="43"/>
@@ -4591,23 +4595,23 @@
         <v>31</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
       </c>
       <c r="K47" s="42">
         <f t="shared" si="7"/>
-        <v>880000000</v>
+        <v>1200000000</v>
       </c>
       <c r="L47" s="43"/>
       <c r="M47" s="43"/>
@@ -4628,13 +4632,13 @@
         <v>31</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H48" s="34" t="s">
         <v>32</v>
@@ -4644,7 +4648,7 @@
       </c>
       <c r="K48" s="42">
         <f t="shared" si="7"/>
-        <v>1980000000</v>
+        <v>2400000000</v>
       </c>
       <c r="L48" s="43"/>
       <c r="M48" s="43"/>
@@ -4665,13 +4669,13 @@
         <v>31</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>32</v>
@@ -4702,13 +4706,13 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>30</v>
@@ -4744,13 +4748,13 @@
         <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4780,16 +4784,16 @@
         <v>31</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4816,16 +4820,16 @@
         <v>31</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4852,16 +4856,16 @@
         <v>31</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4888,16 +4892,16 @@
         <v>31</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4924,13 +4928,13 @@
         <v>31</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>32</v>
@@ -4960,13 +4964,13 @@
         <v>31</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>32</v>
@@ -4996,13 +5000,13 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H58" s="34" t="s">
         <v>30</v>
@@ -5038,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5075,16 +5079,16 @@
         <v>31</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60" s="31">
         <v>0</v>
@@ -5112,16 +5116,16 @@
         <v>31</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I61" s="31">
         <v>0</v>
@@ -5149,16 +5153,16 @@
         <v>31</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I62" s="31">
         <v>0</v>
@@ -5186,16 +5190,16 @@
         <v>31</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I63" s="31">
         <v>0</v>
@@ -5223,13 +5227,13 @@
         <v>31</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>32</v>
@@ -5260,13 +5264,13 @@
         <v>31</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H65" s="34" t="s">
         <v>32</v>
@@ -5303,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>30</v>
@@ -5339,13 +5343,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5375,16 +5379,16 @@
         <v>31</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5411,16 +5415,16 @@
         <v>31</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5447,16 +5451,16 @@
         <v>31</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5483,16 +5487,16 @@
         <v>31</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5519,13 +5523,13 @@
         <v>31</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>32</v>
@@ -5555,13 +5559,13 @@
         <v>31</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>32</v>
@@ -5591,13 +5595,13 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>30</v>
@@ -5633,13 +5637,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5670,16 +5674,16 @@
         <v>31</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I76" s="31">
         <v>0</v>
@@ -5707,16 +5711,16 @@
         <v>31</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I77" s="31">
         <v>0</v>
@@ -5744,16 +5748,16 @@
         <v>31</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F78" s="31">
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I78" s="31">
         <v>0</v>
@@ -5781,16 +5785,16 @@
         <v>31</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I79" s="31">
         <v>0</v>
@@ -5818,13 +5822,13 @@
         <v>31</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H80" s="34" t="s">
         <v>32</v>
@@ -5855,13 +5859,13 @@
         <v>31</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>32</v>
@@ -5892,13 +5896,13 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>30</v>
@@ -5934,13 +5938,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5970,16 +5974,16 @@
         <v>31</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6006,16 +6010,16 @@
         <v>31</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6042,16 +6046,16 @@
         <v>31</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6078,16 +6082,16 @@
         <v>31</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6114,13 +6118,13 @@
         <v>31</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>32</v>
@@ -6150,13 +6154,13 @@
         <v>31</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>32</v>
@@ -6186,13 +6190,13 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>30</v>
@@ -6228,13 +6232,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6265,16 +6269,16 @@
         <v>31</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I92" s="31">
         <v>0</v>
@@ -6302,16 +6306,16 @@
         <v>31</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I93" s="31">
         <v>0</v>
@@ -6339,16 +6343,16 @@
         <v>31</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I94" s="31">
         <v>0</v>
@@ -6376,16 +6380,16 @@
         <v>31</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I95" s="31">
         <v>0</v>
@@ -6413,13 +6417,13 @@
         <v>31</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H96" s="34" t="s">
         <v>32</v>
@@ -6450,13 +6454,13 @@
         <v>31</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H97" s="34" t="s">
         <v>32</v>
@@ -6487,13 +6491,13 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>30</v>
@@ -6529,13 +6533,13 @@
         <v>28</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6566,16 +6570,16 @@
         <v>31</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -6603,16 +6607,16 @@
         <v>31</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -6640,16 +6644,16 @@
         <v>31</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -6677,16 +6681,16 @@
         <v>31</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -6714,13 +6718,13 @@
         <v>31</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>32</v>
@@ -6751,13 +6755,13 @@
         <v>31</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>32</v>
@@ -6788,13 +6792,13 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H106" s="34" t="s">
         <v>30</v>
@@ -6830,13 +6834,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6867,16 +6871,16 @@
         <v>31</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I108" s="31">
         <v>0</v>
@@ -6904,16 +6908,16 @@
         <v>31</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I109" s="31">
         <v>0</v>
@@ -6941,16 +6945,16 @@
         <v>31</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I110" s="31">
         <v>0</v>
@@ -6978,16 +6982,16 @@
         <v>31</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I111" s="31">
         <v>0</v>
@@ -7015,13 +7019,13 @@
         <v>31</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>32</v>
@@ -7052,13 +7056,13 @@
         <v>31</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F113" s="31">
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>32</v>
@@ -7089,13 +7093,13 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>30</v>
@@ -7131,13 +7135,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7168,16 +7172,16 @@
         <v>31</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7205,16 +7209,16 @@
         <v>31</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7242,16 +7246,16 @@
         <v>31</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7279,16 +7283,16 @@
         <v>31</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7316,13 +7320,13 @@
         <v>31</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>32</v>
@@ -7353,13 +7357,13 @@
         <v>31</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>32</v>
@@ -7390,13 +7394,13 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>30</v>
@@ -7432,13 +7436,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7469,16 +7473,16 @@
         <v>31</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I124" s="31">
         <v>0</v>
@@ -7506,16 +7510,16 @@
         <v>31</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I125" s="31">
         <v>0</v>
@@ -7543,16 +7547,16 @@
         <v>31</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I126" s="31">
         <v>0</v>
@@ -7580,16 +7584,16 @@
         <v>31</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I127" s="31">
         <v>0</v>
@@ -7617,13 +7621,13 @@
         <v>31</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>32</v>
@@ -7654,13 +7658,13 @@
         <v>31</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H129" s="34" t="s">
         <v>32</v>
@@ -7691,13 +7695,13 @@
         <v>24</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H130" s="16" t="s">
         <v>30</v>
@@ -7733,13 +7737,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7770,16 +7774,16 @@
         <v>31</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -7807,16 +7811,16 @@
         <v>31</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -7844,16 +7848,16 @@
         <v>31</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -7881,16 +7885,16 @@
         <v>31</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -7918,13 +7922,13 @@
         <v>31</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H136" s="16" t="s">
         <v>32</v>
@@ -7955,13 +7959,13 @@
         <v>31</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>32</v>
@@ -7992,13 +7996,13 @@
         <v>24</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>30</v>
@@ -8035,7 +8039,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8072,16 +8076,16 @@
         <v>31</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I140" s="31">
         <v>0</v>
@@ -8109,16 +8113,16 @@
         <v>31</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I141" s="31">
         <v>0</v>
@@ -8146,16 +8150,16 @@
         <v>31</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I142" s="31">
         <v>0</v>
@@ -8183,16 +8187,16 @@
         <v>31</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I143" s="31">
         <v>0</v>
@@ -8220,13 +8224,13 @@
         <v>31</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H144" s="34" t="s">
         <v>32</v>
@@ -8257,13 +8261,13 @@
         <v>31</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H145" s="34" t="s">
         <v>32</v>
@@ -8294,13 +8298,13 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>30</v>
@@ -8336,13 +8340,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8372,16 +8376,16 @@
         <v>31</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8408,16 +8412,16 @@
         <v>31</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8444,16 +8448,16 @@
         <v>31</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8480,16 +8484,16 @@
         <v>31</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8516,16 +8520,16 @@
         <v>31</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8552,13 +8556,13 @@
         <v>31</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>32</v>
@@ -8594,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H154" s="34" t="s">
         <v>30</v>
@@ -8630,13 +8634,13 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H155" s="34" t="s">
         <v>29</v>
@@ -8667,16 +8671,16 @@
         <v>31</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I156" s="31">
         <v>0</v>
@@ -8704,16 +8708,16 @@
         <v>31</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F157" s="31">
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I157" s="31">
         <v>0</v>
@@ -8741,16 +8745,16 @@
         <v>31</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -8778,16 +8782,16 @@
         <v>31</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -8815,13 +8819,13 @@
         <v>31</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H160" s="34" t="s">
         <v>32</v>
@@ -8852,13 +8856,13 @@
         <v>31</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H161" s="34" t="s">
         <v>32</v>
@@ -8889,13 +8893,13 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>30</v>
@@ -8931,13 +8935,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8967,16 +8971,16 @@
         <v>31</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9003,16 +9007,16 @@
         <v>31</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9039,16 +9043,16 @@
         <v>31</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9075,16 +9079,16 @@
         <v>31</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9111,13 +9115,13 @@
         <v>31</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>32</v>
@@ -9147,13 +9151,13 @@
         <v>31</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>32</v>
@@ -9183,13 +9187,13 @@
         <v>24</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F170" s="31">
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H170" s="34" t="s">
         <v>30</v>
@@ -9225,13 +9229,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9262,16 +9266,16 @@
         <v>31</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F172" s="31">
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I172" s="31">
         <v>0</v>
@@ -9299,16 +9303,16 @@
         <v>31</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I173" s="31">
         <v>0</v>
@@ -9336,16 +9340,16 @@
         <v>31</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I174" s="31">
         <v>0</v>
@@ -9373,16 +9377,16 @@
         <v>31</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I175" s="31">
         <v>0</v>
@@ -9410,13 +9414,13 @@
         <v>31</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H176" s="34" t="s">
         <v>32</v>
@@ -9447,13 +9451,13 @@
         <v>31</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F177" s="31">
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H177" s="34" t="s">
         <v>32</v>
@@ -9484,13 +9488,13 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>30</v>
@@ -9526,13 +9530,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9562,16 +9566,16 @@
         <v>31</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -9598,16 +9602,16 @@
         <v>31</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -9634,16 +9638,16 @@
         <v>31</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9670,16 +9674,16 @@
         <v>31</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -9706,13 +9710,13 @@
         <v>31</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>32</v>
@@ -9742,13 +9746,13 @@
         <v>31</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>32</v>
@@ -9775,19 +9779,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9821,7 +9825,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9858,16 +9862,16 @@
         <v>31</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I188" s="31">
         <v>0</v>
@@ -9895,16 +9899,16 @@
         <v>31</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I189" s="31">
         <v>0</v>
@@ -9932,16 +9936,16 @@
         <v>31</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I190" s="31">
         <v>0</v>
@@ -9969,16 +9973,16 @@
         <v>31</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I191" s="31">
         <v>0</v>
@@ -10006,13 +10010,13 @@
         <v>31</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H192" s="34" t="s">
         <v>32</v>
@@ -10043,13 +10047,13 @@
         <v>31</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H193" s="34" t="s">
         <v>32</v>

--- a/config_debug/fish_3d_caijin_config.xlsx
+++ b/config_debug/fish_3d_caijin_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="353">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_money</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -957,9 +953,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_money</t>
-  </si>
-  <si>
     <t>鱼币*1280000</t>
   </si>
   <si>
@@ -1063,9 +1056,6 @@
   </si>
   <si>
     <t>鱼币*1080000</t>
-  </si>
-  <si>
-    <t>鱼币*880000</t>
   </si>
   <si>
     <t>鱼币*660000</t>
@@ -1331,6 +1321,25 @@
   </si>
   <si>
     <t>1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls_icon_hb1</t>
+  </si>
+  <si>
+    <t>鱼币*4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*2500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*1200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼币*800000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1949,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1">
         <v>0.05</v>
@@ -1958,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,16 +2048,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>90</v>
-      </c>
       <c r="I1" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>95</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2269,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -2462,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2655,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -2845,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -2887,19 +2896,19 @@
         <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2916,16 +2925,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
@@ -2956,7 +2965,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="17">
         <v>500</v>
@@ -2988,19 +2997,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="17">
         <v>500</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="17">
         <v>0</v>
@@ -3023,19 +3032,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="17">
         <v>500</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="17">
         <v>0</v>
@@ -3058,19 +3067,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="17">
         <v>1000</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="17">
         <v>0</v>
@@ -3093,19 +3102,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17">
         <v>1000</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="17">
         <v>0</v>
@@ -3128,19 +3137,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="17">
         <v>2800</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="17">
         <v>0</v>
@@ -3163,19 +3172,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="17">
         <v>3699</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -3200,16 +3209,16 @@
         <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I10" s="22">
         <v>0</v>
@@ -3242,13 +3251,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="22">
         <v>300</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>29</v>
@@ -3276,19 +3285,19 @@
         <v>3</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="22">
         <v>600</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="22">
         <v>0</v>
@@ -3314,19 +3323,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="22">
         <v>200</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -3351,19 +3360,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="22">
         <v>1000</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -3388,19 +3397,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="22">
         <v>1000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -3425,19 +3434,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="22">
         <v>3000</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="22">
         <v>0</v>
@@ -3462,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="22">
         <v>3899</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="22">
         <v>0</v>
@@ -3502,16 +3511,16 @@
         <v>24</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="27">
         <v>1</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -3544,7 +3553,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="27">
         <v>300</v>
@@ -3578,19 +3587,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="27">
         <v>600</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -3615,19 +3624,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="27">
         <v>200</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -3652,19 +3661,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="27">
         <v>1000</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -3689,19 +3698,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="27">
         <v>1000</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -3726,19 +3735,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="27">
         <v>3000</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" s="27">
         <v>0</v>
@@ -3763,19 +3772,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="27">
         <v>3899</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I25" s="27">
         <v>0</v>
@@ -3803,16 +3812,16 @@
         <v>24</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="31">
         <v>1</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I26" s="31">
         <v>0</v>
@@ -3845,13 +3854,13 @@
         <v>28</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="31">
         <v>100</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>29</v>
@@ -3879,19 +3888,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="31">
         <v>300</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="31">
         <v>0</v>
@@ -3916,19 +3925,19 @@
         <v>4</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="31">
         <v>200</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="31">
         <v>0</v>
@@ -3953,19 +3962,19 @@
         <v>5</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="31">
         <v>2000</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="31">
         <v>0</v>
@@ -3990,19 +3999,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="31">
         <v>500</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="31">
         <v>0</v>
@@ -4027,19 +4036,19 @@
         <v>7</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="31">
         <v>3000</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" s="31">
         <v>0</v>
@@ -4064,19 +4073,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="31">
         <v>3899</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="31">
         <v>0</v>
@@ -4104,16 +4113,16 @@
         <v>24</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4146,13 +4155,13 @@
         <v>28</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>29</v>
@@ -4180,19 +4189,19 @@
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>80</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4217,19 +4226,19 @@
         <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4254,19 +4263,19 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38">
         <v>2000</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4291,19 +4300,19 @@
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>500</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4328,19 +4337,19 @@
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>3000</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4365,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41">
         <v>3899</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4405,16 +4414,16 @@
         <v>24</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="31">
         <v>1</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
@@ -4447,13 +4456,13 @@
         <v>28</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="31">
         <v>500</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>29</v>
@@ -4481,19 +4490,19 @@
         <v>3</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="31">
         <v>80</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I44" s="31">
         <v>0</v>
@@ -4518,19 +4527,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="31">
         <v>20</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45" s="31">
         <v>0</v>
@@ -4555,19 +4564,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F46" s="31">
         <v>1500</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" s="31">
         <v>0</v>
@@ -4592,19 +4601,19 @@
         <v>6</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F47" s="31">
         <v>1000</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I47" s="31">
         <v>0</v>
@@ -4629,19 +4638,19 @@
         <v>7</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F48" s="31">
         <v>3000</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I48" s="31">
         <v>0</v>
@@ -4666,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="31">
         <v>3899</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="31">
         <v>0</v>
@@ -4706,16 +4715,16 @@
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4748,13 +4757,13 @@
         <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>29</v>
@@ -4781,19 +4790,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52">
         <v>500</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4817,19 +4826,19 @@
         <v>4</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <v>500</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4853,19 +4862,19 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>1000</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4889,19 +4898,19 @@
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55">
         <v>1000</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4925,19 +4934,19 @@
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56">
         <v>2800</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4961,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F57">
         <v>2800</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5000,16 +5009,16 @@
         <v>24</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I58" s="31">
         <v>0</v>
@@ -5042,13 +5051,13 @@
         <v>28</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="31">
         <v>300</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H59" s="34" t="s">
         <v>29</v>
@@ -5076,19 +5085,19 @@
         <v>3</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="31">
         <v>600</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60" s="31">
         <v>0</v>
@@ -5113,19 +5122,19 @@
         <v>4</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="31">
         <v>200</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I61" s="31">
         <v>0</v>
@@ -5150,19 +5159,19 @@
         <v>5</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" s="31">
         <v>1000</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I62" s="31">
         <v>0</v>
@@ -5187,19 +5196,19 @@
         <v>6</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="31">
         <v>1000</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I63" s="31">
         <v>0</v>
@@ -5224,19 +5233,19 @@
         <v>7</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="31">
         <v>3000</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I64" s="31">
         <v>0</v>
@@ -5261,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="31">
         <v>3899</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I65" s="31">
         <v>0</v>
@@ -5301,16 +5310,16 @@
         <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5343,13 +5352,13 @@
         <v>28</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>29</v>
@@ -5376,19 +5385,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F68">
         <v>600</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5412,19 +5421,19 @@
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F69">
         <v>200</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5448,19 +5457,19 @@
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70">
         <v>1000</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5484,19 +5493,19 @@
         <v>6</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>1000</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5520,19 +5529,19 @@
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F72">
         <v>3000</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5556,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F73">
         <v>3899</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5595,16 +5604,16 @@
         <v>24</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F74" s="31">
         <v>1</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I74" s="31">
         <v>0</v>
@@ -5637,13 +5646,13 @@
         <v>28</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F75" s="31">
         <v>100</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>29</v>
@@ -5671,19 +5680,19 @@
         <v>3</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F76" s="31">
         <v>300</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I76" s="31">
         <v>0</v>
@@ -5708,19 +5717,19 @@
         <v>4</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" s="31">
         <v>200</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I77" s="31">
         <v>0</v>
@@ -5745,19 +5754,19 @@
         <v>5</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F78" s="31">
         <v>1500</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I78" s="31">
         <v>0</v>
@@ -5782,19 +5791,19 @@
         <v>6</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="31">
         <v>1000</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I79" s="31">
         <v>0</v>
@@ -5819,19 +5828,19 @@
         <v>7</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F80" s="31">
         <v>3000</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" s="31">
         <v>0</v>
@@ -5856,19 +5865,19 @@
         <v>8</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F81" s="31">
         <v>3899</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I81" s="31">
         <v>0</v>
@@ -5896,16 +5905,16 @@
         <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5938,13 +5947,13 @@
         <v>28</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83">
         <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>29</v>
@@ -5971,19 +5980,19 @@
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6007,19 +6016,19 @@
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F85">
         <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6043,19 +6052,19 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86">
         <v>1500</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6079,19 +6088,19 @@
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F87">
         <v>1000</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6115,19 +6124,19 @@
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F88">
         <v>3000</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6151,19 +6160,19 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89">
         <v>3899</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6190,16 +6199,16 @@
         <v>24</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F90" s="31">
         <v>1</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I90" s="31">
         <v>0</v>
@@ -6232,13 +6241,13 @@
         <v>28</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" s="31">
         <v>500</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>29</v>
@@ -6266,19 +6275,19 @@
         <v>3</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F92" s="31">
         <v>50</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I92" s="31">
         <v>0</v>
@@ -6303,19 +6312,19 @@
         <v>4</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F93" s="31">
         <v>50</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I93" s="31">
         <v>0</v>
@@ -6340,19 +6349,19 @@
         <v>5</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F94" s="31">
         <v>1500</v>
       </c>
       <c r="G94" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I94" s="31">
         <v>0</v>
@@ -6377,19 +6386,19 @@
         <v>6</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F95" s="31">
         <v>1000</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I95" s="31">
         <v>0</v>
@@ -6414,19 +6423,19 @@
         <v>7</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F96" s="31">
         <v>3000</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H96" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96" s="31">
         <v>0</v>
@@ -6451,19 +6460,19 @@
         <v>8</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F97" s="31">
         <v>3899</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H97" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" s="31">
         <v>0</v>
@@ -6491,16 +6500,16 @@
         <v>24</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -6533,13 +6542,13 @@
         <v>28</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F99" s="13">
         <v>500</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>29</v>
@@ -6567,19 +6576,19 @@
         <v>3</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F100" s="13">
         <v>800</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -6604,19 +6613,19 @@
         <v>4</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F101" s="13">
         <v>200</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -6641,19 +6650,19 @@
         <v>5</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F102" s="13">
         <v>1000</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I102" s="13">
         <v>0</v>
@@ -6678,19 +6687,19 @@
         <v>6</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I103" s="13">
         <v>0</v>
@@ -6715,19 +6724,19 @@
         <v>7</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F104" s="13">
         <v>2800</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I104" s="13">
         <v>0</v>
@@ -6752,19 +6761,19 @@
         <v>8</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F105" s="13">
         <v>2800</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I105" s="13">
         <v>0</v>
@@ -6792,16 +6801,16 @@
         <v>24</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I106" s="31">
         <v>0</v>
@@ -6834,13 +6843,13 @@
         <v>28</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F107" s="31">
         <v>300</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H107" s="34" t="s">
         <v>29</v>
@@ -6868,19 +6877,19 @@
         <v>3</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F108" s="31">
         <v>600</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I108" s="31">
         <v>0</v>
@@ -6905,19 +6914,19 @@
         <v>4</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F109" s="31">
         <v>200</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I109" s="31">
         <v>0</v>
@@ -6942,19 +6951,19 @@
         <v>5</v>
       </c>
       <c r="D110" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F110" s="31">
         <v>1000</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I110" s="31">
         <v>0</v>
@@ -6979,19 +6988,19 @@
         <v>6</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F111" s="31">
         <v>1000</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I111" s="31">
         <v>0</v>
@@ -7016,19 +7025,19 @@
         <v>7</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F112" s="31">
         <v>3000</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I112" s="31">
         <v>0</v>
@@ -7053,19 +7062,19 @@
         <v>8</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F113" s="31">
         <v>3899</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H113" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I113" s="31">
         <v>0</v>
@@ -7093,16 +7102,16 @@
         <v>24</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F114" s="13">
         <v>1</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I114" s="13">
         <v>0</v>
@@ -7135,13 +7144,13 @@
         <v>28</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F115" s="13">
         <v>300</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>29</v>
@@ -7169,19 +7178,19 @@
         <v>3</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F116" s="13">
         <v>600</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I116" s="13">
         <v>0</v>
@@ -7206,19 +7215,19 @@
         <v>4</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I117" s="13">
         <v>0</v>
@@ -7243,19 +7252,19 @@
         <v>5</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F118" s="13">
         <v>1000</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I118" s="13">
         <v>0</v>
@@ -7280,19 +7289,19 @@
         <v>6</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F119" s="13">
         <v>1000</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I119" s="13">
         <v>0</v>
@@ -7317,19 +7326,19 @@
         <v>7</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F120" s="13">
         <v>3000</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I120" s="13">
         <v>0</v>
@@ -7354,19 +7363,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F121" s="13">
         <v>3899</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I121" s="13">
         <v>0</v>
@@ -7394,16 +7403,16 @@
         <v>24</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F122" s="31">
         <v>1</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -7436,13 +7445,13 @@
         <v>28</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F123" s="31">
         <v>100</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>29</v>
@@ -7470,19 +7479,19 @@
         <v>3</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F124" s="31">
         <v>300</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I124" s="31">
         <v>0</v>
@@ -7507,19 +7516,19 @@
         <v>4</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F125" s="31">
         <v>200</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I125" s="31">
         <v>0</v>
@@ -7544,19 +7553,19 @@
         <v>5</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F126" s="31">
         <v>1500</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I126" s="31">
         <v>0</v>
@@ -7581,19 +7590,19 @@
         <v>6</v>
       </c>
       <c r="D127" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F127" s="31">
         <v>1000</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I127" s="31">
         <v>0</v>
@@ -7618,19 +7627,19 @@
         <v>7</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F128" s="31">
         <v>3000</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I128" s="31">
         <v>0</v>
@@ -7655,19 +7664,19 @@
         <v>8</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F129" s="31">
         <v>3899</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H129" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I129" s="31">
         <v>0</v>
@@ -7695,16 +7704,16 @@
         <v>24</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F130" s="13">
         <v>1</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H130" s="16" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I130" s="13">
         <v>0</v>
@@ -7737,13 +7746,13 @@
         <v>28</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F131" s="13">
         <v>500</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H131" s="16" t="s">
         <v>29</v>
@@ -7771,19 +7780,19 @@
         <v>3</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F132" s="13">
         <v>80</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H132" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I132" s="13">
         <v>0</v>
@@ -7808,19 +7817,19 @@
         <v>4</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F133" s="13">
         <v>20</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I133" s="13">
         <v>0</v>
@@ -7845,19 +7854,19 @@
         <v>5</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F134" s="13">
         <v>1500</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I134" s="13">
         <v>0</v>
@@ -7882,19 +7891,19 @@
         <v>6</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F135" s="13">
         <v>1000</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I135" s="13">
         <v>0</v>
@@ -7919,19 +7928,19 @@
         <v>7</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F136" s="13">
         <v>3000</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I136" s="13">
         <v>0</v>
@@ -7956,19 +7965,19 @@
         <v>8</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F137" s="13">
         <v>3899</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I137" s="13">
         <v>0</v>
@@ -7996,16 +8005,16 @@
         <v>24</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I138" s="31">
         <v>0</v>
@@ -8039,7 +8048,7 @@
         <v>28</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F139" s="31">
         <v>500</v>
@@ -8073,19 +8082,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F140" s="31">
         <v>80</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I140" s="31">
         <v>0</v>
@@ -8110,19 +8119,19 @@
         <v>4</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F141" s="31">
         <v>20</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I141" s="31">
         <v>0</v>
@@ -8147,19 +8156,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F142" s="31">
         <v>1500</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I142" s="31">
         <v>0</v>
@@ -8184,19 +8193,19 @@
         <v>6</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F143" s="31">
         <v>1000</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I143" s="31">
         <v>0</v>
@@ -8221,19 +8230,19 @@
         <v>7</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F144" s="31">
         <v>3000</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I144" s="31">
         <v>0</v>
@@ -8258,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F145" s="31">
         <v>3899</v>
       </c>
       <c r="G145" s="34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I145" s="31">
         <v>0</v>
@@ -8298,16 +8307,16 @@
         <v>24</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8340,13 +8349,13 @@
         <v>28</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F147">
         <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>29</v>
@@ -8373,19 +8382,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F148">
         <v>500</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8409,19 +8418,19 @@
         <v>4</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F149">
         <v>500</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8445,19 +8454,19 @@
         <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F150">
         <v>1000</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8481,19 +8490,19 @@
         <v>6</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F151">
         <v>1000</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8517,19 +8526,19 @@
         <v>7</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F152">
         <v>2800</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8553,19 +8562,19 @@
         <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F153">
         <v>3699</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8592,16 +8601,16 @@
         <v>24</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" s="31">
         <v>1</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I154" s="31">
         <v>0</v>
@@ -8634,13 +8643,13 @@
         <v>28</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F155" s="31">
         <v>300</v>
       </c>
       <c r="G155" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155" s="34" t="s">
         <v>29</v>
@@ -8668,19 +8677,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F156" s="31">
         <v>600</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I156" s="31">
         <v>0</v>
@@ -8705,19 +8714,19 @@
         <v>4</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F157" s="31">
         <v>200</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I157" s="31">
         <v>0</v>
@@ -8742,19 +8751,19 @@
         <v>5</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F158" s="31">
         <v>1000</v>
       </c>
       <c r="G158" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -8779,19 +8788,19 @@
         <v>6</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F159" s="31">
         <v>1000</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -8816,19 +8825,19 @@
         <v>7</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F160" s="31">
         <v>3000</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I160" s="31">
         <v>0</v>
@@ -8853,19 +8862,19 @@
         <v>8</v>
       </c>
       <c r="D161" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F161" s="31">
         <v>3899</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I161" s="31">
         <v>0</v>
@@ -8893,16 +8902,16 @@
         <v>24</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -8935,13 +8944,13 @@
         <v>28</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F163">
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>29</v>
@@ -8968,19 +8977,19 @@
         <v>3</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F164">
         <v>600</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -9004,19 +9013,19 @@
         <v>4</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F165">
         <v>200</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -9040,19 +9049,19 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F166">
         <v>1000</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -9076,19 +9085,19 @@
         <v>6</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F167">
         <v>1000</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -9112,19 +9121,19 @@
         <v>7</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F168">
         <v>3000</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -9148,19 +9157,19 @@
         <v>8</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F169">
         <v>3899</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -9187,16 +9196,16 @@
         <v>24</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F170" s="31">
         <v>1</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -9229,13 +9238,13 @@
         <v>28</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F171" s="31">
         <v>100</v>
       </c>
       <c r="G171" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H171" s="34" t="s">
         <v>29</v>
@@ -9263,19 +9272,19 @@
         <v>3</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F172" s="31">
         <v>300</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I172" s="31">
         <v>0</v>
@@ -9300,19 +9309,19 @@
         <v>4</v>
       </c>
       <c r="D173" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F173" s="31">
         <v>200</v>
       </c>
       <c r="G173" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I173" s="31">
         <v>0</v>
@@ -9337,19 +9346,19 @@
         <v>5</v>
       </c>
       <c r="D174" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F174" s="31">
         <v>1500</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I174" s="31">
         <v>0</v>
@@ -9374,19 +9383,19 @@
         <v>6</v>
       </c>
       <c r="D175" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F175" s="31">
         <v>1000</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I175" s="31">
         <v>0</v>
@@ -9411,19 +9420,19 @@
         <v>7</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F176" s="31">
         <v>3000</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I176" s="31">
         <v>0</v>
@@ -9448,19 +9457,19 @@
         <v>8</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F177" s="31">
         <v>3899</v>
       </c>
       <c r="G177" s="34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H177" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I177" s="31">
         <v>0</v>
@@ -9488,16 +9497,16 @@
         <v>24</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -9530,13 +9539,13 @@
         <v>28</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F179">
         <v>500</v>
       </c>
       <c r="G179" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>29</v>
@@ -9563,19 +9572,19 @@
         <v>3</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F180">
         <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -9599,19 +9608,19 @@
         <v>4</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -9635,19 +9644,19 @@
         <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F182">
         <v>1000</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9671,19 +9680,19 @@
         <v>6</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F183">
         <v>1500</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -9707,19 +9716,19 @@
         <v>7</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F184">
         <v>3000</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -9743,19 +9752,19 @@
         <v>8</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F185">
         <v>3899</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -9779,19 +9788,19 @@
         <v>1</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F186" s="31">
         <v>1</v>
       </c>
       <c r="G186" s="34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="I186" s="31">
         <v>1</v>
@@ -9825,7 +9834,7 @@
         <v>28</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F187" s="31">
         <v>500</v>
@@ -9859,19 +9868,19 @@
         <v>3</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F188" s="31">
         <v>50</v>
       </c>
       <c r="G188" s="34" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I188" s="31">
         <v>0</v>
@@ -9896,19 +9905,19 @@
         <v>4</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F189" s="31">
         <v>50</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I189" s="31">
         <v>0</v>
@@ -9933,19 +9942,19 @@
         <v>5</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F190" s="31">
         <v>1000</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I190" s="31">
         <v>0</v>
@@ -9970,19 +9979,19 @@
         <v>6</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F191" s="31">
         <v>1500</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I191" s="31">
         <v>0</v>
@@ -10007,19 +10016,19 @@
         <v>7</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F192" s="31">
         <v>3000</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H192" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I192" s="31">
         <v>0</v>
@@ -10044,19 +10053,19 @@
         <v>8</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F193" s="31">
         <v>3899</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H193" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I193" s="31">
         <v>0</v>
